--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -29,12 +29,11 @@
     <sheet name="charts" sheetId="24" r:id="rId24"/>
     <sheet name="reportTables" sheetId="25" r:id="rId25"/>
     <sheet name="maps" sheetId="26" r:id="rId26"/>
-    <sheet name="eventReports" sheetId="27" r:id="rId27"/>
-    <sheet name="eventCharts" sheetId="28" r:id="rId28"/>
-    <sheet name="trackedEntityInstanceFilters" sheetId="29" r:id="rId29"/>
-    <sheet name="programNotificationTemplates" sheetId="30" r:id="rId30"/>
-    <sheet name="userGroups" sheetId="31" r:id="rId31"/>
-    <sheet name="users" sheetId="32" r:id="rId32"/>
+    <sheet name="eventCharts" sheetId="27" r:id="rId27"/>
+    <sheet name="trackedEntityInstanceFilters" sheetId="28" r:id="rId28"/>
+    <sheet name="programNotificationTemplates" sheetId="29" r:id="rId29"/>
+    <sheet name="userGroups" sheetId="30" r:id="rId30"/>
+    <sheet name="users" sheetId="31" r:id="rId31"/>
   </sheets>
 </workbook>
 </file>
@@ -450,7 +449,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,7 +465,7 @@
         <v>Code</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX</v>
+        <v>COVAC</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +481,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.0.0</v>
+        <v>V1.1.0</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +489,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.33</v>
+        <v>DHIS2.33.8-3c90b70</v>
       </c>
     </row>
     <row r="6">
@@ -498,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-09T16:32</v>
+        <v>20210302T170052</v>
       </c>
     </row>
     <row r="7">
@@ -506,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_TRACKER_V1.0.0_DHIS2.33_2021-02-09T16:32</v>
+        <v>COVAC_TRACKER_V1.1.0_DHIS2.33.8-3c90b70_20210302T170052</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +520,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -555,7 +554,7 @@
         <v>Ewi7FUfcHAD</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -563,16 +562,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>SnNKiozu7ig</v>
+        <v>T3HmXr0sjTZ</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX Unique System Identifier (EPI)</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>aJJvi3jiLZr</v>
+        <v>KSr2yTdu1AI</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -589,7 +588,7 @@
         <v>TfdH5KvFmMy</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -606,7 +605,7 @@
         <v>aW66s2QSosT</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -617,13 +616,13 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Sex</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>CklPZdOd6H1</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -640,7 +639,7 @@
         <v>Z1rLc1rVHK8</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -657,7 +656,7 @@
         <v>mAWcalQYYyk</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -674,7 +673,7 @@
         <v>ciCR6BBvIT4</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -691,7 +690,7 @@
         <v>VCtm2pySeEV</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -708,7 +707,7 @@
         <v>YCqoNJZKvAG</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -725,7 +724,7 @@
         <v>LY2bDXpNvS7</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -737,13 +736,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="390.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -776,128 +775,128 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>vaccine_type</v>
+        <v>AEFIs_present</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>Are there any adverse events present after receiving the immunization?</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G2" s="4" t="str">
-        <v>bbnyNYD1wgS</v>
+        <v>m9PgIDAJGlF</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC allergic reaction</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Comcondition_present</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v/>
+        <v>If you have had a severe allergic reaction (anaphylaxis) or an immediate allergic reaction—even if it was not severe—after getting the first dose of the vaccine, you should not get another dose of an mRNA COVID-19 vaccine. An immediate allergic reaction means a reaction within 4 hours of getting vaccinated, including symptoms such as hives, swelling, or wheezing (respiratory distress).</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G3" s="5" t="str">
-        <v>bCtWZGjSWM8</v>
+        <v>dWoveSw6b79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC- Batch Number</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Batch Number</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Comcond_pregnant</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Is the patient pregnant or lactating?</v>
+        <v>Batch number for this vaccine dose</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G4" s="4" t="str">
-        <v>BfNZcj99yz4</v>
+        <v>Yp1F4txx8tm</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX_Chronic Lung Disease</v>
+        <v>COVAC Cardiovascular Disease</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Covax_Comcond_lung</v>
+        <v>Covac_Comcond_cardi</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Chronic Lung Disease</v>
+        <v>Cardiovascular disease, including hypertension</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G5" s="5" t="str">
-        <v>C0Bony47eKp</v>
+        <v>LNHAYF3qdZl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC_Chronic Lung Disease</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>covax_pregnancy_gestation</v>
+        <v>Covac_Comcond_lung</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Pregnancy gestation (weeks)</v>
+        <v>Chronic Lung Disease</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G6" s="4" t="str">
-        <v>CBAs12YL4g7</v>
+        <v>C0Bony47eKp</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Diabetes</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC Diabetes</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>covax_Comcond_other</v>
+        <v>Covac_Comcond_diabetes</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
@@ -906,67 +905,67 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G7" s="5" t="str">
-        <v>dpyQUtizp7s</v>
+        <v>TT1h0vGu5da</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v/>
+        <v>dose_expiry_date</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>This is the last dose in the course</v>
+        <v>Date dose of expiration</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <v>DSOWCIdQ8Tr</v>
+        <v>YTQulAldGOs</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX Allergic reaction after first dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX allergic reaction</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v/>
+        <v>dose_number</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>If you have had a severe allergic reaction (anaphylaxis) or an immediate allergic reaction—even if it was not severe—after getting the first dose of the vaccine, you should not get another dose of an mRNA COVID-19 vaccine. An immediate allergic reaction means a reaction within 4 hours of getting vaccinated, including symptoms such as hives, swelling, or wheezing (respiratory distress).</v>
+        <v>Defines if this is the first vs the second dose, for example</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G9" s="5" t="str">
-        <v>dWoveSw6b79</v>
+        <v>LUIsbsm3okG</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Next dose date</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_immuno</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -975,182 +974,182 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <v>FFWcps4MfuH</v>
+        <v>MuZ9dMVXpuM</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Covax_Comcond_renal</v>
+        <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v/>
+        <v>This is the last dose in the course</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G11" s="5" t="str">
-        <v>gW4pd818Sw8</v>
+        <v>DSOWCIdQ8Tr</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>AEFI_Serious adverse event following immunization</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Serious adverse event following immunization</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_malig</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v/>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G12" s="4" t="str">
-        <v>kQCVFWE2MPb</v>
+        <v>xVxLMku5DMX</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX Cardiovascular Disease</v>
+        <v>Multiple products explanation</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Covax_Comcond_cardi</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>Cardiovascular disease, including hypertension</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G13" s="5" t="str">
-        <v>LNHAYF3qdZl</v>
+        <v>OAxinuYFDG6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Previously infected with COVID</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v/>
+        <v>COVAC_Comcond_neuro</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
+        <v>Chronic neurological or neuromuscular disease</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G14" s="4" t="str">
-        <v>LOU9t0aR0z7</v>
+        <v>VCetMtYu1DY</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>dose_number</v>
+        <v>Comcond_pregnant</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>Defines if this is the first vs the second dose, for example</v>
+        <v>Is the patient pregnant or lactating?</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G15" s="5" t="str">
-        <v>LUIsbsm3okG</v>
+        <v>BfNZcj99yz4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>AEFIs_present</v>
+        <v>covac_pregnancy_gestation</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>Are there any adverse events present after receiving the immunization?</v>
+        <v>Pregnancy gestation (weeks)</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-02-01</v>
+        <v/>
       </c>
       <c r="G16" s="4" t="str">
-        <v>m9PgIDAJGlF</v>
+        <v>CBAs12YL4g7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>Previously infected with COVID</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Covax_Comcond_immuno</v>
+        <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v/>
+        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G17" s="5" t="str">
-        <v>MuZ9dMVXpuM</v>
+        <v>LOU9t0aR0z7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Multiple products explanation</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_renal</v>
       </c>
       <c r="D18" s="4" t="str">
         <v/>
@@ -1159,90 +1158,90 @@
         <v>default</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G18" s="4" t="str">
-        <v>OAxinuYFDG6</v>
+        <v>gW4pd818Sw8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>Next dose date</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>eligible</v>
+        <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>Whether the client is eligible for the vaccine</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G19" s="5" t="str">
-        <v>OXBnk0mWcOw</v>
+        <v>FFWcps4MfuH</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX Date of remission</v>
+        <v>COVAC - Total doses</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Date of remission COVID</v>
+        <v>COVAC Total doses</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v/>
+        <v>totalDoses</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v/>
+        <v xml:space="preserve">Total doses required for this vaccine product </v>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G20" s="4" t="str">
-        <v>oZiX5uHkacg</v>
+        <v>PamkjF1JUnE</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>totalDoses</v>
+        <v>Comcondition_present</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v xml:space="preserve">Total doses required for this vaccine product </v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G21" s="5" t="str">
-        <v>PamkjF1JUnE</v>
+        <v>bCtWZGjSWM8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - Manufacturer</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX Manufacturer</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v/>
+        <v>covac_Comcond_other</v>
       </c>
       <c r="D22" s="4" t="str">
         <v/>
@@ -1251,21 +1250,21 @@
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-02-04</v>
+        <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <v>rpkH9ZPGJcX</v>
+        <v>dpyQUtizp7s</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAX Diabetes</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Covax_Comcond_diabetes</v>
+        <v>COVAC_vaccine_manufacturer</v>
       </c>
       <c r="D23" s="5" t="str">
         <v/>
@@ -1274,125 +1273,33 @@
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G23" s="5" t="str">
-        <v>TT1h0vGu5da</v>
+        <v>rpkH9ZPGJcX</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>AEFI_Nonserious adverse event following immunization</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Non-serious adverse event following immunization</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v/>
+        <v>COVAC_vaccine_name</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v/>
+        <v>Name of vaccine product</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G24" s="4" t="str">
-        <v>V5CfmqTsKrv</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
-      </c>
-      <c r="C25" s="5" t="str">
-        <v>COVAX_Comcond_neuro</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <v>Chronic neurological or neuromuscular disease</v>
-      </c>
-      <c r="E25" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F25" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G25" s="5" t="str">
-        <v>VCetMtYu1DY</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="B26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="C26" s="4" t="str">
-        <v>Covax_Comcond_malig</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F26" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <v>xVxLMku5DMX</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="str">
-        <v>COVAX- Batch Number</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <v>COVAX - Batch Number</v>
-      </c>
-      <c r="C27" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D27" s="5" t="str">
-        <v>Batch number for this vaccine dose</v>
-      </c>
-      <c r="E27" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F27" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G27" s="5" t="str">
-        <v>Yp1F4txx8tm</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
-      </c>
-      <c r="B28" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <v>dose_expiry_date</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <v>Date dose of expiration</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <v>YTQulAldGOs</v>
+        <v>bbnyNYD1wgS</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1420,170 +1327,186 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX Date of remission</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC - AEFIs present</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v>COVAC - Malignancy</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1545,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -1667,7 +1590,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-08</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>
@@ -1708,7 +1631,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>xYerKDKCefk</v>
@@ -1746,7 +1669,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>HllvX50cXC0</v>
@@ -1763,7 +1686,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="231.7109375" customWidth="1"/>
@@ -1785,128 +1708,128 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Yes/No/Unknown</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VWzgQENmzPK</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Yes; No; Unknown</v>
+        <v>Urban; Rural</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Occupation - COVID</v>
+        <v>COVAC AEFI Pregnancy</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>ilxtWultuYP</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
+        <v>Pregnant; Lactating; No</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX Manufacturers</v>
+        <v>COVAC Dose</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>oj3CWm4hpPb</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Manufacturer 1; Manufacturer 2; Manufacturer 3; Moderna Therapeutics Inc; BioNTech Manufacturing GmBH; Lonza Group; PGS Kalamazoo; Sanofi</v>
+        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Sex</v>
+        <v>COVAC trimester</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>kgDmgTYZICP</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Male; Female</v>
+        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX AEFI Pregnancy</v>
+        <v>COVAC Vaccine Manufacturers</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>DtOGtoLbaB5</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Pregnant; Lactating; No</v>
+        <v>Moderna; AstraZeneca; BioNTech/Pfizer; Gamaleya; Sinopharm / BIBP; SK Bio AstraZeneca</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX trimester</v>
+        <v>COVAC Vaccine Names</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VQo3HkUlMHc</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
+        <v>AZD1222 / AstraZeneca; BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer; mRNA-1273 / Moderna; Sputnik V / Gamaleya; SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX Dose</v>
+        <v>Occupation - COVID</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
+        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Vaccine types</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COVAX1; COVAX2; COVAX3</v>
+        <v>Female; Male</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVAC - Yes/No/Unknown</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>bLA3AqDKdwx</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>Urban; Rural</v>
+        <v>Yes; No; Unknown</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1844,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
@@ -1946,152 +1869,152 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A9OSdfNI6IT</v>
+        <v>G08Evdkx5dY</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Manufacturer 1</v>
+        <v>1st dose</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>manufacturer1</v>
+        <v>DOSE1</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>ahtoNsMUVFa</v>
+        <v>zDqDiyA8ySB</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Teacher</v>
+        <v>1st Trimester (1-12 weeks)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>teacher</v>
+        <v>1trimester</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>DYJrGkIG11J</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Female</v>
+        <v>2nd dose</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>FEMALE</v>
+        <v>DOSE2</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>B26BIJSeQy0</v>
+        <v>wEsSrYnDsRk</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX2</v>
+        <v>2nd Trimester (13-28 weeks)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX2</v>
+        <v>2trimester</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>bVYOqnn9R2r</v>
+        <v>xl5HHvHV2XH</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Hotelier / airline personel</v>
+        <v>3rd dose</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>hotelier_airline_personel</v>
+        <v>DOSE3</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>caHzedoEw6F</v>
+        <v>Q3obJT1MXov</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Manufacturer 3</v>
+        <v>3rd Trimester (20-40 weeks)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>manufacturer3</v>
+        <v>3trimester</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>gKvIUJwVIHi</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Yes</v>
+        <v>AstraZeneca</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>YES</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>DYJrGkIG11J</v>
+        <v>wCXR8ztOP2N</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2nd dose</v>
+        <v>AZD1222 / AstraZeneca</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>DOSE2</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>EErrO8Fyu43</v>
+        <v>UvR0km5ntbi</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Law enforcement/ Firefighter</v>
+        <v>Banker</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>law_enforcement_firefighter</v>
+        <v>banker</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2099,169 +2022,169 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>fWAvnP7mf98</v>
+        <v>FMOE7pmr0JD</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Unemployed</v>
+        <v>BioNTech/Pfizer</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>unemployed</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>G08Evdkx5dY</v>
+        <v>B26BIJSeQy0</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>1st dose</v>
+        <v>BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>DOSE1</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>GUiVk7RiR3p</v>
+        <v>PoeQ0Zb1avN</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Student</v>
+        <v>Booster dose</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>student</v>
+        <v>BOOSTER</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>gVqGaROtask</v>
+        <v>Gx9kgkrZj9y</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>No</v>
+        <v>Driver / housekeeping staff</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>not_pregnant</v>
+        <v>driver_housekeeping_staff</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>Gx9kgkrZj9y</v>
+        <v>AZK4rjJCss5</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Driver / housekeeping staff</v>
+        <v>Female</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>driver_housekeeping_staff</v>
+        <v>FEMALE</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>HGNGJ3lHrFG</v>
+        <v>n1p4obma3dp</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Healthcare worker</v>
+        <v>Gamaleya</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>healthcare_worker</v>
+        <v>gamaleya</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>HxFNfoxk7ac</v>
+        <v>HGNGJ3lHrFG</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Rural</v>
+        <v>Healthcare worker</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>RURAL</v>
+        <v>healthcare_worker</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>IHYwYAtvjCY</v>
+        <v>bVYOqnn9R2r</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Urban</v>
+        <v>Hotelier / airline personel</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>URBAN</v>
+        <v>hotelier_airline_personel</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>ilxDbKaotF7</v>
+        <v>xmyy2NiyJaI</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Lonza Group</v>
+        <v>Lactating</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>lonzagroup</v>
+        <v>COVACLactating</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>jbAJfe9Nqtk</v>
+        <v>EErrO8Fyu43</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Other</v>
+        <v>Law enforcement/ Firefighter</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>other</v>
+        <v>law_enforcement_firefighter</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2269,33 +2192,33 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>KHU0Aaa2Bw2</v>
+        <v>UrUdMteQzlT</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Sanofi</v>
+        <v>Male</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>sanofi1</v>
+        <v>MALE</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>odf8pyeMlGk</v>
+        <v>labbhFBSyp4</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>BioNTech Manufacturing GmBH</v>
+        <v>Moderna</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>biontech1</v>
+        <v>moderna</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>DtOGtoLbaB5</v>
@@ -2303,19 +2226,19 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>oMTIcie2RUL</v>
+        <v>yeTPD0qoaz7</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Moderna Therapeutics Inc</v>
+        <v>mRNA-1273 / Moderna</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>moderna1</v>
+        <v>moderna</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="24">
@@ -2329,7 +2252,7 @@
         <v>NO</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>bLA3AqDKdwx</v>
@@ -2337,84 +2260,84 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>pmBtNMHMpsZ</v>
+        <v>gVqGaROtask</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>PGS Kalamazoo</v>
+        <v>No</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>pgskalamazoo</v>
+        <v>not_pregnant</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>PoeQ0Zb1avN</v>
+        <v>jbAJfe9Nqtk</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Booster dose</v>
+        <v>Other</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>BOOSTER</v>
+        <v>other</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>Q3obJT1MXov</v>
+        <v>scFBcsNG5JT</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>Pregnant</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>3trimester</v>
+        <v>COVACPregnant</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E27" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>scFBcsNG5JT</v>
+        <v>zIN2FnIIZC2</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Pregnant</v>
+        <v>Retail (essential)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>COVAXPregnant</v>
+        <v>retail_essentials</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>SD1oprpITgl</v>
+        <v>SVcm0QZbxYn</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Social worker/ volunteer</v>
+        <v>Retail (non essential)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>social_worker_volunteer</v>
+        <v>retail_non_essential</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E29" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2422,16 +2345,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>SVcm0QZbxYn</v>
+        <v>Sw1isix3dwU</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Retail (non essential)</v>
+        <v>Retired</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>retail_non_essential</v>
+        <v>retired</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2439,206 +2362,206 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>Sw1isix3dwU</v>
+        <v>HxFNfoxk7ac</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Retired</v>
+        <v>Rural</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>retired</v>
+        <v>RURAL</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E31" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>clKOrDK3Gw0</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Unknown</v>
+        <v>SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>UNKNOWN</v>
+        <v>sinopharm</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>CkibqhWdy3q</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>Male</v>
+        <v>Sinopharm / BIBP</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>MALE</v>
+        <v>sinopharm</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="E33" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>UvR0km5ntbi</v>
+        <v>Yjp2PzOQiMa</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Banker</v>
+        <v>SK Bio AstraZeneca</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>banker</v>
+        <v>astrazenecaskbio</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>wCXR8ztOP2N</v>
+        <v>SD1oprpITgl</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COVAX1</v>
+        <v>Social worker/ volunteer</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>COVAX1</v>
+        <v>social_worker_volunteer</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E35" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>wEsSrYnDsRk</v>
+        <v>TVWwdI7Mlrh</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>2nd Trimester (13-28 weeks)</v>
+        <v>Sputnik V / Gamaleya</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>2trimester</v>
+        <v>gamaleya</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>xl5HHvHV2XH</v>
+        <v>GUiVk7RiR3p</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>3rd dose</v>
+        <v>Student</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>DOSE3</v>
+        <v>student</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E37" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>xmyy2NiyJaI</v>
+        <v>ahtoNsMUVFa</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Lactating</v>
+        <v>Teacher</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>COVAXLactating</v>
+        <v>teacher</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>yeTPD0qoaz7</v>
+        <v>fWAvnP7mf98</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>COVAX3</v>
+        <v>Unemployed</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>COVAX3</v>
+        <v>unemployed</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>z978nuyyRl7</v>
+        <v>TKD1XJ4ZhMO</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Manufacturer 2</v>
+        <v>Unknown</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>manufacturer2</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>zDqDiyA8ySB</v>
+        <v>IHYwYAtvjCY</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>1st Trimester (1-12 weeks)</v>
+        <v>Urban</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>1trimester</v>
+        <v>URBAN</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>zIN2FnIIZC2</v>
+        <v>CvivP1rh4ii</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Retail (essential)</v>
+        <v>Yes</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>retail_essentials</v>
+        <v>YES</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2575,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -2674,13 +2597,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID Vaccine Registry</v>
+        <v>COVAC - Covid-19 Vaccine Registry</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2718,7 +2641,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>MCPQUTHX1Ze</v>
@@ -2730,13 +2653,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="172.7109375" customWidth="1"/>
@@ -2781,23 +2704,23 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" s="4" t="str">
-        <v>DFAxSmMm5pJ</v>
+        <v>qbNdD4CF8K5</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 2 (21 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX2</v>
+        <v>Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COV-1-COV-c COVAX2</v>
+        <v>COV-1-COV-c</v>
       </c>
       <c r="E2" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
 </v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>COV-1 - COV-c</v>
+        <v>CPV-1 - COV-c</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>COV-1</v>
@@ -2806,7 +2729,7 @@
         <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2814,16 +2737,16 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" s="5" t="str">
-        <v>H7YS9Fxl1mR</v>
+        <v>KI5DoTUGLEE</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 3 (21 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c AstraZeneca (12 days)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX3</v>
+        <v>Drop-out from COV-1 to COV-c COVAX1</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COV-1-COV-c COVAX3</v>
+        <v>COV-1-COV-c COVAX1</v>
       </c>
       <c r="E3" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2839,7 +2762,7 @@
         <v>Percentage</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J3" s="5" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2847,16 +2770,16 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" s="4" t="str">
-        <v>KI5DoTUGLEE</v>
+        <v>DFAxSmMm5pJ</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 1 (10 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c BioNtech (21 days)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX1</v>
+        <v>Drop-out from COV-1 to COV-c COVAX2</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COV-1-COV-c COVAX1</v>
+        <v>COV-1-COV-c COVAX2</v>
       </c>
       <c r="E4" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2872,7 +2795,7 @@
         <v>Percentage</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J4" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2880,23 +2803,23 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" s="5" t="str">
-        <v>qbNdD4CF8K5</v>
+        <v>JjIcypzBqPV</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c Gamaleya (21 days)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c</v>
+        <v>Drop-out from COV-1 to COV-c COVAX4</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>COV-1-COV-c</v>
+        <v>COV-1-COV-c COVAX4</v>
       </c>
       <c r="E5" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
 </v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>CPV-1 - COV-c</v>
+        <v>COV-1 - COV-c</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>COV-1</v>
@@ -2905,9 +2828,75 @@
         <v>Percentage</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J5" s="5" t="str">
+        <v>mhdLWWUIqUp</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" s="4" t="str">
+        <v>H7YS9Fxl1mR</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c Moderna (28 days)</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>Drop-out from COV-1 to COV-c COVAX3</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>COV-1-COV-c COVAX3</v>
+      </c>
+      <c r="E6" s="4" t="str" xml:space="preserve">
+        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
+</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <v>COV-1 - COV-c</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <v>COV-1</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J6" s="4" t="str">
+        <v>mhdLWWUIqUp</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" s="5" t="str">
+        <v>EhnDZJruoYj</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c Sinopharm (28 days)</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v>Drop-out from COV-1 to COV-c COVAX5</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v xml:space="preserve">COV-1-COV-c COVAX5 </v>
+      </c>
+      <c r="E7" s="5" t="str" xml:space="preserve">
+        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
+</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <v>COV-1 - COV-c</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <v>COV-1</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J7" s="5" t="str">
         <v>mhdLWWUIqUp</v>
       </c>
     </row>
@@ -2950,10 +2939,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>e1jRVY5Mcq0</v>
+        <v>hmSnCXmLYwt</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +2956,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2985,10 +2974,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID-19 vaccine registry</v>
+        <v>COVAC - COVID-19 vaccine registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3000,7 +2989,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3035,19 +3024,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v/>
+        <v>QTONjOuZmh4</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>TEXT</v>
+        <v>Event chart</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v/>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>yGO7K9navzb</v>
+        <v>VOyneBUDeZJ</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3055,19 +3044,19 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v/>
+        <v>ZFd7uKfZpli</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>TEXT</v>
+        <v>Event chart</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v/>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Ar6hHusJH20</v>
+        <v>CSPGbrTFB01</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F3" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3084,10 +3073,10 @@
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>wkVdR09w1ZV</v>
+        <v>GnVAMXXwRIB</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F4" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3095,19 +3084,19 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v/>
+        <v>TWG0cq8P539</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>TEXT</v>
+        <v>Chart</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>uoycKmEiRNz</v>
+        <v>XhogYKdCxCn</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F5" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3115,19 +3104,19 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>wHd33PaphEC</v>
+        <v/>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Pivot table</v>
+        <v>TEXT</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>UACnzvlcufQ</v>
+        <v>yGO7K9navzb</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F6" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3135,19 +3124,19 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v/>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Chart</v>
+        <v>TEXT</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX - At least one underlying condition</v>
+        <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>Y61weOrxJXS</v>
+        <v>Ar6hHusJH20</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F7" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3155,19 +3144,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>vFkbMQiABfj</v>
+        <v/>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Chart</v>
+        <v>TEXT</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Underlying conditions</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>ytFTqxSW9AV</v>
+        <v>wkVdR09w1ZV</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F8" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3175,19 +3164,19 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v/>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Map</v>
+        <v>TEXT</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX-Dropout rates</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>XaeVdRGnR7J</v>
+        <v>uoycKmEiRNz</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F9" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3195,19 +3184,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>wHd33PaphEC</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Chart</v>
+        <v>Pivot table</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX - Number of doses administered</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>ULSr3ZoJctd</v>
+        <v>UACnzvlcufQ</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F10" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3215,19 +3204,19 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>cgMKXl648C2</v>
+        <v>gNsB9zivLTy</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Event report</v>
+        <v>Chart</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Summary of doses</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>HJDKEwltTyy</v>
+        <v>Y61weOrxJXS</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F11" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3235,19 +3224,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>QTONjOuZmh4</v>
+        <v>vFkbMQiABfj</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Event chart</v>
+        <v>Chart</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Occupation - HCWs</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>KA0lBNvirHU</v>
+        <v>ytFTqxSW9AV</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F12" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3255,19 +3244,19 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>ZFd7uKfZpli</v>
+        <v>Db3MWC56CBp</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Event chart</v>
+        <v>Map</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Area of origin</v>
+        <v>COVAC-Dropout rates</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>OehlMy5dFc5</v>
+        <v>XaeVdRGnR7J</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F13" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3275,19 +3264,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>GJPPSQuVt4N</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX - Complete vaccination uptake</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>OvN5kvyDCAs</v>
+        <v>ULSr3ZoJctd</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F14" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3295,19 +3284,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>aUjo2Myd25f</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Chart</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Vaccine uptake by sex</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>LHsZfeujSZz</v>
+        <v>OvN5kvyDCAs</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F15" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3315,19 +3304,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>KV7fffdXnlY</v>
       </c>
       <c r="B16" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>ZFrKEvxoOSO</v>
+        <v>LHsZfeujSZz</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F16" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3335,19 +3324,19 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>BWlYGFBDbO2</v>
       </c>
       <c r="B17" s="5" t="str">
         <v>Chart</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Vaccine uptake, last month</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>zqLvFWIAsbq</v>
+        <v>ZFrKEvxoOSO</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F17" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3355,19 +3344,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>cOH1OjReS14</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Map</v>
+        <v>Chart</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX-Number of doses given, last month</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>BKU0qpNqRJt</v>
+        <v>zqLvFWIAsbq</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F18" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3375,19 +3364,19 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>cOH1OjReS14</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Chart</v>
+        <v>Map</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC-Number of doses given, last month</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>LPZvKzUrssT</v>
+        <v>BKU0qpNqRJt</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F19" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3395,21 +3384,41 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>Chart</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>COVAX - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="D20" s="4" t="str">
+        <v>LPZvKzUrssT</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>YYtAbckt77l</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="str">
+        <v>vmNUVdhuxN7</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <v>Chart</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
+      </c>
+      <c r="D21" s="5" t="str">
         <v>uO249BXzjbw</v>
       </c>
-      <c r="E20" s="4" t="str">
-        <v>2021-01-29</v>
-      </c>
-      <c r="F20" s="4" t="str">
+      <c r="E21" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F21" s="5" t="str">
         <v>YYtAbckt77l</v>
       </c>
     </row>
@@ -3419,13 +3428,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="56.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
@@ -3446,128 +3455,142 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Complete vaccination uptake</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Vaccine uptake by age group</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Number of doses administered</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>TEST TEST</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>vmNUVdhuxN7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - At least one underlying condition</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B5" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="B6" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>GJPPSQuVt4N</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Vaccine uptake by sex</v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>TWG0cq8P539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Vaccine uptake, last month</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B8" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>vFkbMQiABfj</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Underlying conditions</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B9" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>TEST TEST</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>KV7fffdXnlY</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="str">
+        <v>COVAC - Vaccine uptake, last month</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D11" s="5" t="str">
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
   </sheetData>
@@ -3603,13 +3626,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
         <v>wHd33PaphEC</v>
@@ -3648,30 +3671,30 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX-Number of doses given, last month</v>
+        <v>COVAC-Dropout rates</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>cOH1OjReS14</v>
+        <v>Db3MWC56CBp</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX-Dropout rates</v>
+        <v>COVAC-Number of doses given, last month</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v>cOH1OjReS14</v>
       </c>
     </row>
   </sheetData>
@@ -3679,51 +3702,6 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVAX - Summary of doses</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <v>cgMKXl648C2</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3752,37 +3730,37 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Occupation - HCWs</v>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>QTONjOuZmh4</v>
+        <v>ZFd7uKfZpli</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Area of origin</v>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>ZFd7uKfZpli</v>
+        <v>QTONjOuZmh4</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3807,46 +3785,95 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Completed clients</v>
+        <v>All clients</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>BL5aSffv0wj</v>
+        <v>goSkjeySiRY</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Clients with an overdue vaccine dose</v>
+        <v>Clients with a scheduled visit</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CGr9zm3rBD4</v>
+        <v>frBrgF1IKeA</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Clients with a scheduled visit</v>
+        <v>Clients with an overdue vaccine dose</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>frBrgF1IKeA</v>
+        <v>CGr9zm3rBD4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>All clients</v>
+        <v>Completed clients</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>goSkjeySiRY</v>
+        <v>BL5aSffv0wj</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>UID</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>Notification of appointment</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>I8XmjYX1rBC</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="str">
+        <v>Overdue vaccine dose</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>dzW10q0QMvN</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3877,7 +3904,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>gqLw62UZlrD</v>
+        <v>hKZ9AJpnVcG</v>
       </c>
     </row>
     <row r="3">
@@ -3885,7 +3912,7 @@
         <v>Person</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>hKZ9AJpnVcG</v>
+        <v>gqLw62UZlrD</v>
       </c>
     </row>
     <row r="4">
@@ -3893,7 +3920,7 @@
         <v>Person</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>loHxNJH4IvV</v>
+        <v>qb8PkSObwqh</v>
       </c>
     </row>
     <row r="5">
@@ -3901,7 +3928,7 @@
         <v>Person</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>qb8PkSObwqh</v>
+        <v>loHxNJH4IvV</v>
       </c>
     </row>
   </sheetData>
@@ -3910,61 +3937,12 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>UID</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>Overdue vaccine dose</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>dzW10q0QMvN</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>2021-01-26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>Notification of appointment</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>I8XmjYX1rBC</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>2021-01-26</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -3982,75 +3960,42 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID Immunization Metadata Admin</v>
+        <v>COVAC - Covid-19 Immunization Data Analysis</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>AEAQ9LktNze</v>
+        <v>VLIaHu6ou8E</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AEFI access</v>
+        <v>COVAC - Covid-19 Immunization Data Entry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>J3mFUNTreYY</v>
+        <v>q3Nh5xhJEy2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>AEFI admin</v>
+        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>kPBGgIFMNFv</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>COVID Immunization Data Entry</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>2021-01-28</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v>q3Nh5xhJEy2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="str">
-        <v>AEFI data capture</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>RWyhKm0cuQ5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <v>COVID Immunization Data Analysis</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <v>2021-01-28</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <v>VLIaHu6ou8E</v>
+        <v>AEAQ9LktNze</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4078,7 +4023,7 @@
         <v>who</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-07-07</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>vUeLeQMSwhN</v>
@@ -4095,9 +4040,9 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="108.7109375" customWidth="1"/>
+    <col min="3" max="3" width="112.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -4121,75 +4066,75 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX Unique System Identifier (EPI)</v>
+        <v>Address (current)</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a random number (#####)</v>
+        <v xml:space="preserve">Current home address of the patient/case </v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>aJJvi3jiLZr</v>
+        <v>VCtm2pySeEV</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Family name</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v/>
+        <v>area_urban_rural</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Family name of the patient</v>
+        <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-22</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>aW66s2QSosT</v>
+        <v>YCqoNJZKvAG</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Mobile phone number</v>
+        <v>COVID - Occupation</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v>occupation</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v/>
+        <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-28</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>ciCR6BBvIT4</v>
+        <v>LY2bDXpNvS7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Sex</v>
+        <v>Date of birth (age)</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Sex of Person</v>
+        <v>Date of birth plus calculated age</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>CklPZdOd6H1</v>
+        <v>mAWcalQYYyk</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>National ID</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
@@ -4198,112 +4143,112 @@
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-28</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVID - Occupation</v>
+        <v>Family name</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>occupation</v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Client occupation from the pre-defined list</v>
+        <v>Family name of the patient</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>LY2bDXpNvS7</v>
+        <v>aW66s2QSosT</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Date of birth (age)</v>
+        <v>Given name</v>
       </c>
       <c r="B8" s="4" t="str">
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Date of birth plus calculated age</v>
+        <v>The name of the patient or initials</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>TfdH5KvFmMy</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Given name</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>The name of the patient or initials</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>TfdH5KvFmMy</v>
+        <v>ciCR6BBvIT4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Address (current)</v>
+        <v>National ID</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v xml:space="preserve">Current home address of the patient/case </v>
+        <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>area_urban_rural</v>
+        <v>covac_patinfo_sex</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Whether client lives in an urban or rural setting</v>
+        <v>Sex of Person</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>YCqoNJZKvAG</v>
+        <v>CklPZdOd6H1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B12" s="4" t="str">
         <v/>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>KSr2yTdu1AI</v>
       </c>
     </row>
   </sheetData>
@@ -4317,7 +4262,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -4339,13 +4284,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID-19 Vaccination Registry</v>
+        <v>COVAC - COVID-19 Vaccination Registry</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-03-02</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4364,7 +4309,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4390,7 +4335,7 @@
         <v>a1jCssI2LkW</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05T12:03:16.542</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4409,7 +4354,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4431,7 +4376,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="3">
@@ -4442,7 +4387,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="4">
@@ -4453,7 +4398,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="5">
@@ -4464,7 +4409,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="6">
@@ -4475,7 +4420,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="7">
@@ -4486,7 +4431,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="8">
@@ -4497,7 +4442,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="9">
@@ -4508,7 +4453,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="10">
@@ -4519,7 +4464,7 @@
         <v>Pre-immunization Questions</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="11">
@@ -4530,7 +4475,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="12">
@@ -4541,7 +4486,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="13">
@@ -4552,7 +4497,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="14">
@@ -4563,7 +4508,7 @@
         <v>Pre-immunization Questions</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX Allergic reaction after first dose</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="15">
@@ -4574,7 +4519,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="16">
@@ -4585,7 +4530,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="17">
@@ -4596,7 +4541,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="18">
@@ -4607,7 +4552,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="19">
@@ -4618,7 +4563,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="20">
@@ -4626,10 +4571,10 @@
         <v xml:space="preserve">Vaccination </v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Vaccination information</v>
+        <v>Underlying Conditions</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>COVAX - Manufacturer</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="21">
@@ -4637,10 +4582,10 @@
         <v xml:space="preserve">Vaccination </v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Underlying Conditions</v>
+        <v>Vaccination information</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
     </row>
     <row r="22">
@@ -4651,7 +4596,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="23">
@@ -4662,7 +4607,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>COVAX - Total doses</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="24">
@@ -4673,7 +4618,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
   </sheetData>
@@ -4682,15 +4627,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="104.7109375" customWidth="1"/>
+    <col min="2" max="2" width="106.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="85.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
@@ -4725,25 +4670,25 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A2Vtdh2mndr</v>
+        <v>V7SgYaK5lyF</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 2) </v>
+        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 2) </v>
+        <v>Dropout_rate_30_days_D</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4751,25 +4696,25 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>a6kCEcImBlW</v>
+        <v>toRV4TP9yQK</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (60+)</v>
+        <v>COV-C Dropout: Denominator astrazeneca (10 days since enrollment)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Received last dose (60+)</v>
+        <v>Dropout_rate_10_days_D</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COV-c (60+)</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4777,25 +4722,25 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>aIIHyDy8AMW</v>
+        <v>ZS6qo9BSrcI</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Number of people receiving a first dose (Male 60+)</v>
+        <v>COV-C Dropout: Denominator biontechpfizer (21 days since enrollment)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>First dose - Number of people (Male 60+)</v>
+        <v>Dropout_rate_21_days_D</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COV-1 (Male 60+)</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4803,25 +4748,25 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>ApGCVA6qhKT</v>
+        <v>Gyj2tvi2yKK</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 1)</v>
+        <v>COV-C Dropout: Denominator gamaleya (21 days since enrollment)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 1)</v>
+        <v>Dropout_rate_21_days_gamaleya</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Number of doses given of COVAX 1</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4829,25 +4774,25 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>AXweWKC4B3L</v>
+        <v>rqwQndYRiXO</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a first dose </v>
+        <v>COV-C Dropout: Denominator moderna (28 days since enrollment)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>First dose - Number of people</v>
+        <v>Dropout_rate_28_days_D</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>COV-1</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4855,25 +4800,25 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>BEw3zmRnGo4</v>
+        <v>Vw3m2BgMNRD</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
+        <v>COV-C Dropout: Denominator sinopharm (28 days since enrollment)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
+        <v>Dropout_rate_28_days_sinopharm</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>ZZCOV-2 (Female)</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F7" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4881,25 +4826,25 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>BtB8fMhK2gH</v>
+        <v>cq2a28RsAFT</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (0-59)</v>
+        <v>COV-C Dropout: Numerator (30 days since enrollment, no final dose)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Received last dose (0-59)</v>
+        <v>Dropout_rate_30_days_n</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>COV-c (0-59)</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4907,25 +4852,25 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>CI0pKfEiWom</v>
+        <v>dIAw5mn6Wqp</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (60+)</v>
+        <v>COV-C Dropout: Numerator astrazeneca (12 days since enrollment, no final dose)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
+        <v>Dropout_rate_12_days_n</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COV-2 (60+)</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Crosses 10 days since enrollment date this period</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4933,25 +4878,25 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>cq2a28RsAFT</v>
+        <v>Fj0B6zTlckL</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COV-C Dropout: Numerator (30 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator biontechpfizer (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Dropout_rate_30_days_n</v>
+        <v>Dropout_rate_21_days_n</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F10" s="4" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4959,25 +4904,25 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>dIAw5mn6Wqp</v>
+        <v>QiRbyLpu9Um</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COV-C Dropout: Numerator COVAX1 (10 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator gamaleya (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Dropout_rate_10_days_n</v>
+        <v>Dropout_rate_21_days_n_gamaleya</v>
       </c>
       <c r="D11" s="5" t="str">
         <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>Crosses 10 days since enrollment date this period</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F11" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4985,25 +4930,25 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>DNWp4zqrALv</v>
+        <v>xE7kgNbrb5v</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
+        <v>COV-C Dropout: Numerator moderna (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Received last dose</v>
+        <v>Dropout_rate_28_days_n</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>COV-c</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5011,25 +4956,25 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>Fj0B6zTlckL</v>
+        <v>dm0FUJgNzZE</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COV-C Dropout: Numerator COVAX2 (21 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator sinopharm (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Dropout_rate_21_days_n</v>
+        <v>Dropout_rate_28_days_n_sinopharm</v>
       </c>
       <c r="D13" s="5" t="str">
         <v/>
       </c>
       <c r="E13" s="5" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F13" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5037,25 +4982,25 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>FZNIlzPRMmL</v>
+        <v>kNzRGpiCvg4</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
+        <v xml:space="preserve">Doses given </v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Received last dose (Male 0-59)</v>
+        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>COV-c (Male 0-59)</v>
+        <v>COV-n</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
       </c>
       <c r="F14" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5063,25 +5008,25 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>h9G7i6mQKef</v>
+        <v>AXweWKC4B3L</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
+        <v xml:space="preserve">Number of people receiving a first dose </v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2nd, 3rd, booster dose - (Female 60+)</v>
+        <v>First dose - Number of people</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>COV-2 (Female 60+)</v>
+        <v>COV-1</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5089,16 +5034,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>HCe7qiP0GoC</v>
+        <v>hqm8znlAzkT</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Number of people receiving a first dose (Male)</v>
+        <v>Number of people receiving a first dose  (Male 0-59)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>First dose - Number of people (Male)</v>
+        <v>First dose - Number of people (Male 0-59)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>COV-1 Male</v>
+        <v>COV-1 (Male 0-59)</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5107,7 +5052,7 @@
         <v>EVENT</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5115,16 +5060,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>hqm8znlAzkT</v>
+        <v>SqD0kovH0CS</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Number of people receiving a first dose  (Male 0-59)</v>
+        <v>Number of people receiving a first dose (0-59)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>First dose - Number of people (Male 0-59)</v>
+        <v>First dose - Number of people (0-59)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>COV-1 (Male 0-59)</v>
+        <v>COV-1 (0-59)</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5133,7 +5078,7 @@
         <v>EVENT</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5141,25 +5086,25 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>IXW8ahBF3Pl</v>
+        <v>MUXThnNRCk6</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+        <v>Number of people receiving a first dose (60+)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
+        <v>First dose - Number of people (60+)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>ZZZCOV-2 (Male)</v>
+        <v>COV-1 (60+)</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5167,16 +5112,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>kKr4FSA1O0Z</v>
+        <v>RJ6pdxga9Od</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Number of people receiving a first dose (Female)</v>
+        <v>Number of people receiving a first dose (Female 0-59)</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>First dose - Number of people (Female)</v>
+        <v>First dose - Number of people (Female 0-59)</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>COV-1 Female</v>
+        <v>COV-1 (Female 0-59)</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5185,7 +5130,7 @@
         <v>EVENT</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5193,25 +5138,25 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>kNzRGpiCvg4</v>
+        <v>x4L0LuEBHhW</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v xml:space="preserve">Doses given - </v>
+        <v>Number of people receiving a first dose (Female 60+)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
+        <v>First dose - Number of people (Female 60+)</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>COV-n</v>
+        <v>COV-1 (Female 60+)</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F20" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5219,25 +5164,25 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>M3jBOeFxHO0</v>
+        <v>kKr4FSA1O0Z</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 1) </v>
+        <v>Number of people receiving a first dose (Female)</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 1) </v>
+        <v>First dose - Number of people (Female)</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v/>
+        <v>COV-1 Female</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Number of doses given of COVAX 1</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F21" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5245,25 +5190,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>MGjwUUNsE60</v>
+        <v>aIIHyDy8AMW</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
+        <v>Number of people receiving a first dose (Male 60+)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
+        <v>First dose - Number of people (Male 60+)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>COV-2 (Male 0-59)</v>
+        <v>COV-1 (Male 60+)</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F22" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5271,16 +5216,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>MUXThnNRCk6</v>
+        <v>HCe7qiP0GoC</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Number of people receiving a first dose (60+)</v>
+        <v>Number of people receiving a first dose (Male)</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>First dose - Number of people (60+)</v>
+        <v>First dose - Number of people (Male)</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>COV-1 (60+)</v>
+        <v>COV-1 Male</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5289,7 +5234,7 @@
         <v>EVENT</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5297,25 +5242,25 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>P2OSNv6tWuj</v>
+        <v>zr25iLoCE4g</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>ZZZNumber of people receiving a first dose</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>ZZZFirst dose - Number of people</v>
+        <v>2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>ZZZCOV-1</v>
+        <v>COV-2</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5323,25 +5268,25 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>pbiKvW0Xv5Y</v>
+        <v>UzPqw49tyym</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Received last dose (Male)</v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>COV-c Male</v>
+        <v>COV-2 (Male)</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F25" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5349,16 +5294,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>qh0kIjHZbP8</v>
+        <v>zgt8n5PIAAf</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
+        <v>Number of people receiving a second, third or booster dose (0-59)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>2nd, 3rd, booster dose - (Male 60+)</v>
+        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>COV-2 (Male 60+)</v>
+        <v>COV-2 (0-59)</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
@@ -5367,7 +5312,7 @@
         <v>EVENT</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5375,25 +5320,25 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>RJ6pdxga9Od</v>
+        <v>CI0pKfEiWom</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 0-59)</v>
+        <v>Number of people receiving a second, third or booster dose (60+)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>First dose - Number of people (Female 0-59)</v>
+        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>COV-1 (Female 0-59)</v>
+        <v>COV-2 (60+)</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F27" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5401,25 +5346,25 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>rqwQndYRiXO</v>
+        <v>xY4T9hHXNji</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COV-C Dropout: Denominator COVAX3 (28 days since enrollment)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Dropout_rate_28_days_D</v>
+        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v/>
+        <v>COV-2 (Female 0-59)</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5427,25 +5372,25 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>rtoIINJSfAf</v>
+        <v>h9G7i6mQKef</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 2)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 2)</v>
+        <v>2nd, 3rd, booster dose - (Female 60+)</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v/>
+        <v>COV-2 (Female 60+)</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F29" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5453,25 +5398,25 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>SqD0kovH0CS</v>
+        <v>wkaRLVNi6Fm</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Number of people receiving a first dose (0-59)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>First dose - Number of people (0-59)</v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>COV-1 (0-59)</v>
+        <v>COV-2 (Female)</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F30" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5479,25 +5424,25 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>sYIBsws6qUG</v>
+        <v>MGjwUUNsE60</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v xml:space="preserve">zzzCOV-2 </v>
+        <v>COV-2 (Male 0-59)</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5505,25 +5450,25 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>T4Fcv5Khfe8</v>
+        <v>qh0kIjHZbP8</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>ZZZVaccine Uptake (COVAX 3)</v>
+        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>ZZZVaccine Uptake (COVAX 3)</v>
+        <v>2nd, 3rd, booster dose - (Male 60+)</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v/>
+        <v>COV-2 (Male 60+)</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F32" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5531,25 +5476,25 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>toRV4TP9yQK</v>
+        <v>DNWp4zqrALv</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>COV-C Dropout: Denominator COVAX1 (10 days since enrollment)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Dropout_rate_10_days_D</v>
+        <v>Received last dose</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v/>
+        <v>COV-c</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5557,16 +5502,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>UWXUTVN709H</v>
+        <v>BtB8fMhK2gH</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (0-59)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Received last dose (Female)</v>
+        <v>Received last dose (0-59)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>COV-c Female</v>
+        <v>COV-c (0-59)</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>Number of people who have had a last recommended dose of a vaccine product</v>
@@ -5575,7 +5520,7 @@
         <v>EVENT</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5583,25 +5528,25 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>UzbfnPqo0LV</v>
+        <v>a6kCEcImBlW</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>ZZZNumber of doses given</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (60+)</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
+        <v>Received last dose (60+)</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>ZZZCOV-n</v>
+        <v>COV-c (60+)</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F35" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5609,25 +5554,25 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>UzPqw49tyym</v>
+        <v>Zp39TSOR8eW</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
+        <v>Received last dose (Female 0-59)</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>COV-2 (Male)</v>
+        <v>COV-c (Female 0-59)</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F36" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5635,25 +5580,25 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>V7SgYaK5lyF</v>
+        <v>XFUvVgqPukT</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Dropout_rate_30_days_D</v>
+        <v>Received last dose (Female 60+)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v/>
+        <v>COV-c (Female 60+)</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5661,25 +5606,25 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>wkaRLVNi6Fm</v>
+        <v>UWXUTVN709H</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female)  JM</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female)</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of females JM</v>
+        <v>Received last dose (Female)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>COV-2 (Female)-JM</v>
+        <v>COV-c Female</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F38" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5687,25 +5632,25 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>x4L0LuEBHhW</v>
+        <v>FZNIlzPRMmL</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 60+)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>First dose - Number of people (Female 60+)</v>
+        <v>Received last dose (Male 0-59)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>COV-1 (Female 60+)</v>
+        <v>COV-c (Male 0-59)</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F39" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5713,25 +5658,25 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>xE7kgNbrb5v</v>
+        <v>zovL7DKBRuK</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>COV-C Dropout: Numerator COVAX3 (28 days since enrollment, no final dose)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Dropout_rate_28_days_n</v>
+        <v>Received last dose (Male 60+)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v/>
+        <v>COV-c (Male 60+)</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5739,16 +5684,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>XFUvVgqPukT</v>
+        <v>pbiKvW0Xv5Y</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Received last dose (Female 60+)</v>
+        <v>Received last dose (Male)</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>COV-c (Female 60+)</v>
+        <v>COV-c Male</v>
       </c>
       <c r="E41" s="5" t="str">
         <v>Number of people who have had a last recommended dose of a vaccine product</v>
@@ -5757,7 +5702,7 @@
         <v>EVENT</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5765,25 +5710,25 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>xY4T9hHXNji</v>
+        <v>Zn0UuSRYyJw</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
+        <v>Underlying conditions - People with</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
+        <v>Underlying conditions - People with</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>COV-2 (Female 0-59)</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>COunt of people who have one or more underlying conditions</v>
       </c>
       <c r="F42" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5791,25 +5736,25 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>z7eWopCMD1k</v>
+        <v>M3jBOeFxHO0</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 3) </v>
+        <v>Vaccine Uptake AstraZeneca</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 3) </v>
+        <v xml:space="preserve">Vaccine Uptake (AstraZeneca) </v>
       </c>
       <c r="D43" s="5" t="str">
         <v/>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of doses given of AstraZeneca</v>
       </c>
       <c r="F43" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5817,25 +5762,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>zgt8n5PIAAf</v>
+        <v>A2Vtdh2mndr</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (0-59)</v>
+        <v>Vaccine Uptake BioNtech</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
+        <v xml:space="preserve">Vaccine Uptake (BioNTech/Pfizer) </v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>COV-2 (0-59)</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F44" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5843,25 +5788,25 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>Zn0UuSRYyJw</v>
+        <v>ZQUxbCYqEOn</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Underlying conditions - People with</v>
+        <v>Vaccine Uptake Gamaleya</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Underlying conditions - People with</v>
+        <v xml:space="preserve">Vaccine Uptake (Gamaleya) </v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
       </c>
       <c r="E45" s="5" t="str">
-        <v>COunt of people who have one or more underlying conditions</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F45" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5869,25 +5814,25 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>zovL7DKBRuK</v>
+        <v>z7eWopCMD1k</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
+        <v>Vaccine Uptake Moderna</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Received last dose (Male 60+)</v>
+        <v xml:space="preserve">Vaccine Uptake (Moderna) </v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>COV-c (Male 60+)</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F46" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5895,25 +5840,25 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>Zp39TSOR8eW</v>
+        <v>MzXxrDWcNjW</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
+        <v>Vaccine Uptake Sinopharm</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Received last dose (Female 0-59)</v>
+        <v xml:space="preserve">Vaccine Uptake (Sinopharm ) </v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>COV-c (Female 0-59)</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F47" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5921,16 +5866,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>zr25iLoCE4g</v>
+        <v>UzbfnPqo0LV</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+        <v>ZZZNumber of doses given</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of people</v>
+        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>COV-2</v>
+        <v>ZZZCOV-n</v>
       </c>
       <c r="E48" s="4" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
@@ -5939,7 +5884,7 @@
         <v>EVENT</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5947,27 +5892,183 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>ZS6qo9BSrcI</v>
+        <v>BEw3zmRnGo4</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>COV-C Dropout: Denominator COVAX2 (21 days since enrollment)</v>
+        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Dropout_rate_21_days_D</v>
+        <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v/>
+        <v>ZZCOV-2 (Female)</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F49" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H49" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>IXW8ahBF3Pl</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>ZZZCOV-2 (Male)</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v>ENROLLMENT</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H50" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>P2OSNv6tWuj</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>ZZZNumber of people receiving a first dose</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v>ZZZFirst dose - Number of people</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>ZZZCOV-1</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>Number of people who have had a first dose of a vaccine product</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <v>ENROLLMENT</v>
+      </c>
+      <c r="G51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H51" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>sYIBsws6qUG</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v xml:space="preserve">zzzCOV-2 </v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <v>ENROLLMENT</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H52" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>ApGCVA6qhKT</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>Number of doses given of AstraZeneca</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H53" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>rtoIINJSfAf</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>Number of people who have had any dose of a vaccine product</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H54" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>T4Fcv5Khfe8</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>ZZZVaccine Uptake (Moderna)</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>ZZZVaccine Uptake (Moderna)</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>Number of people who have had any dose of a vaccine product</v>
+      </c>
+      <c r="F55" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H55" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>
@@ -5977,14 +6078,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="107.7109375" customWidth="1"/>
-    <col min="3" max="3" width="90.7109375" customWidth="1"/>
+    <col min="2" max="2" width="99.7109375" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -6008,16 +6109,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A6Oy09dbQwn</v>
+        <v>QWOOvnYfKbN</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>if there was an allergic reaction after the first dose, fill out an AEFI stage</v>
+        <v>Assign a suggested date for next dose astrazeneca</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6025,16 +6126,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AmgPexdbztQ</v>
+        <v>ZT3tLrXXadf</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>If patient has had underlying diseases, transfer that value to following stage</v>
+        <v>Assign a suggested date for next dose biontechpfizer</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6042,16 +6143,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>biYqhZM5HXe</v>
+        <v>rIOcajqykjp</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Show warning if the client is a health worker</v>
+        <v>Assign a suggested date for next dose gamaleya</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>If the client is a health worker, show a warning in the top bar</v>
+        <v>Assigns a next suggested dose date 21 days after this dose (guideline says 21-28 days)</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6059,16 +6160,16 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>ct6P0r3GQbY</v>
+        <v>Rhh99IrHe3P</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>AEFIs previously present show in indicator box</v>
+        <v>Assign a suggested date for next dose moderna</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-01</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6076,16 +6177,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>e0WJRMhSrZy</v>
+        <v>VJTg5eGf3Je</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>If Age is under 18, then warn that COVAX 1 is recommended for ages 18 and up</v>
+        <v>Assign a suggested date for next dose sinopharm</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 21 days after this dose</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6093,16 +6194,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>fJLXDY8WJIb</v>
+        <v>X7tSyOIdusk</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Hide Manufacturers COVAX1</v>
+        <v>Assign dose number to astrazeneca</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>If COVAX1 is selected, hide manufacturers who do not produce covax1</v>
+        <v>If astrazeneca is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6110,16 +6211,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>O2NnmPrpL7s</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>Assign dose number to biontechpfizer</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v/>
+        <v>If biontechpfizer is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6127,16 +6228,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>VTIzJo0OQ7I</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>Assign dose number to gamaleya</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6144,16 +6245,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>HDGNEGd5wnd</v>
+        <v>pN5K5h6wSo4</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Show warning: If previous dose was first, then this shoul be second</v>
+        <v>Assign dose number to moderna</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6161,16 +6262,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>HdOtRsvVzgY</v>
+        <v>Wcnh9W2Pfz5</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Hide Trimester if nor pregnant</v>
+        <v>Assign dose number to sinopharm</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v/>
+        <v>If sinopharm is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6178,16 +6279,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>hdPflHqZKO3</v>
+        <v>oCzO3wOH9Wa</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Show warning: If previous dose was second then this should be the third dose, or a booster dose</v>
+        <v>Assign name to BiONtech/Pfizer/biontechpfizer</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>If BioNTech/Pfizer is selected, assign value Comirnaty,Tozinameran to vaccine name</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6195,16 +6296,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>I0FZ4YQgxfD</v>
+        <v>Jvy8jLRKux9</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Hide underlying conditions if none</v>
+        <v>Assign name to Gamaleya/ gamaleya</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v/>
+        <v>If Gamaleya/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6212,16 +6313,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>jJGIDJ4HYvE</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>Assign name to Moderna/ moderna</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v/>
+        <v>If moderna is selected, assign value to vaccine name "mRNA-1273"</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6229,16 +6330,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>zgex5murOHT</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>Assign name to Sinopharm/ sinopharm</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v/>
+        <v>If Sinopharm/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6246,16 +6347,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>j16AULHWXur</v>
+        <v>fJLXDY8WJIb</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>Assign name/Hide options to AstraZeneca/ astrazeneca</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v/>
+        <v>If Astra Zeneca (astrazeneca) is selected, assign value AZD1222</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6263,16 +6364,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>jGPxY0apAr2</v>
+        <v>oPUB5us9T8e</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>AEFIs present show warning</v>
+        <v xml:space="preserve">Calculate age </v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-02-01</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6280,16 +6381,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>jJGIDJ4HYvE</v>
+        <v>zLLHG561wsq</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Hide Manufacturers COVAX3</v>
+        <v>Hide anaphylaxis DE if first dose</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>If COVAX3 is selected, hide manufacturers who do not produce covax3</v>
+        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6297,16 +6398,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>jNtY9t6b120</v>
+        <v>HDGNEGd5wnd</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>Hide first dose option if previous was first dose</v>
       </c>
       <c r="C19" s="5" t="str">
         <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6314,16 +6415,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>srC0NIzM3Ou</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>Hide pregnancy if not a woman</v>
       </c>
       <c r="C20" s="4" t="str">
         <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6331,16 +6432,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>HdOtRsvVzgY</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>Hide Trimester if nor pregnant</v>
       </c>
       <c r="C21" s="5" t="str">
         <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6348,16 +6449,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>l8opvp32VAd</v>
+        <v>I0FZ4YQgxfD</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>Hide underlying conditions if none</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6365,16 +6466,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6382,16 +6483,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>e0WJRMhSrZy</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6399,16 +6500,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>O2NnmPrpL7s</v>
+        <v>xydE4Vcj6xU</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Assign dose number to COVAX2</v>
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>If COVAX2 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6416,16 +6517,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>oCzO3wOH9Wa</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Hide Manufacturers COVAX2</v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>If COVAX1 is selected, hide manufacturers who do not produce covax2</v>
+        <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6433,16 +6534,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>xeInMQrA5Mo</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6450,16 +6551,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>oPUB5us9T8e</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6467,16 +6568,16 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>ParDbFN1amU</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6484,16 +6585,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>pN5K5h6wSo4</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Assign dose number to COVAX3</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>If COVAX3 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6501,16 +6602,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>ppbeGorruVj</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>If Age is under 18, then warn that COVAX 3 is recommended for ages 18 and up</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6518,16 +6619,16 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C32" s="4" t="str">
         <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6535,16 +6636,16 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>qLCtAeQQOP3</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v xml:space="preserve">Show warning: If previous dose was second and the vaccine was COVAX 1 then there should be no more doses </v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6552,16 +6653,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6569,16 +6670,16 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>QWOOvnYfKbN</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 1</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6586,16 +6687,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6603,16 +6704,16 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Rhh99IrHe3P</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 3</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
+        <v/>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6620,16 +6721,16 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6637,16 +6738,16 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Last dose - complete programme</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6654,16 +6755,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>srC0NIzM3Ou</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Hide pregnancy if not a woman</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6671,16 +6772,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>If Age is under 16, then warn that COVAX 2 is recommended for ages 16 and up</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6688,16 +6789,16 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6705,16 +6806,16 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
       </c>
       <c r="D43" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6722,16 +6823,16 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6739,16 +6840,16 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>AmgPexdbztQ</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Send notification if overdue</v>
+        <v>If patient has had underlying diseases, transfer that value to following stage</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6756,16 +6857,16 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>X7tSyOIdusk</v>
+        <v>XTLv9YqOtNX</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Assign dose number to COVAX1</v>
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>If COVAX1 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6773,16 +6874,16 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
       </c>
       <c r="D47" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6790,16 +6891,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>zLLHG561wsq</v>
+        <v>A6Oy09dbQwn</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Hide anaphylaxis DE if first dose</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6807,18 +6908,120 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>ZT3tLrXXadf</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 2</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E49" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>SkBUqyO9zG0</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>Last dose - complete programme</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>W0YQaz1qRJb</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>Send notification if overdue</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>nU9WWRKt7PL</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>Show vaccine type from previous vaccination event</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>LO6XtDyCbya</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>biYqhZM5HXe</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>Show warning if the client is a health worker</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>If the client is a health worker, show a warning in the top bar</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>hdPflHqZKO3</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>Show warning: If first dose, then hide "last dose" DE</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -28,12 +28,11 @@
     <sheet name="dashboardItems" sheetId="23" r:id="rId23"/>
     <sheet name="visualizations" sheetId="24" r:id="rId24"/>
     <sheet name="maps" sheetId="25" r:id="rId25"/>
-    <sheet name="eventReports" sheetId="26" r:id="rId26"/>
-    <sheet name="eventCharts" sheetId="27" r:id="rId27"/>
-    <sheet name="trackedEntityInstanceFilters" sheetId="28" r:id="rId28"/>
-    <sheet name="programNotificationTemplates" sheetId="29" r:id="rId29"/>
-    <sheet name="userGroups" sheetId="30" r:id="rId30"/>
-    <sheet name="users" sheetId="31" r:id="rId31"/>
+    <sheet name="eventCharts" sheetId="26" r:id="rId26"/>
+    <sheet name="trackedEntityInstanceFilters" sheetId="27" r:id="rId27"/>
+    <sheet name="programNotificationTemplates" sheetId="28" r:id="rId28"/>
+    <sheet name="userGroups" sheetId="29" r:id="rId29"/>
+    <sheet name="users" sheetId="30" r:id="rId30"/>
   </sheets>
 </workbook>
 </file>
@@ -449,7 +448,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -465,7 +464,7 @@
         <v>Code</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX</v>
+        <v>COVAC</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +480,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.0.0</v>
+        <v>V1.1.0</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +488,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.34</v>
+        <v>DHIS2.34.3-80c86cc</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +496,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-09T16:31</v>
+        <v>20210303T014351</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +504,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_TRACKER_V1.0.0_DHIS2.34_2021-02-09T16:31</v>
+        <v>COVAC_TRACKER_V1.1.0_DHIS2.34.3-80c86cc_20210303T014351</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +519,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -554,7 +553,7 @@
         <v>Ewi7FUfcHAD</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -562,16 +561,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>SnNKiozu7ig</v>
+        <v>T3HmXr0sjTZ</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX Unique System Identifier (EPI)</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>aJJvi3jiLZr</v>
+        <v>KSr2yTdu1AI</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -588,7 +587,7 @@
         <v>TfdH5KvFmMy</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -605,7 +604,7 @@
         <v>aW66s2QSosT</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -616,13 +615,13 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Sex</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>CklPZdOd6H1</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -639,7 +638,7 @@
         <v>Z1rLc1rVHK8</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -656,7 +655,7 @@
         <v>mAWcalQYYyk</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -673,7 +672,7 @@
         <v>ciCR6BBvIT4</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -690,7 +689,7 @@
         <v>VCtm2pySeEV</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -707,7 +706,7 @@
         <v>YCqoNJZKvAG</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -724,7 +723,7 @@
         <v>LY2bDXpNvS7</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -736,13 +735,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="390.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -775,128 +774,128 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>vaccine_type</v>
+        <v>AEFIs_present</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>Are there any adverse events present after receiving the immunization?</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G2" s="4" t="str">
-        <v>bbnyNYD1wgS</v>
+        <v>m9PgIDAJGlF</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC allergic reaction</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Comcondition_present</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v/>
+        <v>If you have had a severe allergic reaction (anaphylaxis) or an immediate allergic reaction—even if it was not severe—after getting the first dose of the vaccine, you should not get another dose of an mRNA COVID-19 vaccine. An immediate allergic reaction means a reaction within 4 hours of getting vaccinated, including symptoms such as hives, swelling, or wheezing (respiratory distress).</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G3" s="5" t="str">
-        <v>bCtWZGjSWM8</v>
+        <v>dWoveSw6b79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC- Batch Number</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Batch Number</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Comcond_pregnant</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Is the patient pregnant or lactating?</v>
+        <v>Batch number for this vaccine dose</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G4" s="4" t="str">
-        <v>BfNZcj99yz4</v>
+        <v>Yp1F4txx8tm</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX_Chronic Lung Disease</v>
+        <v>COVAC Cardiovascular Disease</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Covax_Comcond_lung</v>
+        <v>Covac_Comcond_cardi</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Chronic Lung Disease</v>
+        <v>Cardiovascular disease, including hypertension</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G5" s="5" t="str">
-        <v>C0Bony47eKp</v>
+        <v>LNHAYF3qdZl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC_Chronic Lung Disease</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>covax_pregnancy_gestation</v>
+        <v>Covac_Comcond_lung</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Pregnancy gestation (weeks)</v>
+        <v>Chronic Lung Disease</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G6" s="4" t="str">
-        <v>CBAs12YL4g7</v>
+        <v>C0Bony47eKp</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Diabetes</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC Diabetes</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>covax_Comcond_other</v>
+        <v>Covac_Comcond_diabetes</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
@@ -905,67 +904,67 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G7" s="5" t="str">
-        <v>dpyQUtizp7s</v>
+        <v>TT1h0vGu5da</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v/>
+        <v>dose_expiry_date</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>This is the last dose in the course</v>
+        <v>Date dose of expiration</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <v>DSOWCIdQ8Tr</v>
+        <v>YTQulAldGOs</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX Allergic reaction after first dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX allergic reaction</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v/>
+        <v>dose_number</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>If you have had a severe allergic reaction (anaphylaxis) or an immediate allergic reaction—even if it was not severe—after getting the first dose of the vaccine, you should not get another dose of an mRNA COVID-19 vaccine. An immediate allergic reaction means a reaction within 4 hours of getting vaccinated, including symptoms such as hives, swelling, or wheezing (respiratory distress).</v>
+        <v>Defines if this is the first vs the second dose, for example</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G9" s="5" t="str">
-        <v>dWoveSw6b79</v>
+        <v>LUIsbsm3okG</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Next dose date</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_immuno</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -974,182 +973,182 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <v>FFWcps4MfuH</v>
+        <v>MuZ9dMVXpuM</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Covax_Comcond_renal</v>
+        <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v/>
+        <v>This is the last dose in the course</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G11" s="5" t="str">
-        <v>gW4pd818Sw8</v>
+        <v>DSOWCIdQ8Tr</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>AEFI_Serious adverse event following immunization</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Serious adverse event following immunization</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_malig</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v/>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G12" s="4" t="str">
-        <v>kQCVFWE2MPb</v>
+        <v>xVxLMku5DMX</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX Cardiovascular Disease</v>
+        <v>Multiple products explanation</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Covax_Comcond_cardi</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>Cardiovascular disease, including hypertension</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G13" s="5" t="str">
-        <v>LNHAYF3qdZl</v>
+        <v>OAxinuYFDG6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Previously infected with COVID</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v/>
+        <v>COVAC_Comcond_neuro</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
+        <v>Chronic neurological or neuromuscular disease</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G14" s="4" t="str">
-        <v>LOU9t0aR0z7</v>
+        <v>VCetMtYu1DY</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>dose_number</v>
+        <v>Comcond_pregnant</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>Defines if this is the first vs the second dose, for example</v>
+        <v>Is the patient pregnant or lactating?</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G15" s="5" t="str">
-        <v>LUIsbsm3okG</v>
+        <v>BfNZcj99yz4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>AEFIs_present</v>
+        <v>covac_pregnancy_gestation</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>Are there any adverse events present after receiving the immunization?</v>
+        <v>Pregnancy gestation (weeks)</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-02-01</v>
+        <v/>
       </c>
       <c r="G16" s="4" t="str">
-        <v>m9PgIDAJGlF</v>
+        <v>CBAs12YL4g7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>Previously infected with COVID</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Covax_Comcond_immuno</v>
+        <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v/>
+        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G17" s="5" t="str">
-        <v>MuZ9dMVXpuM</v>
+        <v>LOU9t0aR0z7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Multiple products explanation</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_renal</v>
       </c>
       <c r="D18" s="4" t="str">
         <v/>
@@ -1158,90 +1157,90 @@
         <v>default</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G18" s="4" t="str">
-        <v>OAxinuYFDG6</v>
+        <v>gW4pd818Sw8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>Next dose date</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>eligible</v>
+        <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>Whether the client is eligible for the vaccine</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G19" s="5" t="str">
-        <v>OXBnk0mWcOw</v>
+        <v>FFWcps4MfuH</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX Date of remission</v>
+        <v>COVAC - Total doses</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Date of remission COVID</v>
+        <v>COVAC Total doses</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v/>
+        <v>totalDoses</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v/>
+        <v xml:space="preserve">Total doses required for this vaccine product </v>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G20" s="4" t="str">
-        <v>oZiX5uHkacg</v>
+        <v>PamkjF1JUnE</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>totalDoses</v>
+        <v>Comcondition_present</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v xml:space="preserve">Total doses required for this vaccine product </v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G21" s="5" t="str">
-        <v>PamkjF1JUnE</v>
+        <v>bCtWZGjSWM8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - Manufacturer</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX Manufacturer</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v/>
+        <v>covac_Comcond_other</v>
       </c>
       <c r="D22" s="4" t="str">
         <v/>
@@ -1250,21 +1249,21 @@
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-02-04</v>
+        <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <v>rpkH9ZPGJcX</v>
+        <v>dpyQUtizp7s</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAX Diabetes</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Covax_Comcond_diabetes</v>
+        <v>COVAC_vaccine_manufacturer</v>
       </c>
       <c r="D23" s="5" t="str">
         <v/>
@@ -1273,125 +1272,33 @@
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G23" s="5" t="str">
-        <v>TT1h0vGu5da</v>
+        <v>rpkH9ZPGJcX</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>AEFI_Nonserious adverse event following immunization</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Non-serious adverse event following immunization</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v/>
+        <v>COVAC_vaccine_name</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v/>
+        <v>Name of vaccine product</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G24" s="4" t="str">
-        <v>V5CfmqTsKrv</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
-      </c>
-      <c r="C25" s="5" t="str">
-        <v>COVAX_Comcond_neuro</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <v>Chronic neurological or neuromuscular disease</v>
-      </c>
-      <c r="E25" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F25" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G25" s="5" t="str">
-        <v>VCetMtYu1DY</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="B26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="C26" s="4" t="str">
-        <v>Covax_Comcond_malig</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F26" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <v>xVxLMku5DMX</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="str">
-        <v>COVAX- Batch Number</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <v>COVAX - Batch Number</v>
-      </c>
-      <c r="C27" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D27" s="5" t="str">
-        <v>Batch number for this vaccine dose</v>
-      </c>
-      <c r="E27" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F27" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G27" s="5" t="str">
-        <v>Yp1F4txx8tm</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
-      </c>
-      <c r="B28" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <v>dose_expiry_date</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <v>Date dose of expiration</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <v>YTQulAldGOs</v>
+        <v>bbnyNYD1wgS</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1419,170 +1326,186 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX Date of remission</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC Suggested date for next dose</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v>COVAC Previously infected with COVID</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1544,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -1666,7 +1589,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-09</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>
@@ -1707,7 +1630,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>xYerKDKCefk</v>
@@ -1745,7 +1668,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>HllvX50cXC0</v>
@@ -1762,7 +1685,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="231.7109375" customWidth="1"/>
@@ -1784,128 +1707,128 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Yes/No/Unknown</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VWzgQENmzPK</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Yes; No; Unknown</v>
+        <v>Urban; Rural</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Occupation - COVID</v>
+        <v>COVAC AEFI Pregnancy</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>ilxtWultuYP</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
+        <v>Pregnant; Lactating; No</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX Manufacturers</v>
+        <v>COVAC Dose</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>oj3CWm4hpPb</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Manufacturer 1; Manufacturer 2; Manufacturer 3; Moderna Therapeutics Inc; BioNTech Manufacturing GmBH; Lonza Group; PGS Kalamazoo; Sanofi</v>
+        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Sex</v>
+        <v>COVAC trimester</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>kgDmgTYZICP</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Male; Female</v>
+        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX AEFI Pregnancy</v>
+        <v>COVAC Vaccine Manufacturers</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>DtOGtoLbaB5</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Pregnant; Lactating; No</v>
+        <v>Moderna; AstraZeneca; BioNTech/Pfizer; Gamaleya; Sinopharm / BIBP; SK Bio AstraZeneca</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX trimester</v>
+        <v>COVAC Vaccine Names</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VQo3HkUlMHc</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
+        <v>AZD1222 / AstraZeneca; BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer; mRNA-1273 / Moderna; Sputnik V / Gamaleya; SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX Dose</v>
+        <v>Occupation - COVID</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
+        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Vaccine types</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COVAX1; COVAX2; COVAX3</v>
+        <v>Female; Male</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVAC - Yes/No/Unknown</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>bLA3AqDKdwx</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>Urban; Rural</v>
+        <v>Yes; No; Unknown</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1843,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
@@ -1945,152 +1868,152 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A9OSdfNI6IT</v>
+        <v>G08Evdkx5dY</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Manufacturer 1</v>
+        <v>1st dose</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>manufacturer1</v>
+        <v>DOSE1</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>ahtoNsMUVFa</v>
+        <v>zDqDiyA8ySB</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Teacher</v>
+        <v>1st Trimester (1-12 weeks)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>teacher</v>
+        <v>1trimester</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>DYJrGkIG11J</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Female</v>
+        <v>2nd dose</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>FEMALE</v>
+        <v>DOSE2</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>B26BIJSeQy0</v>
+        <v>wEsSrYnDsRk</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX2</v>
+        <v>2nd Trimester (13-28 weeks)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX2</v>
+        <v>2trimester</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>bVYOqnn9R2r</v>
+        <v>xl5HHvHV2XH</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Hotelier / airline personel</v>
+        <v>3rd dose</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>hotelier_airline_personel</v>
+        <v>DOSE3</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>caHzedoEw6F</v>
+        <v>Q3obJT1MXov</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Manufacturer 3</v>
+        <v>3rd Trimester (20-40 weeks)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>manufacturer3</v>
+        <v>3trimester</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>gKvIUJwVIHi</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Yes</v>
+        <v>AstraZeneca</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>YES</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>DYJrGkIG11J</v>
+        <v>wCXR8ztOP2N</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2nd dose</v>
+        <v>AZD1222 / AstraZeneca</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>DOSE2</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>EErrO8Fyu43</v>
+        <v>UvR0km5ntbi</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Law enforcement/ Firefighter</v>
+        <v>Banker</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>law_enforcement_firefighter</v>
+        <v>banker</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2098,169 +2021,169 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>fWAvnP7mf98</v>
+        <v>FMOE7pmr0JD</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Unemployed</v>
+        <v>BioNTech/Pfizer</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>unemployed</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>G08Evdkx5dY</v>
+        <v>B26BIJSeQy0</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>1st dose</v>
+        <v>BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>DOSE1</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>GUiVk7RiR3p</v>
+        <v>PoeQ0Zb1avN</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Student</v>
+        <v>Booster dose</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>student</v>
+        <v>BOOSTER</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>gVqGaROtask</v>
+        <v>Gx9kgkrZj9y</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>No</v>
+        <v>Driver / housekeeping staff</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>not_pregnant</v>
+        <v>driver_housekeeping_staff</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>Gx9kgkrZj9y</v>
+        <v>AZK4rjJCss5</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Driver / housekeeping staff</v>
+        <v>Female</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>driver_housekeeping_staff</v>
+        <v>FEMALE</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>HGNGJ3lHrFG</v>
+        <v>n1p4obma3dp</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Healthcare worker</v>
+        <v>Gamaleya</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>healthcare_worker</v>
+        <v>gamaleya</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>HxFNfoxk7ac</v>
+        <v>HGNGJ3lHrFG</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Rural</v>
+        <v>Healthcare worker</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>RURAL</v>
+        <v>healthcare_worker</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>IHYwYAtvjCY</v>
+        <v>bVYOqnn9R2r</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Urban</v>
+        <v>Hotelier / airline personel</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>URBAN</v>
+        <v>hotelier_airline_personel</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>ilxDbKaotF7</v>
+        <v>xmyy2NiyJaI</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Lonza Group</v>
+        <v>Lactating</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>lonzagroup</v>
+        <v>COVACLactating</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>jbAJfe9Nqtk</v>
+        <v>EErrO8Fyu43</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Other</v>
+        <v>Law enforcement/ Firefighter</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>other</v>
+        <v>law_enforcement_firefighter</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2268,33 +2191,33 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>KHU0Aaa2Bw2</v>
+        <v>UrUdMteQzlT</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Sanofi</v>
+        <v>Male</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>sanofi1</v>
+        <v>MALE</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>odf8pyeMlGk</v>
+        <v>labbhFBSyp4</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>BioNTech Manufacturing GmBH</v>
+        <v>Moderna</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>biontech1</v>
+        <v>moderna</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>DtOGtoLbaB5</v>
@@ -2302,19 +2225,19 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>oMTIcie2RUL</v>
+        <v>yeTPD0qoaz7</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Moderna Therapeutics Inc</v>
+        <v>mRNA-1273 / Moderna</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>moderna1</v>
+        <v>moderna</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="24">
@@ -2328,7 +2251,7 @@
         <v>NO</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>bLA3AqDKdwx</v>
@@ -2336,84 +2259,84 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>pmBtNMHMpsZ</v>
+        <v>gVqGaROtask</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>PGS Kalamazoo</v>
+        <v>No</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>pgskalamazoo</v>
+        <v>not_pregnant</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>PoeQ0Zb1avN</v>
+        <v>jbAJfe9Nqtk</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Booster dose</v>
+        <v>Other</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>BOOSTER</v>
+        <v>other</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>Q3obJT1MXov</v>
+        <v>scFBcsNG5JT</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>Pregnant</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>3trimester</v>
+        <v>COVACPregnant</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E27" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>scFBcsNG5JT</v>
+        <v>zIN2FnIIZC2</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Pregnant</v>
+        <v>Retail (essential)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>COVAXPregnant</v>
+        <v>retail_essentials</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>SD1oprpITgl</v>
+        <v>SVcm0QZbxYn</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Social worker/ volunteer</v>
+        <v>Retail (non essential)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>social_worker_volunteer</v>
+        <v>retail_non_essential</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E29" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2421,16 +2344,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>SVcm0QZbxYn</v>
+        <v>Sw1isix3dwU</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Retail (non essential)</v>
+        <v>Retired</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>retail_non_essential</v>
+        <v>retired</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2438,206 +2361,206 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>Sw1isix3dwU</v>
+        <v>HxFNfoxk7ac</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Retired</v>
+        <v>Rural</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>retired</v>
+        <v>RURAL</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E31" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>clKOrDK3Gw0</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Unknown</v>
+        <v>SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>UNKNOWN</v>
+        <v>sinopharm</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>CkibqhWdy3q</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>Male</v>
+        <v>Sinopharm / BIBP</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>MALE</v>
+        <v>sinopharm</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="E33" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>UvR0km5ntbi</v>
+        <v>Yjp2PzOQiMa</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Banker</v>
+        <v>SK Bio AstraZeneca</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>banker</v>
+        <v>astrazenecaskbio</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>wCXR8ztOP2N</v>
+        <v>SD1oprpITgl</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COVAX1</v>
+        <v>Social worker/ volunteer</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>COVAX1</v>
+        <v>social_worker_volunteer</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E35" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>wEsSrYnDsRk</v>
+        <v>TVWwdI7Mlrh</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>2nd Trimester (13-28 weeks)</v>
+        <v>Sputnik V / Gamaleya</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>2trimester</v>
+        <v>gamaleya</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>xl5HHvHV2XH</v>
+        <v>GUiVk7RiR3p</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>3rd dose</v>
+        <v>Student</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>DOSE3</v>
+        <v>student</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E37" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>xmyy2NiyJaI</v>
+        <v>ahtoNsMUVFa</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Lactating</v>
+        <v>Teacher</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>COVAXLactating</v>
+        <v>teacher</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>yeTPD0qoaz7</v>
+        <v>fWAvnP7mf98</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>COVAX3</v>
+        <v>Unemployed</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>COVAX3</v>
+        <v>unemployed</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>z978nuyyRl7</v>
+        <v>TKD1XJ4ZhMO</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Manufacturer 2</v>
+        <v>Unknown</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>manufacturer2</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>zDqDiyA8ySB</v>
+        <v>IHYwYAtvjCY</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>1st Trimester (1-12 weeks)</v>
+        <v>Urban</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>1trimester</v>
+        <v>URBAN</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>zIN2FnIIZC2</v>
+        <v>CvivP1rh4ii</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Retail (essential)</v>
+        <v>Yes</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>retail_essentials</v>
+        <v>YES</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2574,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -2673,13 +2596,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID Vaccine Registry</v>
+        <v>COVAC - Covid-19 Vaccine Registry</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2717,7 +2640,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>MCPQUTHX1Ze</v>
@@ -2729,13 +2652,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="172.7109375" customWidth="1"/>
@@ -2780,23 +2703,23 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" s="4" t="str">
-        <v>DFAxSmMm5pJ</v>
+        <v>qbNdD4CF8K5</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 2 (21 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX2</v>
+        <v>Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COV-1-COV-c COVAX2</v>
+        <v>COV-1-COV-c</v>
       </c>
       <c r="E2" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
 </v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>COV-1 - COV-c</v>
+        <v>CPV-1 - COV-c</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>COV-1</v>
@@ -2805,7 +2728,7 @@
         <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2813,16 +2736,16 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" s="5" t="str">
-        <v>H7YS9Fxl1mR</v>
+        <v>KI5DoTUGLEE</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 3 (21 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c AstraZeneca (12 days)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX3</v>
+        <v>Drop-out from COV-1 to COV-c COVAX1</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COV-1-COV-c COVAX3</v>
+        <v>COV-1-COV-c COVAX1</v>
       </c>
       <c r="E3" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2838,7 +2761,7 @@
         <v>Percentage</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J3" s="5" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2846,16 +2769,16 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" s="4" t="str">
-        <v>KI5DoTUGLEE</v>
+        <v>DFAxSmMm5pJ</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 1 (10 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c BioNtech (21 days)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX1</v>
+        <v>Drop-out from COV-1 to COV-c COVAX2</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COV-1-COV-c COVAX1</v>
+        <v>COV-1-COV-c COVAX2</v>
       </c>
       <c r="E4" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2871,7 +2794,7 @@
         <v>Percentage</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J4" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2879,23 +2802,23 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" s="5" t="str">
-        <v>qbNdD4CF8K5</v>
+        <v>JjIcypzBqPV</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c Gamaleya (21 days)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c</v>
+        <v>Drop-out from COV-1 to COV-c COVAX4</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>COV-1-COV-c</v>
+        <v>COV-1-COV-c COVAX4</v>
       </c>
       <c r="E5" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
 </v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>CPV-1 - COV-c</v>
+        <v>COV-1 - COV-c</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>COV-1</v>
@@ -2904,9 +2827,75 @@
         <v>Percentage</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J5" s="5" t="str">
+        <v>mhdLWWUIqUp</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" s="4" t="str">
+        <v>H7YS9Fxl1mR</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c Moderna (28 days)</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>Drop-out from COV-1 to COV-c COVAX3</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>COV-1-COV-c COVAX3</v>
+      </c>
+      <c r="E6" s="4" t="str" xml:space="preserve">
+        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
+</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <v>COV-1 - COV-c</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <v>COV-1</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J6" s="4" t="str">
+        <v>mhdLWWUIqUp</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" s="5" t="str">
+        <v>EhnDZJruoYj</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c Sinopharm (28 days)</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v>Drop-out from COV-1 to COV-c COVAX5</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v xml:space="preserve">COV-1-COV-c COVAX5 </v>
+      </c>
+      <c r="E7" s="5" t="str" xml:space="preserve">
+        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
+</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <v>COV-1 - COV-c</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <v>COV-1</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J7" s="5" t="str">
         <v>mhdLWWUIqUp</v>
       </c>
     </row>
@@ -2949,10 +2938,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>e1jRVY5Mcq0</v>
+        <v>hmSnCXmLYwt</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2955,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2984,10 +2973,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID-19 vaccine registry</v>
+        <v>COVAC - COVID-19 vaccine registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -2999,7 +2988,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3034,19 +3023,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v/>
+        <v>QTONjOuZmh4</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>TEXT</v>
+        <v>Event chart</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v/>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>yGO7K9navzb</v>
+        <v>VOyneBUDeZJ</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3054,19 +3043,19 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v/>
+        <v>ZFd7uKfZpli</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>TEXT</v>
+        <v>Event chart</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v/>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Ar6hHusJH20</v>
+        <v>CSPGbrTFB01</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F3" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3083,10 +3072,10 @@
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>wkVdR09w1ZV</v>
+        <v>GnVAMXXwRIB</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F4" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3094,19 +3083,19 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v/>
+        <v>TWG0cq8P539</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>TEXT</v>
+        <v>SINGLE_VALUE</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>uoycKmEiRNz</v>
+        <v>XhogYKdCxCn</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F5" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3114,19 +3103,19 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>wHd33PaphEC</v>
+        <v/>
       </c>
       <c r="B6" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>UACnzvlcufQ</v>
+        <v>yGO7K9navzb</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F6" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3134,19 +3123,19 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v/>
       </c>
       <c r="B7" s="5" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX - At least one underlying condition</v>
+        <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>Y61weOrxJXS</v>
+        <v>Ar6hHusJH20</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F7" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3154,19 +3143,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>vFkbMQiABfj</v>
+        <v/>
       </c>
       <c r="B8" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Underlying conditions</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>ytFTqxSW9AV</v>
+        <v>wkVdR09w1ZV</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F8" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3174,19 +3163,19 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v/>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Map</v>
+        <v>TEXT</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX-Dropout rates</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>XaeVdRGnR7J</v>
+        <v>uoycKmEiRNz</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F9" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3194,19 +3183,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>wHd33PaphEC</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX - Number of doses administered</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>ULSr3ZoJctd</v>
+        <v>UACnzvlcufQ</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F10" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3214,19 +3203,19 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>cgMKXl648C2</v>
+        <v>gNsB9zivLTy</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Event report</v>
+        <v>COLUMN</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Summary of doses</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>HJDKEwltTyy</v>
+        <v>Y61weOrxJXS</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F11" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3234,19 +3223,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>QTONjOuZmh4</v>
+        <v>vFkbMQiABfj</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Event chart</v>
+        <v>PIE</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Occupation - HCWs</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>KA0lBNvirHU</v>
+        <v>ytFTqxSW9AV</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F12" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3254,19 +3243,19 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>ZFd7uKfZpli</v>
+        <v/>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Event chart</v>
+        <v>MAP</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Area of origin</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>OehlMy5dFc5</v>
+        <v>XaeVdRGnR7J</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F13" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3274,19 +3263,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>GJPPSQuVt4N</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>visualizations</v>
+        <v>SINGLE_VALUE</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX - Complete vaccination uptake</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>OvN5kvyDCAs</v>
+        <v>ULSr3ZoJctd</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F14" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3294,19 +3283,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>aUjo2Myd25f</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Vaccine uptake by sex</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>LHsZfeujSZz</v>
+        <v>OvN5kvyDCAs</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F15" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3314,19 +3303,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>KV7fffdXnlY</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>ZFrKEvxoOSO</v>
+        <v>LHsZfeujSZz</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F16" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3334,19 +3323,19 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>BWlYGFBDbO2</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Vaccine uptake, last month</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>zqLvFWIAsbq</v>
+        <v>ZFrKEvxoOSO</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F17" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3354,19 +3343,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>cOH1OjReS14</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Map</v>
+        <v>PIE</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX-Number of doses given, last month</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>BKU0qpNqRJt</v>
+        <v>zqLvFWIAsbq</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F18" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3374,19 +3363,19 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v/>
       </c>
       <c r="B19" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>LPZvKzUrssT</v>
+        <v>BKU0qpNqRJt</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F19" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3394,21 +3383,41 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
+        <v>Hbs3xGj7XoN</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>LPZvKzUrssT</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>YYtAbckt77l</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="str">
         <v>vmNUVdhuxN7</v>
       </c>
-      <c r="B20" s="4" t="str">
-        <v>visualizations</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <v>COVAX - Cumulative number of given doses, Last 4 weeks</v>
-      </c>
-      <c r="D20" s="4" t="str">
+      <c r="B21" s="5" t="str">
+        <v>STACKED_COLUMN</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
+      </c>
+      <c r="D21" s="5" t="str">
         <v>uO249BXzjbw</v>
       </c>
-      <c r="E20" s="4" t="str">
-        <v>2021-01-29</v>
-      </c>
-      <c r="F20" s="4" t="str">
+      <c r="E21" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F21" s="5" t="str">
         <v>YYtAbckt77l</v>
       </c>
     </row>
@@ -3418,14 +3427,14 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="86.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3445,111 +3454,111 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Complete vaccination uptake</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31T13:20:29.708</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Vaccine uptake by age group</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05T12:02:54.137</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Number of doses administered</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>TEST TEST</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-02-05T12:02:54.594</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>vmNUVdhuxN7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - At least one underlying condition</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-31T13:20:30.096</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-02-05T12:02:54.820</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>GJPPSQuVt4N</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Vaccine uptake by sex</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-02-05T12:02:55.040</v>
+        <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>wHd33PaphEC</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Vaccine uptake, last month</v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-31T13:20:29.134</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>TWG0cq8P539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Underlying conditions</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-31T13:20:30.448</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
         <v>vFkbMQiABfj</v>
@@ -3557,30 +3566,44 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>TEST TEST</v>
+        <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-02-05T12:02:55.243</v>
+        <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B11" s="5" t="str">
         <v/>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-02-05T12:03:16.999</v>
+        <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>wHd33PaphEC</v>
+        <v>KV7fffdXnlY</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
+        <v>COVAC - Vaccine uptake, last month</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D12" s="4" t="str">
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
   </sheetData>
@@ -3616,30 +3639,30 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX-Number of doses given, last month</v>
+        <v>COVAC-Dropout rates</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>cOH1OjReS14</v>
+        <v>Db3MWC56CBp</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX-Dropout rates</v>
+        <v>COVAC-Number of doses given, last month</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v>cOH1OjReS14</v>
       </c>
     </row>
   </sheetData>
@@ -3647,51 +3670,6 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVAX - Summary of doses</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <v>cgMKXl648C2</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3720,37 +3698,37 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Occupation - HCWs</v>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>QTONjOuZmh4</v>
+        <v>ZFd7uKfZpli</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Area of origin</v>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>ZFd7uKfZpli</v>
+        <v>QTONjOuZmh4</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3775,53 +3753,53 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Completed clients</v>
+        <v>All clients</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>BL5aSffv0wj</v>
+        <v>goSkjeySiRY</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Clients with an overdue vaccine dose</v>
+        <v>Clients with a scheduled visit</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CGr9zm3rBD4</v>
+        <v>frBrgF1IKeA</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Clients with a scheduled visit</v>
+        <v>Clients with an overdue vaccine dose</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>frBrgF1IKeA</v>
+        <v>CGr9zm3rBD4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>All clients</v>
+        <v>Completed clients</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>goSkjeySiRY</v>
+        <v>BL5aSffv0wj</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3846,24 +3824,84 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Overdue vaccine dose</v>
+        <v>Notification of appointment</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>dzW10q0QMvN</v>
+        <v>I8XmjYX1rBC</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-26</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Notification of appointment</v>
+        <v>Overdue vaccine dose</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>I8XmjYX1rBC</v>
+        <v>dzW10q0QMvN</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-26</v>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Data Analysis</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>VLIaHu6ou8E</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="str">
+        <v>COVAC - Covid-19 Immunization Data Entry</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>q3Nh5xhJEy2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>AEAQ9LktNze</v>
       </c>
     </row>
   </sheetData>
@@ -3894,7 +3932,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>gqLw62UZlrD</v>
+        <v>hKZ9AJpnVcG</v>
       </c>
     </row>
     <row r="3">
@@ -3902,7 +3940,7 @@
         <v>Person</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>hKZ9AJpnVcG</v>
+        <v>gqLw62UZlrD</v>
       </c>
     </row>
     <row r="4">
@@ -3910,7 +3948,7 @@
         <v>Person</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>loHxNJH4IvV</v>
+        <v>qb8PkSObwqh</v>
       </c>
     </row>
     <row r="5">
@@ -3918,7 +3956,7 @@
         <v>Person</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>qb8PkSObwqh</v>
+        <v>loHxNJH4IvV</v>
       </c>
     </row>
   </sheetData>
@@ -3926,99 +3964,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVID Immunization Metadata Admin</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>AEAQ9LktNze</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>AEFI access</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>J3mFUNTreYY</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>AEFI admin</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>kPBGgIFMNFv</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>COVID Immunization Data Entry</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>2021-01-28</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v>q3Nh5xhJEy2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="str">
-        <v>AEFI data capture</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>RWyhKm0cuQ5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <v>COVID Immunization Data Analysis</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <v>2021-01-28</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <v>VLIaHu6ou8E</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4046,7 +3991,7 @@
         <v>who</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-07-07</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>vUeLeQMSwhN</v>
@@ -4063,9 +4008,9 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="108.7109375" customWidth="1"/>
+    <col min="3" max="3" width="112.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -4089,75 +4034,75 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX Unique System Identifier (EPI)</v>
+        <v>Address (current)</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a random number (#####)</v>
+        <v xml:space="preserve">Current home address of the patient/case </v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>aJJvi3jiLZr</v>
+        <v>VCtm2pySeEV</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Family name</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v/>
+        <v>area_urban_rural</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Family name of the patient</v>
+        <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-22</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>aW66s2QSosT</v>
+        <v>YCqoNJZKvAG</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Mobile phone number</v>
+        <v>COVID - Occupation</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v>occupation</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v/>
+        <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-28</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>ciCR6BBvIT4</v>
+        <v>LY2bDXpNvS7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Sex</v>
+        <v>Date of birth (age)</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Sex of Person</v>
+        <v>Date of birth plus calculated age</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>CklPZdOd6H1</v>
+        <v>mAWcalQYYyk</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>National ID</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
@@ -4166,112 +4111,112 @@
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-28</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVID - Occupation</v>
+        <v>Family name</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>occupation</v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Client occupation from the pre-defined list</v>
+        <v>Family name of the patient</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>LY2bDXpNvS7</v>
+        <v>aW66s2QSosT</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Date of birth (age)</v>
+        <v>Given name</v>
       </c>
       <c r="B8" s="4" t="str">
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Date of birth plus calculated age</v>
+        <v>The name of the patient or initials</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>TfdH5KvFmMy</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Given name</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>The name of the patient or initials</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>TfdH5KvFmMy</v>
+        <v>ciCR6BBvIT4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Address (current)</v>
+        <v>National ID</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v xml:space="preserve">Current home address of the patient/case </v>
+        <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>area_urban_rural</v>
+        <v>covac_patinfo_sex</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Whether client lives in an urban or rural setting</v>
+        <v>Sex of Person</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>YCqoNJZKvAG</v>
+        <v>CklPZdOd6H1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B12" s="4" t="str">
         <v/>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>KSr2yTdu1AI</v>
       </c>
     </row>
   </sheetData>
@@ -4285,7 +4230,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -4307,13 +4252,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID-19 Vaccination Registry</v>
+        <v>COVAC - COVID-19 Vaccination Registry</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-03-02</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4332,7 +4277,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4358,7 +4303,7 @@
         <v>a1jCssI2LkW</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05T12:03:16.542</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4377,7 +4322,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4399,7 +4344,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4355,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="4">
@@ -4421,7 +4366,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="5">
@@ -4432,7 +4377,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="6">
@@ -4443,7 +4388,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="7">
@@ -4454,7 +4399,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="8">
@@ -4465,7 +4410,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="9">
@@ -4476,7 +4421,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="10">
@@ -4487,7 +4432,7 @@
         <v>Pre-immunization Questions</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="11">
@@ -4498,7 +4443,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="12">
@@ -4509,7 +4454,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="13">
@@ -4520,7 +4465,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="14">
@@ -4531,7 +4476,7 @@
         <v>Pre-immunization Questions</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX Allergic reaction after first dose</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="15">
@@ -4542,7 +4487,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="16">
@@ -4553,7 +4498,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="17">
@@ -4564,7 +4509,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="18">
@@ -4575,7 +4520,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="19">
@@ -4586,7 +4531,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="20">
@@ -4597,7 +4542,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>COVAX - Manufacturer</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
     </row>
     <row r="21">
@@ -4608,7 +4553,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="22">
@@ -4619,7 +4564,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="23">
@@ -4630,7 +4575,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>COVAX - Total doses</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="24">
@@ -4641,7 +4586,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
   </sheetData>
@@ -4650,15 +4595,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="104.7109375" customWidth="1"/>
+    <col min="2" max="2" width="106.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="85.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
@@ -4693,25 +4638,25 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A2Vtdh2mndr</v>
+        <v>V7SgYaK5lyF</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 2) </v>
+        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 2) </v>
+        <v>Dropout_rate_30_days_D</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4719,25 +4664,25 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>a6kCEcImBlW</v>
+        <v>toRV4TP9yQK</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (60+)</v>
+        <v>COV-C Dropout: Denominator astrazeneca (10 days since enrollment)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Received last dose (60+)</v>
+        <v>Dropout_rate_10_days_D</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COV-c (60+)</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4745,25 +4690,25 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>aIIHyDy8AMW</v>
+        <v>ZS6qo9BSrcI</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Number of people receiving a first dose (Male 60+)</v>
+        <v>COV-C Dropout: Denominator biontechpfizer (21 days since enrollment)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>First dose - Number of people (Male 60+)</v>
+        <v>Dropout_rate_21_days_D</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COV-1 (Male 60+)</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4771,25 +4716,25 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>ApGCVA6qhKT</v>
+        <v>Gyj2tvi2yKK</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 1)</v>
+        <v>COV-C Dropout: Denominator gamaleya (21 days since enrollment)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 1)</v>
+        <v>Dropout_rate_21_days_gamaleya</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Number of doses given of COVAX 1</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4797,25 +4742,25 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>AXweWKC4B3L</v>
+        <v>rqwQndYRiXO</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a first dose </v>
+        <v>COV-C Dropout: Denominator moderna (28 days since enrollment)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>First dose - Number of people</v>
+        <v>Dropout_rate_28_days_D</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>COV-1</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4823,25 +4768,25 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>BEw3zmRnGo4</v>
+        <v>Vw3m2BgMNRD</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
+        <v>COV-C Dropout: Denominator sinopharm (28 days since enrollment)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
+        <v>Dropout_rate_28_days_sinopharm</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>ZZCOV-2 (Female)</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F7" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4849,25 +4794,25 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>BtB8fMhK2gH</v>
+        <v>cq2a28RsAFT</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (0-59)</v>
+        <v>COV-C Dropout: Numerator (30 days since enrollment, no final dose)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Received last dose (0-59)</v>
+        <v>Dropout_rate_30_days_n</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>COV-c (0-59)</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4875,25 +4820,25 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>CI0pKfEiWom</v>
+        <v>dIAw5mn6Wqp</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (60+)</v>
+        <v>COV-C Dropout: Numerator astrazeneca (12 days since enrollment, no final dose)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
+        <v>Dropout_rate_12_days_n</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COV-2 (60+)</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Crosses 10 days since enrollment date this period</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4901,25 +4846,25 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>cq2a28RsAFT</v>
+        <v>Fj0B6zTlckL</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COV-C Dropout: Numerator (30 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator biontechpfizer (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Dropout_rate_30_days_n</v>
+        <v>Dropout_rate_21_days_n</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F10" s="4" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4927,25 +4872,25 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>dIAw5mn6Wqp</v>
+        <v>QiRbyLpu9Um</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COV-C Dropout: Numerator COVAX1 (10 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator gamaleya (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Dropout_rate_10_days_n</v>
+        <v>Dropout_rate_21_days_n_gamaleya</v>
       </c>
       <c r="D11" s="5" t="str">
         <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>Crosses 10 days since enrollment date this period</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F11" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4953,25 +4898,25 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>DNWp4zqrALv</v>
+        <v>xE7kgNbrb5v</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
+        <v>COV-C Dropout: Numerator moderna (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Received last dose</v>
+        <v>Dropout_rate_28_days_n</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>COV-c</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4979,25 +4924,25 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>Fj0B6zTlckL</v>
+        <v>dm0FUJgNzZE</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COV-C Dropout: Numerator COVAX2 (21 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator sinopharm (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Dropout_rate_21_days_n</v>
+        <v>Dropout_rate_28_days_n_sinopharm</v>
       </c>
       <c r="D13" s="5" t="str">
         <v/>
       </c>
       <c r="E13" s="5" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F13" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5005,25 +4950,25 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>FZNIlzPRMmL</v>
+        <v>kNzRGpiCvg4</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
+        <v xml:space="preserve">Doses given </v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Received last dose (Male 0-59)</v>
+        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>COV-c (Male 0-59)</v>
+        <v>COV-n</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
       </c>
       <c r="F14" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5031,25 +4976,25 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>h9G7i6mQKef</v>
+        <v>AXweWKC4B3L</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
+        <v xml:space="preserve">Number of people receiving a first dose </v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2nd, 3rd, booster dose - (Female 60+)</v>
+        <v>First dose - Number of people</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>COV-2 (Female 60+)</v>
+        <v>COV-1</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5057,16 +5002,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>HCe7qiP0GoC</v>
+        <v>hqm8znlAzkT</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Number of people receiving a first dose (Male)</v>
+        <v>Number of people receiving a first dose  (Male 0-59)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>First dose - Number of people (Male)</v>
+        <v>First dose - Number of people (Male 0-59)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>COV-1 Male</v>
+        <v>COV-1 (Male 0-59)</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5075,7 +5020,7 @@
         <v>EVENT</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5083,16 +5028,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>hqm8znlAzkT</v>
+        <v>SqD0kovH0CS</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Number of people receiving a first dose  (Male 0-59)</v>
+        <v>Number of people receiving a first dose (0-59)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>First dose - Number of people (Male 0-59)</v>
+        <v>First dose - Number of people (0-59)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>COV-1 (Male 0-59)</v>
+        <v>COV-1 (0-59)</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5101,7 +5046,7 @@
         <v>EVENT</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5109,25 +5054,25 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>IXW8ahBF3Pl</v>
+        <v>MUXThnNRCk6</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+        <v>Number of people receiving a first dose (60+)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
+        <v>First dose - Number of people (60+)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>ZZZCOV-2 (Male)</v>
+        <v>COV-1 (60+)</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5135,16 +5080,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>kKr4FSA1O0Z</v>
+        <v>RJ6pdxga9Od</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Number of people receiving a first dose (Female)</v>
+        <v>Number of people receiving a first dose (Female 0-59)</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>First dose - Number of people (Female)</v>
+        <v>First dose - Number of people (Female 0-59)</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>COV-1 Female</v>
+        <v>COV-1 (Female 0-59)</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5153,7 +5098,7 @@
         <v>EVENT</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5161,25 +5106,25 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>kNzRGpiCvg4</v>
+        <v>x4L0LuEBHhW</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v xml:space="preserve">Doses given - </v>
+        <v>Number of people receiving a first dose (Female 60+)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
+        <v>First dose - Number of people (Female 60+)</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>COV-n</v>
+        <v>COV-1 (Female 60+)</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F20" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5187,25 +5132,25 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>M3jBOeFxHO0</v>
+        <v>kKr4FSA1O0Z</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 1) </v>
+        <v>Number of people receiving a first dose (Female)</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 1) </v>
+        <v>First dose - Number of people (Female)</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v/>
+        <v>COV-1 Female</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Number of doses given of COVAX 1</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F21" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5213,25 +5158,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>MGjwUUNsE60</v>
+        <v>aIIHyDy8AMW</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
+        <v>Number of people receiving a first dose (Male 60+)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
+        <v>First dose - Number of people (Male 60+)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>COV-2 (Male 0-59)</v>
+        <v>COV-1 (Male 60+)</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F22" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5239,16 +5184,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>MUXThnNRCk6</v>
+        <v>HCe7qiP0GoC</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Number of people receiving a first dose (60+)</v>
+        <v>Number of people receiving a first dose (Male)</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>First dose - Number of people (60+)</v>
+        <v>First dose - Number of people (Male)</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>COV-1 (60+)</v>
+        <v>COV-1 Male</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5257,7 +5202,7 @@
         <v>EVENT</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5265,25 +5210,25 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>P2OSNv6tWuj</v>
+        <v>zr25iLoCE4g</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>ZZZNumber of people receiving a first dose</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>ZZZFirst dose - Number of people</v>
+        <v>2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>ZZZCOV-1</v>
+        <v>COV-2</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5291,25 +5236,25 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>pbiKvW0Xv5Y</v>
+        <v>UzPqw49tyym</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Received last dose (Male)</v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>COV-c Male</v>
+        <v>COV-2 (Male)</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F25" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5317,16 +5262,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>qh0kIjHZbP8</v>
+        <v>zgt8n5PIAAf</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
+        <v>Number of people receiving a second, third or booster dose (0-59)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>2nd, 3rd, booster dose - (Male 60+)</v>
+        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>COV-2 (Male 60+)</v>
+        <v>COV-2 (0-59)</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
@@ -5335,7 +5280,7 @@
         <v>EVENT</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5343,25 +5288,25 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>RJ6pdxga9Od</v>
+        <v>CI0pKfEiWom</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 0-59)</v>
+        <v>Number of people receiving a second, third or booster dose (60+)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>First dose - Number of people (Female 0-59)</v>
+        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>COV-1 (Female 0-59)</v>
+        <v>COV-2 (60+)</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F27" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5369,25 +5314,25 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>rqwQndYRiXO</v>
+        <v>xY4T9hHXNji</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COV-C Dropout: Denominator COVAX3 (28 days since enrollment)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Dropout_rate_28_days_D</v>
+        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v/>
+        <v>COV-2 (Female 0-59)</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5395,25 +5340,25 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>rtoIINJSfAf</v>
+        <v>h9G7i6mQKef</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 2)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 2)</v>
+        <v>2nd, 3rd, booster dose - (Female 60+)</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v/>
+        <v>COV-2 (Female 60+)</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F29" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5421,25 +5366,25 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>SqD0kovH0CS</v>
+        <v>wkaRLVNi6Fm</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Number of people receiving a first dose (0-59)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>First dose - Number of people (0-59)</v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>COV-1 (0-59)</v>
+        <v>COV-2 (Female)</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F30" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5447,25 +5392,25 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>sYIBsws6qUG</v>
+        <v>MGjwUUNsE60</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v xml:space="preserve">zzzCOV-2 </v>
+        <v>COV-2 (Male 0-59)</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5473,25 +5418,25 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>T4Fcv5Khfe8</v>
+        <v>qh0kIjHZbP8</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>ZZZVaccine Uptake (COVAX 3)</v>
+        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>ZZZVaccine Uptake (COVAX 3)</v>
+        <v>2nd, 3rd, booster dose - (Male 60+)</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v/>
+        <v>COV-2 (Male 60+)</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F32" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5499,25 +5444,25 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>toRV4TP9yQK</v>
+        <v>DNWp4zqrALv</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>COV-C Dropout: Denominator COVAX1 (10 days since enrollment)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Dropout_rate_10_days_D</v>
+        <v>Received last dose</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v/>
+        <v>COV-c</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5525,16 +5470,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>UWXUTVN709H</v>
+        <v>BtB8fMhK2gH</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (0-59)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Received last dose (Female)</v>
+        <v>Received last dose (0-59)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>COV-c Female</v>
+        <v>COV-c (0-59)</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>Number of people who have had a last recommended dose of a vaccine product</v>
@@ -5543,7 +5488,7 @@
         <v>EVENT</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5551,25 +5496,25 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>UzbfnPqo0LV</v>
+        <v>a6kCEcImBlW</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>ZZZNumber of doses given</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (60+)</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
+        <v>Received last dose (60+)</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>ZZZCOV-n</v>
+        <v>COV-c (60+)</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F35" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5577,25 +5522,25 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>UzPqw49tyym</v>
+        <v>Zp39TSOR8eW</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
+        <v>Received last dose (Female 0-59)</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>COV-2 (Male)</v>
+        <v>COV-c (Female 0-59)</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F36" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5603,25 +5548,25 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>V7SgYaK5lyF</v>
+        <v>XFUvVgqPukT</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Dropout_rate_30_days_D</v>
+        <v>Received last dose (Female 60+)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v/>
+        <v>COV-c (Female 60+)</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5629,25 +5574,25 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>wkaRLVNi6Fm</v>
+        <v>UWXUTVN709H</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female)  JM</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female)</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of females JM</v>
+        <v>Received last dose (Female)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>COV-2 (Female)-JM</v>
+        <v>COV-c Female</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F38" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5655,25 +5600,25 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>x4L0LuEBHhW</v>
+        <v>FZNIlzPRMmL</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 60+)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>First dose - Number of people (Female 60+)</v>
+        <v>Received last dose (Male 0-59)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>COV-1 (Female 60+)</v>
+        <v>COV-c (Male 0-59)</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F39" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5681,25 +5626,25 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>xE7kgNbrb5v</v>
+        <v>zovL7DKBRuK</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>COV-C Dropout: Numerator COVAX3 (28 days since enrollment, no final dose)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Dropout_rate_28_days_n</v>
+        <v>Received last dose (Male 60+)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v/>
+        <v>COV-c (Male 60+)</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5707,16 +5652,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>XFUvVgqPukT</v>
+        <v>pbiKvW0Xv5Y</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Received last dose (Female 60+)</v>
+        <v>Received last dose (Male)</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>COV-c (Female 60+)</v>
+        <v>COV-c Male</v>
       </c>
       <c r="E41" s="5" t="str">
         <v>Number of people who have had a last recommended dose of a vaccine product</v>
@@ -5725,7 +5670,7 @@
         <v>EVENT</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5733,25 +5678,25 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>xY4T9hHXNji</v>
+        <v>Zn0UuSRYyJw</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
+        <v>Underlying conditions - People with</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
+        <v>Underlying conditions - People with</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>COV-2 (Female 0-59)</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>COunt of people who have one or more underlying conditions</v>
       </c>
       <c r="F42" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5759,25 +5704,25 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>z7eWopCMD1k</v>
+        <v>M3jBOeFxHO0</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 3) </v>
+        <v>Vaccine Uptake AstraZeneca</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 3) </v>
+        <v xml:space="preserve">Vaccine Uptake (AstraZeneca) </v>
       </c>
       <c r="D43" s="5" t="str">
         <v/>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of doses given of AstraZeneca</v>
       </c>
       <c r="F43" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5785,25 +5730,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>zgt8n5PIAAf</v>
+        <v>A2Vtdh2mndr</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (0-59)</v>
+        <v>Vaccine Uptake BioNtech</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
+        <v xml:space="preserve">Vaccine Uptake (BioNTech/Pfizer) </v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>COV-2 (0-59)</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F44" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5811,25 +5756,25 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>Zn0UuSRYyJw</v>
+        <v>ZQUxbCYqEOn</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Underlying conditions - People with</v>
+        <v>Vaccine Uptake Gamaleya</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Underlying conditions - People with</v>
+        <v xml:space="preserve">Vaccine Uptake (Gamaleya) </v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
       </c>
       <c r="E45" s="5" t="str">
-        <v>COunt of people who have one or more underlying conditions</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F45" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5837,25 +5782,25 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>zovL7DKBRuK</v>
+        <v>z7eWopCMD1k</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
+        <v>Vaccine Uptake Moderna</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Received last dose (Male 60+)</v>
+        <v xml:space="preserve">Vaccine Uptake (Moderna) </v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>COV-c (Male 60+)</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F46" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5863,25 +5808,25 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>Zp39TSOR8eW</v>
+        <v>MzXxrDWcNjW</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
+        <v>Vaccine Uptake Sinopharm</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Received last dose (Female 0-59)</v>
+        <v xml:space="preserve">Vaccine Uptake (Sinopharm ) </v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>COV-c (Female 0-59)</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F47" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5889,16 +5834,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>zr25iLoCE4g</v>
+        <v>UzbfnPqo0LV</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+        <v>ZZZNumber of doses given</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of people</v>
+        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>COV-2</v>
+        <v>ZZZCOV-n</v>
       </c>
       <c r="E48" s="4" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
@@ -5907,7 +5852,7 @@
         <v>EVENT</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5915,27 +5860,183 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>ZS6qo9BSrcI</v>
+        <v>BEw3zmRnGo4</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>COV-C Dropout: Denominator COVAX2 (21 days since enrollment)</v>
+        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Dropout_rate_21_days_D</v>
+        <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v/>
+        <v>ZZCOV-2 (Female)</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F49" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H49" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>IXW8ahBF3Pl</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>ZZZCOV-2 (Male)</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v>ENROLLMENT</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H50" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>P2OSNv6tWuj</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>ZZZNumber of people receiving a first dose</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v>ZZZFirst dose - Number of people</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>ZZZCOV-1</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>Number of people who have had a first dose of a vaccine product</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <v>ENROLLMENT</v>
+      </c>
+      <c r="G51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H51" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>sYIBsws6qUG</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v xml:space="preserve">zzzCOV-2 </v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <v>ENROLLMENT</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H52" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>ApGCVA6qhKT</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>Number of doses given of AstraZeneca</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H53" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>rtoIINJSfAf</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>Number of people who have had any dose of a vaccine product</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H54" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>T4Fcv5Khfe8</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>ZZZVaccine Uptake (Moderna)</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>ZZZVaccine Uptake (Moderna)</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>Number of people who have had any dose of a vaccine product</v>
+      </c>
+      <c r="F55" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H55" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>
@@ -5945,14 +6046,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="107.7109375" customWidth="1"/>
-    <col min="3" max="3" width="90.7109375" customWidth="1"/>
+    <col min="2" max="2" width="99.7109375" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -5976,16 +6077,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A6Oy09dbQwn</v>
+        <v>QWOOvnYfKbN</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>if there was an allergic reaction after the first dose, fill out an AEFI stage</v>
+        <v>Assign a suggested date for next dose astrazeneca</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5993,16 +6094,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AmgPexdbztQ</v>
+        <v>ZT3tLrXXadf</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>If patient has had underlying diseases, transfer that value to following stage</v>
+        <v>Assign a suggested date for next dose biontechpfizer</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6010,16 +6111,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>biYqhZM5HXe</v>
+        <v>rIOcajqykjp</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Show warning if the client is a health worker</v>
+        <v>Assign a suggested date for next dose gamaleya</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>If the client is a health worker, show a warning in the top bar</v>
+        <v>Assigns a next suggested dose date 21 days after this dose (guideline says 21-28 days)</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6027,16 +6128,16 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>ct6P0r3GQbY</v>
+        <v>Rhh99IrHe3P</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>AEFIs previously present show in indicator box</v>
+        <v>Assign a suggested date for next dose moderna</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-01</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6044,16 +6145,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>e0WJRMhSrZy</v>
+        <v>VJTg5eGf3Je</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>If Age is under 18, then warn that COVAX 1 is recommended for ages 18 and up</v>
+        <v>Assign a suggested date for next dose sinopharm</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 21 days after this dose</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6061,16 +6162,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>fJLXDY8WJIb</v>
+        <v>X7tSyOIdusk</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Hide Manufacturers COVAX1</v>
+        <v>Assign dose number to astrazeneca</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>If COVAX1 is selected, hide manufacturers who do not produce covax1</v>
+        <v>If astrazeneca is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6078,16 +6179,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>O2NnmPrpL7s</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>Assign dose number to biontechpfizer</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v/>
+        <v>If biontechpfizer is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6095,16 +6196,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>VTIzJo0OQ7I</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>Assign dose number to gamaleya</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6112,16 +6213,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>HDGNEGd5wnd</v>
+        <v>pN5K5h6wSo4</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Show warning: If previous dose was first, then this shoul be second</v>
+        <v>Assign dose number to moderna</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6129,16 +6230,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>HdOtRsvVzgY</v>
+        <v>Wcnh9W2Pfz5</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Hide Trimester if nor pregnant</v>
+        <v>Assign dose number to sinopharm</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v/>
+        <v>If sinopharm is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6146,16 +6247,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>hdPflHqZKO3</v>
+        <v>oCzO3wOH9Wa</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Show warning: If previous dose was second then this should be the third dose, or a booster dose</v>
+        <v>Assign name to BiONtech/Pfizer/biontechpfizer</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>If BioNTech/Pfizer is selected, assign value Comirnaty,Tozinameran to vaccine name</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6163,16 +6264,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>I0FZ4YQgxfD</v>
+        <v>Jvy8jLRKux9</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Hide underlying conditions if none</v>
+        <v>Assign name to Gamaleya/ gamaleya</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v/>
+        <v>If Gamaleya/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6180,16 +6281,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>jJGIDJ4HYvE</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>Assign name to Moderna/ moderna</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v/>
+        <v>If moderna is selected, assign value to vaccine name "mRNA-1273"</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6197,16 +6298,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>zgex5murOHT</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>Assign name to Sinopharm/ sinopharm</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v/>
+        <v>If Sinopharm/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6214,16 +6315,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>j16AULHWXur</v>
+        <v>fJLXDY8WJIb</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>Assign name/Hide options to AstraZeneca/ astrazeneca</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v/>
+        <v>If Astra Zeneca (astrazeneca) is selected, assign value AZD1222</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6231,16 +6332,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>jGPxY0apAr2</v>
+        <v>oPUB5us9T8e</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>AEFIs present show warning</v>
+        <v xml:space="preserve">Calculate age </v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-02-01</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6248,16 +6349,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>jJGIDJ4HYvE</v>
+        <v>zLLHG561wsq</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Hide Manufacturers COVAX3</v>
+        <v>Hide anaphylaxis DE if first dose</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>If COVAX3 is selected, hide manufacturers who do not produce covax3</v>
+        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6265,16 +6366,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>jNtY9t6b120</v>
+        <v>HDGNEGd5wnd</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>Hide first dose option if previous was first dose</v>
       </c>
       <c r="C19" s="5" t="str">
         <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6282,16 +6383,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>srC0NIzM3Ou</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>Hide pregnancy if not a woman</v>
       </c>
       <c r="C20" s="4" t="str">
         <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6299,16 +6400,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>HdOtRsvVzgY</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>Hide Trimester if nor pregnant</v>
       </c>
       <c r="C21" s="5" t="str">
         <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6316,16 +6417,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>l8opvp32VAd</v>
+        <v>I0FZ4YQgxfD</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>Hide underlying conditions if none</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6333,16 +6434,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6350,16 +6451,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>e0WJRMhSrZy</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6367,16 +6468,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>O2NnmPrpL7s</v>
+        <v>xydE4Vcj6xU</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Assign dose number to COVAX2</v>
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>If COVAX2 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6384,16 +6485,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>oCzO3wOH9Wa</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Hide Manufacturers COVAX2</v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>If COVAX1 is selected, hide manufacturers who do not produce covax2</v>
+        <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6401,16 +6502,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>xeInMQrA5Mo</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6418,16 +6519,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>oPUB5us9T8e</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6435,16 +6536,16 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>ParDbFN1amU</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6452,16 +6553,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>pN5K5h6wSo4</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Assign dose number to COVAX3</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>If COVAX3 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6469,16 +6570,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>ppbeGorruVj</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>If Age is under 18, then warn that COVAX 3 is recommended for ages 18 and up</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6486,16 +6587,16 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C32" s="4" t="str">
         <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6503,16 +6604,16 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>qLCtAeQQOP3</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v xml:space="preserve">Show warning: If previous dose was second and the vaccine was COVAX 1 then there should be no more doses </v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6520,16 +6621,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6537,16 +6638,16 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>QWOOvnYfKbN</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 1</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6554,16 +6655,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6571,16 +6672,16 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Rhh99IrHe3P</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 3</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
+        <v/>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6588,16 +6689,16 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6605,16 +6706,16 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Last dose - complete programme</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6622,16 +6723,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>srC0NIzM3Ou</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Hide pregnancy if not a woman</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6639,16 +6740,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>If Age is under 16, then warn that COVAX 2 is recommended for ages 16 and up</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6656,16 +6757,16 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6673,16 +6774,16 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
       </c>
       <c r="D43" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6690,16 +6791,16 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6707,16 +6808,16 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>AmgPexdbztQ</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Send notification if overdue</v>
+        <v>If patient has had underlying diseases, transfer that value to following stage</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6724,16 +6825,16 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>X7tSyOIdusk</v>
+        <v>XTLv9YqOtNX</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Assign dose number to COVAX1</v>
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>If COVAX1 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6741,16 +6842,16 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
       </c>
       <c r="D47" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6758,16 +6859,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>zLLHG561wsq</v>
+        <v>A6Oy09dbQwn</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Hide anaphylaxis DE if first dose</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6775,18 +6876,120 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>ZT3tLrXXadf</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 2</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E49" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>SkBUqyO9zG0</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>Last dose - complete programme</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>W0YQaz1qRJb</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>Send notification if overdue</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>nU9WWRKt7PL</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>Show vaccine type from previous vaccination event</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>LO6XtDyCbya</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>biYqhZM5HXe</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>Show warning if the client is a health worker</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>If the client is a health worker, show a warning in the top bar</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>hdPflHqZKO3</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>Show warning: If first dose, then hide "last dose" DE</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -28,12 +28,11 @@
     <sheet name="dashboardItems" sheetId="23" r:id="rId23"/>
     <sheet name="visualizations" sheetId="24" r:id="rId24"/>
     <sheet name="maps" sheetId="25" r:id="rId25"/>
-    <sheet name="eventReports" sheetId="26" r:id="rId26"/>
-    <sheet name="eventCharts" sheetId="27" r:id="rId27"/>
-    <sheet name="trackedEntityInstanceFilters" sheetId="28" r:id="rId28"/>
-    <sheet name="programNotificationTemplates" sheetId="29" r:id="rId29"/>
-    <sheet name="userGroups" sheetId="30" r:id="rId30"/>
-    <sheet name="users" sheetId="31" r:id="rId31"/>
+    <sheet name="eventCharts" sheetId="26" r:id="rId26"/>
+    <sheet name="trackedEntityInstanceFilters" sheetId="27" r:id="rId27"/>
+    <sheet name="programNotificationTemplates" sheetId="28" r:id="rId28"/>
+    <sheet name="userGroups" sheetId="29" r:id="rId29"/>
+    <sheet name="users" sheetId="30" r:id="rId30"/>
   </sheets>
 </workbook>
 </file>
@@ -449,7 +448,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -465,7 +464,7 @@
         <v>Code</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX</v>
+        <v>COVAC</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +480,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.0.0</v>
+        <v>V1.1.0</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +488,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.35</v>
+        <v>DHIS2.35.1-bca7d7b</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +496,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-09T16:31</v>
+        <v>20210303T015519</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +504,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX_TRACKER_V1.0.0_DHIS2.35_2021-02-09T16:31</v>
+        <v>COVAC_TRACKER_V1.1.0_DHIS2.35.1-bca7d7b_20210303T015519</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +519,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -554,7 +553,7 @@
         <v>Ewi7FUfcHAD</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -562,16 +561,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>SnNKiozu7ig</v>
+        <v>T3HmXr0sjTZ</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX Unique System Identifier (EPI)</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>aJJvi3jiLZr</v>
+        <v>KSr2yTdu1AI</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -588,7 +587,7 @@
         <v>TfdH5KvFmMy</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -605,7 +604,7 @@
         <v>aW66s2QSosT</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -616,13 +615,13 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Sex</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>CklPZdOd6H1</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -639,7 +638,7 @@
         <v>Z1rLc1rVHK8</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -656,7 +655,7 @@
         <v>mAWcalQYYyk</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -673,7 +672,7 @@
         <v>ciCR6BBvIT4</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -690,7 +689,7 @@
         <v>VCtm2pySeEV</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -707,7 +706,7 @@
         <v>YCqoNJZKvAG</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -724,7 +723,7 @@
         <v>LY2bDXpNvS7</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -736,13 +735,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="390.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
@@ -775,128 +774,128 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - AEFIs present</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>vaccine_type</v>
+        <v>AEFIs_present</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>Are there any adverse events present after receiving the immunization?</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G2" s="4" t="str">
-        <v>bbnyNYD1wgS</v>
+        <v>m9PgIDAJGlF</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC allergic reaction</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Comcondition_present</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v/>
+        <v>If you have had a severe allergic reaction (anaphylaxis) or an immediate allergic reaction—even if it was not severe—after getting the first dose of the vaccine, you should not get another dose of an mRNA COVID-19 vaccine. An immediate allergic reaction means a reaction within 4 hours of getting vaccinated, including symptoms such as hives, swelling, or wheezing (respiratory distress).</v>
       </c>
       <c r="E3" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G3" s="5" t="str">
-        <v>bCtWZGjSWM8</v>
+        <v>dWoveSw6b79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC- Batch Number</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Batch Number</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Comcond_pregnant</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Is the patient pregnant or lactating?</v>
+        <v>Batch number for this vaccine dose</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G4" s="4" t="str">
-        <v>BfNZcj99yz4</v>
+        <v>Yp1F4txx8tm</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX_Chronic Lung Disease</v>
+        <v>COVAC Cardiovascular Disease</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Covax_Comcond_lung</v>
+        <v>Covac_Comcond_cardi</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Chronic Lung Disease</v>
+        <v>Cardiovascular disease, including hypertension</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G5" s="5" t="str">
-        <v>C0Bony47eKp</v>
+        <v>LNHAYF3qdZl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC_Chronic Lung Disease</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>covax_pregnancy_gestation</v>
+        <v>Covac_Comcond_lung</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Pregnancy gestation (weeks)</v>
+        <v>Chronic Lung Disease</v>
       </c>
       <c r="E6" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G6" s="4" t="str">
-        <v>CBAs12YL4g7</v>
+        <v>C0Bony47eKp</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Diabetes</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC Diabetes</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>covax_Comcond_other</v>
+        <v>Covac_Comcond_diabetes</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
@@ -905,67 +904,67 @@
         <v>default</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G7" s="5" t="str">
-        <v>dpyQUtizp7s</v>
+        <v>TT1h0vGu5da</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v/>
+        <v>dose_expiry_date</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>This is the last dose in the course</v>
+        <v>Date dose of expiration</v>
       </c>
       <c r="E8" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <v>DSOWCIdQ8Tr</v>
+        <v>YTQulAldGOs</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX Allergic reaction after first dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX allergic reaction</v>
+        <v>COVAC - Dose Number</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v/>
+        <v>dose_number</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>If you have had a severe allergic reaction (anaphylaxis) or an immediate allergic reaction—even if it was not severe—after getting the first dose of the vaccine, you should not get another dose of an mRNA COVID-19 vaccine. An immediate allergic reaction means a reaction within 4 hours of getting vaccinated, including symptoms such as hives, swelling, or wheezing (respiratory distress).</v>
+        <v>Defines if this is the first vs the second dose, for example</v>
       </c>
       <c r="E9" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G9" s="5" t="str">
-        <v>dWoveSw6b79</v>
+        <v>LUIsbsm3okG</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Next dose date</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_immuno</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -974,182 +973,182 @@
         <v>default</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <v>FFWcps4MfuH</v>
+        <v>MuZ9dMVXpuM</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Covax_Comcond_renal</v>
+        <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v/>
+        <v>This is the last dose in the course</v>
       </c>
       <c r="E11" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G11" s="5" t="str">
-        <v>gW4pd818Sw8</v>
+        <v>DSOWCIdQ8Tr</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>AEFI_Serious adverse event following immunization</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Serious adverse event following immunization</v>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_malig</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v/>
+        <v>COVAC - Malignancy</v>
       </c>
       <c r="E12" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G12" s="4" t="str">
-        <v>kQCVFWE2MPb</v>
+        <v>xVxLMku5DMX</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX Cardiovascular Disease</v>
+        <v>Multiple products explanation</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Covax_Comcond_cardi</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>Cardiovascular disease, including hypertension</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G13" s="5" t="str">
-        <v>LNHAYF3qdZl</v>
+        <v>OAxinuYFDG6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Previously infected with COVID</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v/>
+        <v>COVAC_Comcond_neuro</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
+        <v>Chronic neurological or neuromuscular disease</v>
       </c>
       <c r="E14" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G14" s="4" t="str">
-        <v>LOU9t0aR0z7</v>
+        <v>VCetMtYu1DY</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Pregnancy</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>dose_number</v>
+        <v>Comcond_pregnant</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>Defines if this is the first vs the second dose, for example</v>
+        <v>Is the patient pregnant or lactating?</v>
       </c>
       <c r="E15" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G15" s="5" t="str">
-        <v>LUIsbsm3okG</v>
+        <v>BfNZcj99yz4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>AEFIs_present</v>
+        <v>covac_pregnancy_gestation</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>Are there any adverse events present after receiving the immunization?</v>
+        <v>Pregnancy gestation (weeks)</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>2021-02-01</v>
+        <v/>
       </c>
       <c r="G16" s="4" t="str">
-        <v>m9PgIDAJGlF</v>
+        <v>CBAs12YL4g7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>Previously infected with COVID</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Covax_Comcond_immuno</v>
+        <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v/>
+        <v>Has the patient been infected with COVID-19 within the last 90 days?</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G17" s="5" t="str">
-        <v>MuZ9dMVXpuM</v>
+        <v>LOU9t0aR0z7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Multiple products explanation</v>
+        <v>COVAC - Renal Disease</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v/>
+        <v>Covac_Comcond_renal</v>
       </c>
       <c r="D18" s="4" t="str">
         <v/>
@@ -1158,90 +1157,90 @@
         <v>default</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G18" s="4" t="str">
-        <v>OAxinuYFDG6</v>
+        <v>gW4pd818Sw8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>Next dose date</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>eligible</v>
+        <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>Whether the client is eligible for the vaccine</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G19" s="5" t="str">
-        <v>OXBnk0mWcOw</v>
+        <v>FFWcps4MfuH</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX Date of remission</v>
+        <v>COVAC - Total doses</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Date of remission COVID</v>
+        <v>COVAC Total doses</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v/>
+        <v>totalDoses</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v/>
+        <v xml:space="preserve">Total doses required for this vaccine product </v>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G20" s="4" t="str">
-        <v>oZiX5uHkacg</v>
+        <v>PamkjF1JUnE</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>totalDoses</v>
+        <v>Comcondition_present</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v xml:space="preserve">Total doses required for this vaccine product </v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
         <v>default</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G21" s="5" t="str">
-        <v>PamkjF1JUnE</v>
+        <v>bCtWZGjSWM8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - Manufacturer</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX Manufacturer</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v/>
+        <v>covac_Comcond_other</v>
       </c>
       <c r="D22" s="4" t="str">
         <v/>
@@ -1250,21 +1249,21 @@
         <v>default</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>2021-02-04</v>
+        <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <v>rpkH9ZPGJcX</v>
+        <v>dpyQUtizp7s</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAX Diabetes</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Covax_Comcond_diabetes</v>
+        <v>COVAC_vaccine_manufacturer</v>
       </c>
       <c r="D23" s="5" t="str">
         <v/>
@@ -1273,125 +1272,33 @@
         <v>default</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G23" s="5" t="str">
-        <v>TT1h0vGu5da</v>
+        <v>rpkH9ZPGJcX</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>AEFI_Nonserious adverse event following immunization</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Non-serious adverse event following immunization</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v/>
+        <v>COVAC_vaccine_name</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v/>
+        <v>Name of vaccine product</v>
       </c>
       <c r="E24" s="4" t="str">
         <v>default</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="G24" s="4" t="str">
-        <v>V5CfmqTsKrv</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
-      </c>
-      <c r="C25" s="5" t="str">
-        <v>COVAX_Comcond_neuro</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <v>Chronic neurological or neuromuscular disease</v>
-      </c>
-      <c r="E25" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F25" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G25" s="5" t="str">
-        <v>VCetMtYu1DY</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="B26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="C26" s="4" t="str">
-        <v>Covax_Comcond_malig</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <v>COVAX - Malignancy</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F26" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <v>xVxLMku5DMX</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="str">
-        <v>COVAX- Batch Number</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <v>COVAX - Batch Number</v>
-      </c>
-      <c r="C27" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D27" s="5" t="str">
-        <v>Batch number for this vaccine dose</v>
-      </c>
-      <c r="E27" s="5" t="str">
-        <v>default</v>
-      </c>
-      <c r="F27" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G27" s="5" t="str">
-        <v>Yp1F4txx8tm</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
-      </c>
-      <c r="B28" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <v>dose_expiry_date</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <v>Date dose of expiration</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <v>default</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="G28" s="4" t="str">
-        <v>YTQulAldGOs</v>
+        <v>bbnyNYD1wgS</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1419,170 +1326,186 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAX - Eligibility</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAX Date of remission</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>COVAX - Covid-19 vaccination registry</v>
+        <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC - Diabetes</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <v>COVAC - Neurological/Neuromuscular</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="str">
+        <v>COVAC - Covid-19 vaccination registry</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1544,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>bjDvmb4bfuf</v>
@@ -1666,7 +1589,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-09</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>GLevLNI9wkl</v>
@@ -1707,7 +1630,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>xYerKDKCefk</v>
@@ -1745,7 +1668,7 @@
         <v>default</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>HllvX50cXC0</v>
@@ -1762,7 +1685,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="231.7109375" customWidth="1"/>
@@ -1784,128 +1707,128 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Yes/No/Unknown</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VWzgQENmzPK</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Yes; No; Unknown</v>
+        <v>Urban; Rural</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Occupation - COVID</v>
+        <v>COVAC AEFI Pregnancy</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>ilxtWultuYP</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
+        <v>Pregnant; Lactating; No</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX Manufacturers</v>
+        <v>COVAC Dose</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>oj3CWm4hpPb</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Manufacturer 1; Manufacturer 2; Manufacturer 3; Moderna Therapeutics Inc; BioNTech Manufacturing GmBH; Lonza Group; PGS Kalamazoo; Sanofi</v>
+        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Sex</v>
+        <v>COVAC trimester</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>kgDmgTYZICP</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Male; Female</v>
+        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX AEFI Pregnancy</v>
+        <v>COVAC Vaccine Manufacturers</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>DtOGtoLbaB5</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Pregnant; Lactating; No</v>
+        <v>Moderna; AstraZeneca; BioNTech/Pfizer; Gamaleya; Sinopharm / BIBP; SK Bio AstraZeneca</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX trimester</v>
+        <v>COVAC Vaccine Names</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VQo3HkUlMHc</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
+        <v>AZD1222 / AstraZeneca; BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer; mRNA-1273 / Moderna; Sputnik V / Gamaleya; SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX Dose</v>
+        <v>Occupation - COVID</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>1st dose; 2nd dose; 3rd dose; Booster dose</v>
+        <v>Healthcare worker; Law enforcement/ Firefighter; Banker; Driver / housekeeping staff; Teacher; Hotelier / airline personel; Retail (essential); Retail (non essential); Social worker/ volunteer; Retired; Student; Unemployed; Other</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Vaccine types</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COVAX1; COVAX2; COVAX3</v>
+        <v>Female; Male</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVAC - Yes/No/Unknown</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>bLA3AqDKdwx</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>Urban; Rural</v>
+        <v>Yes; No; Unknown</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1843,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
@@ -1945,152 +1868,152 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A9OSdfNI6IT</v>
+        <v>G08Evdkx5dY</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Manufacturer 1</v>
+        <v>1st dose</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>manufacturer1</v>
+        <v>DOSE1</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>ahtoNsMUVFa</v>
+        <v>zDqDiyA8ySB</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Teacher</v>
+        <v>1st Trimester (1-12 weeks)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>teacher</v>
+        <v>1trimester</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>DYJrGkIG11J</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Female</v>
+        <v>2nd dose</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>FEMALE</v>
+        <v>DOSE2</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>B26BIJSeQy0</v>
+        <v>wEsSrYnDsRk</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX2</v>
+        <v>2nd Trimester (13-28 weeks)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX2</v>
+        <v>2trimester</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>bVYOqnn9R2r</v>
+        <v>xl5HHvHV2XH</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Hotelier / airline personel</v>
+        <v>3rd dose</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>hotelier_airline_personel</v>
+        <v>DOSE3</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>caHzedoEw6F</v>
+        <v>Q3obJT1MXov</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Manufacturer 3</v>
+        <v>3rd Trimester (20-40 weeks)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>manufacturer3</v>
+        <v>3trimester</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>kgDmgTYZICP</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>gKvIUJwVIHi</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Yes</v>
+        <v>AstraZeneca</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>YES</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>DYJrGkIG11J</v>
+        <v>wCXR8ztOP2N</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2nd dose</v>
+        <v>AZD1222 / AstraZeneca</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>DOSE2</v>
+        <v>astrazeneca</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>EErrO8Fyu43</v>
+        <v>UvR0km5ntbi</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Law enforcement/ Firefighter</v>
+        <v>Banker</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>law_enforcement_firefighter</v>
+        <v>banker</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2098,169 +2021,169 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>fWAvnP7mf98</v>
+        <v>FMOE7pmr0JD</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Unemployed</v>
+        <v>BioNTech/Pfizer</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>unemployed</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>G08Evdkx5dY</v>
+        <v>B26BIJSeQy0</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>1st dose</v>
+        <v>BNT162b2 / COMIRNATY Tozinameran (INN) / BioNTech/Pfizer</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>DOSE1</v>
+        <v>biontechpfizer</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>GUiVk7RiR3p</v>
+        <v>PoeQ0Zb1avN</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Student</v>
+        <v>Booster dose</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>student</v>
+        <v>BOOSTER</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>oj3CWm4hpPb</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>gVqGaROtask</v>
+        <v>Gx9kgkrZj9y</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>No</v>
+        <v>Driver / housekeeping staff</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>not_pregnant</v>
+        <v>driver_housekeeping_staff</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>Gx9kgkrZj9y</v>
+        <v>AZK4rjJCss5</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Driver / housekeeping staff</v>
+        <v>Female</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>driver_housekeeping_staff</v>
+        <v>FEMALE</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>HGNGJ3lHrFG</v>
+        <v>n1p4obma3dp</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Healthcare worker</v>
+        <v>Gamaleya</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>healthcare_worker</v>
+        <v>gamaleya</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>HxFNfoxk7ac</v>
+        <v>HGNGJ3lHrFG</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Rural</v>
+        <v>Healthcare worker</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>RURAL</v>
+        <v>healthcare_worker</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>IHYwYAtvjCY</v>
+        <v>bVYOqnn9R2r</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Urban</v>
+        <v>Hotelier / airline personel</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>URBAN</v>
+        <v>hotelier_airline_personel</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
-        <v>VWzgQENmzPK</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>ilxDbKaotF7</v>
+        <v>xmyy2NiyJaI</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Lonza Group</v>
+        <v>Lactating</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>lonzagroup</v>
+        <v>COVACLactating</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>jbAJfe9Nqtk</v>
+        <v>EErrO8Fyu43</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Other</v>
+        <v>Law enforcement/ Firefighter</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>other</v>
+        <v>law_enforcement_firefighter</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2268,33 +2191,33 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>KHU0Aaa2Bw2</v>
+        <v>UrUdMteQzlT</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Sanofi</v>
+        <v>Male</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>sanofi1</v>
+        <v>MALE</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>hiQ3QFheQ3O</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>odf8pyeMlGk</v>
+        <v>labbhFBSyp4</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>BioNTech Manufacturing GmBH</v>
+        <v>Moderna</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>biontech1</v>
+        <v>moderna</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>DtOGtoLbaB5</v>
@@ -2302,19 +2225,19 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>oMTIcie2RUL</v>
+        <v>yeTPD0qoaz7</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Moderna Therapeutics Inc</v>
+        <v>mRNA-1273 / Moderna</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>moderna1</v>
+        <v>moderna</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="24">
@@ -2328,7 +2251,7 @@
         <v>NO</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>bLA3AqDKdwx</v>
@@ -2336,84 +2259,84 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>pmBtNMHMpsZ</v>
+        <v>gVqGaROtask</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>PGS Kalamazoo</v>
+        <v>No</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>pgskalamazoo</v>
+        <v>not_pregnant</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>PoeQ0Zb1avN</v>
+        <v>jbAJfe9Nqtk</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Booster dose</v>
+        <v>Other</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>BOOSTER</v>
+        <v>other</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>Q3obJT1MXov</v>
+        <v>scFBcsNG5JT</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>Pregnant</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>3trimester</v>
+        <v>COVACPregnant</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E27" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>ilxtWultuYP</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>scFBcsNG5JT</v>
+        <v>zIN2FnIIZC2</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Pregnant</v>
+        <v>Retail (essential)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>COVAXPregnant</v>
+        <v>retail_essentials</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>SD1oprpITgl</v>
+        <v>SVcm0QZbxYn</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>Social worker/ volunteer</v>
+        <v>Retail (non essential)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>social_worker_volunteer</v>
+        <v>retail_non_essential</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E29" s="5" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2421,16 +2344,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>SVcm0QZbxYn</v>
+        <v>Sw1isix3dwU</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Retail (non essential)</v>
+        <v>Retired</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>retail_non_essential</v>
+        <v>retired</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
         <v>CNNH0YKxRh9</v>
@@ -2438,206 +2361,206 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>Sw1isix3dwU</v>
+        <v>HxFNfoxk7ac</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>Retired</v>
+        <v>Rural</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>retired</v>
+        <v>RURAL</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E31" s="5" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>clKOrDK3Gw0</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Unknown</v>
+        <v>SARS-CoV-2 Vaccine (VeroCell), Inactivated / Sinopharm</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>UNKNOWN</v>
+        <v>sinopharm</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E32" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>CkibqhWdy3q</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>Male</v>
+        <v>Sinopharm / BIBP</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>MALE</v>
+        <v>sinopharm</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="E33" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>UvR0km5ntbi</v>
+        <v>Yjp2PzOQiMa</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Banker</v>
+        <v>SK Bio AstraZeneca</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>banker</v>
+        <v>astrazenecaskbio</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E34" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>DtOGtoLbaB5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>wCXR8ztOP2N</v>
+        <v>SD1oprpITgl</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>COVAX1</v>
+        <v>Social worker/ volunteer</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>COVAX1</v>
+        <v>social_worker_volunteer</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E35" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>wEsSrYnDsRk</v>
+        <v>TVWwdI7Mlrh</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>2nd Trimester (13-28 weeks)</v>
+        <v>Sputnik V / Gamaleya</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>2trimester</v>
+        <v>gamaleya</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VQo3HkUlMHc</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>xl5HHvHV2XH</v>
+        <v>GUiVk7RiR3p</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>3rd dose</v>
+        <v>Student</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>DOSE3</v>
+        <v>student</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E37" s="5" t="str">
-        <v>oj3CWm4hpPb</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>xmyy2NiyJaI</v>
+        <v>ahtoNsMUVFa</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Lactating</v>
+        <v>Teacher</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>COVAXLactating</v>
+        <v>teacher</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E38" s="4" t="str">
-        <v>ilxtWultuYP</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>yeTPD0qoaz7</v>
+        <v>fWAvnP7mf98</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>COVAX3</v>
+        <v>Unemployed</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>COVAX3</v>
+        <v>unemployed</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
-        <v>VQo3HkUlMHc</v>
+        <v>CNNH0YKxRh9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>z978nuyyRl7</v>
+        <v>TKD1XJ4ZhMO</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Manufacturer 2</v>
+        <v>Unknown</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>manufacturer2</v>
+        <v>UNKNOWN</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v>DtOGtoLbaB5</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>zDqDiyA8ySB</v>
+        <v>IHYwYAtvjCY</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>1st Trimester (1-12 weeks)</v>
+        <v>Urban</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>1trimester</v>
+        <v>URBAN</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
-        <v>kgDmgTYZICP</v>
+        <v>VWzgQENmzPK</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>zIN2FnIIZC2</v>
+        <v>CvivP1rh4ii</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Retail (essential)</v>
+        <v>Yes</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>retail_essentials</v>
+        <v>YES</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>CNNH0YKxRh9</v>
+        <v>bLA3AqDKdwx</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2574,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -2673,13 +2596,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID Vaccine Registry</v>
+        <v>COVAC - Covid-19 Vaccine Registry</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2717,7 +2640,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-20</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>MCPQUTHX1Ze</v>
@@ -2729,13 +2652,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="172.7109375" customWidth="1"/>
@@ -2780,23 +2703,23 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" s="4" t="str">
-        <v>DFAxSmMm5pJ</v>
+        <v>qbNdD4CF8K5</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 2 (21 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX2</v>
+        <v>Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>COV-1-COV-c COVAX2</v>
+        <v>COV-1-COV-c</v>
       </c>
       <c r="E2" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
 </v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>COV-1 - COV-c</v>
+        <v>CPV-1 - COV-c</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>COV-1</v>
@@ -2805,7 +2728,7 @@
         <v>Percentage</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J2" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2813,16 +2736,16 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" s="5" t="str">
-        <v>H7YS9Fxl1mR</v>
+        <v>KI5DoTUGLEE</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 3 (21 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c AstraZeneca (12 days)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX3</v>
+        <v>Drop-out from COV-1 to COV-c COVAX1</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COV-1-COV-c COVAX3</v>
+        <v>COV-1-COV-c COVAX1</v>
       </c>
       <c r="E3" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2838,7 +2761,7 @@
         <v>Percentage</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J3" s="5" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2846,16 +2769,16 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" s="4" t="str">
-        <v>KI5DoTUGLEE</v>
+        <v>DFAxSmMm5pJ</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c COVAX 1 (10 days)</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c BioNtech (21 days)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Drop-out from COV-1 to COV-c COVAX1</v>
+        <v>Drop-out from COV-1 to COV-c COVAX2</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COV-1-COV-c COVAX1</v>
+        <v>COV-1-COV-c COVAX2</v>
       </c>
       <c r="E4" s="4" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
@@ -2871,7 +2794,7 @@
         <v>Percentage</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J4" s="4" t="str">
         <v>mhdLWWUIqUp</v>
@@ -2879,23 +2802,23 @@
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" s="5" t="str">
-        <v>qbNdD4CF8K5</v>
+        <v>JjIcypzBqPV</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c Gamaleya (21 days)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Drop-out from COV-1 to COV-c</v>
+        <v>Drop-out from COV-1 to COV-c COVAX4</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>COV-1-COV-c</v>
+        <v>COV-1-COV-c COVAX4</v>
       </c>
       <c r="E5" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
 </v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>CPV-1 - COV-c</v>
+        <v>COV-1 - COV-c</v>
       </c>
       <c r="G5" s="5" t="str">
         <v>COV-1</v>
@@ -2904,9 +2827,75 @@
         <v>Percentage</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="J5" s="5" t="str">
+        <v>mhdLWWUIqUp</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" s="4" t="str">
+        <v>H7YS9Fxl1mR</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c Moderna (28 days)</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>Drop-out from COV-1 to COV-c COVAX3</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>COV-1-COV-c COVAX3</v>
+      </c>
+      <c r="E6" s="4" t="str" xml:space="preserve">
+        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
+</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <v>COV-1 - COV-c</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <v>COV-1</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J6" s="4" t="str">
+        <v>mhdLWWUIqUp</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" s="5" t="str">
+        <v>EhnDZJruoYj</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c Sinopharm (28 days)</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v>Drop-out from COV-1 to COV-c COVAX5</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v xml:space="preserve">COV-1-COV-c COVAX5 </v>
+      </c>
+      <c r="E7" s="5" t="str" xml:space="preserve">
+        <v xml:space="preserve">The proportion of people who received at least one dose of a COVID-19 vaccine but did not receive the last dose in the schedule yet. Calculated as: (COV-1 – COV-c)/COV-1
+</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <v>COV-1 - COV-c</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <v>COV-1</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J7" s="5" t="str">
         <v>mhdLWWUIqUp</v>
       </c>
     </row>
@@ -2949,10 +2938,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-12</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>e1jRVY5Mcq0</v>
+        <v>hmSnCXmLYwt</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2955,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -2984,10 +2973,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID-19 vaccine registry</v>
+        <v>COVAC - COVID-19 vaccine registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -2999,7 +2988,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3034,19 +3023,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v/>
+        <v>QTONjOuZmh4</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>TEXT</v>
+        <v>Event chart</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v/>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>yGO7K9navzb</v>
+        <v>VOyneBUDeZJ</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F2" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3054,19 +3043,19 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v/>
+        <v>ZFd7uKfZpli</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>TEXT</v>
+        <v>Event chart</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v/>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Ar6hHusJH20</v>
+        <v>CSPGbrTFB01</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F3" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3083,10 +3072,10 @@
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>wkVdR09w1ZV</v>
+        <v>GnVAMXXwRIB</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F4" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3094,19 +3083,19 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v/>
+        <v>TWG0cq8P539</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>TEXT</v>
+        <v>SINGLE_VALUE</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>uoycKmEiRNz</v>
+        <v>XhogYKdCxCn</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F5" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3114,19 +3103,19 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>wHd33PaphEC</v>
+        <v/>
       </c>
       <c r="B6" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>UACnzvlcufQ</v>
+        <v>yGO7K9navzb</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F6" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3134,19 +3123,19 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v/>
       </c>
       <c r="B7" s="5" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX - At least one underlying condition</v>
+        <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>Y61weOrxJXS</v>
+        <v>Ar6hHusJH20</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F7" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3154,19 +3143,19 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>vFkbMQiABfj</v>
+        <v/>
       </c>
       <c r="B8" s="4" t="str">
-        <v>visualizations</v>
+        <v>TEXT</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Underlying conditions</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>ytFTqxSW9AV</v>
+        <v>wkVdR09w1ZV</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F8" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3174,19 +3163,19 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v/>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Map</v>
+        <v>TEXT</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX-Dropout rates</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>XaeVdRGnR7J</v>
+        <v>uoycKmEiRNz</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F9" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3194,19 +3183,19 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>wHd33PaphEC</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX - Number of doses administered</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>ULSr3ZoJctd</v>
+        <v>UACnzvlcufQ</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F10" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3214,19 +3203,19 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>cgMKXl648C2</v>
+        <v>gNsB9zivLTy</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Event report</v>
+        <v>COLUMN</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Summary of doses</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>HJDKEwltTyy</v>
+        <v>Y61weOrxJXS</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F11" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3234,19 +3223,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>QTONjOuZmh4</v>
+        <v>vFkbMQiABfj</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Event chart</v>
+        <v>PIE</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Occupation - HCWs</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>KA0lBNvirHU</v>
+        <v>ytFTqxSW9AV</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F12" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3254,19 +3243,19 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>ZFd7uKfZpli</v>
+        <v/>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Event chart</v>
+        <v>MAP</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Area of origin</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
-        <v>OehlMy5dFc5</v>
+        <v>XaeVdRGnR7J</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F13" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3274,19 +3263,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>GJPPSQuVt4N</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>visualizations</v>
+        <v>SINGLE_VALUE</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX - Complete vaccination uptake</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>OvN5kvyDCAs</v>
+        <v>ULSr3ZoJctd</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F14" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3294,19 +3283,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>aUjo2Myd25f</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>visualizations</v>
+        <v>COLUMN</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Vaccine uptake by sex</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>LHsZfeujSZz</v>
+        <v>OvN5kvyDCAs</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F15" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3314,19 +3303,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>KV7fffdXnlY</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>ZFrKEvxoOSO</v>
+        <v>LHsZfeujSZz</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F16" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3334,19 +3323,19 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>BWlYGFBDbO2</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>visualizations</v>
+        <v>PIE</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Vaccine uptake, last month</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>zqLvFWIAsbq</v>
+        <v>ZFrKEvxoOSO</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F17" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3354,19 +3343,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>cOH1OjReS14</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Map</v>
+        <v>PIE</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX-Number of doses given, last month</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>BKU0qpNqRJt</v>
+        <v>zqLvFWIAsbq</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F18" s="4" t="str">
         <v>YYtAbckt77l</v>
@@ -3374,19 +3363,19 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v/>
       </c>
       <c r="B19" s="5" t="str">
-        <v>visualizations</v>
+        <v>MAP</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>LPZvKzUrssT</v>
+        <v>BKU0qpNqRJt</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>2021-01-29</v>
+        <v/>
       </c>
       <c r="F19" s="5" t="str">
         <v>YYtAbckt77l</v>
@@ -3394,21 +3383,41 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
+        <v>Hbs3xGj7XoN</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>LINE</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>LPZvKzUrssT</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>YYtAbckt77l</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="str">
         <v>vmNUVdhuxN7</v>
       </c>
-      <c r="B20" s="4" t="str">
-        <v>visualizations</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <v>COVAX - Cumulative number of given doses, Last 4 weeks</v>
-      </c>
-      <c r="D20" s="4" t="str">
+      <c r="B21" s="5" t="str">
+        <v>STACKED_COLUMN</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
+      </c>
+      <c r="D21" s="5" t="str">
         <v>uO249BXzjbw</v>
       </c>
-      <c r="E20" s="4" t="str">
-        <v>2021-01-29</v>
-      </c>
-      <c r="F20" s="4" t="str">
+      <c r="E21" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F21" s="5" t="str">
         <v>YYtAbckt77l</v>
       </c>
     </row>
@@ -3418,14 +3427,14 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="86.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3445,111 +3454,111 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Complete vaccination uptake</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-31T13:20:29.708</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Vaccine uptake by age group</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05T12:02:54.137</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAX - Number of doses administered</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>TEST TEST</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2021-02-05T12:02:54.594</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>vmNUVdhuxN7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAX - At least one underlying condition</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2021-01-31T13:20:30.096</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAX - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2021-02-05T12:02:54.820</v>
+        <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>GJPPSQuVt4N</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAX - Vaccine uptake by sex</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2021-02-05T12:02:55.040</v>
+        <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>wHd33PaphEC</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAX - Vaccine uptake, last month</v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2021-01-31T13:20:29.134</v>
+        <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>TWG0cq8P539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAX - Underlying conditions</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2021-01-31T13:20:30.448</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
         <v>vFkbMQiABfj</v>
@@ -3557,30 +3566,44 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAX - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>TEST TEST</v>
+        <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2021-02-05T12:02:55.243</v>
+        <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAX - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B11" s="5" t="str">
         <v/>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2021-02-05T12:03:16.999</v>
+        <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>wHd33PaphEC</v>
+        <v>KV7fffdXnlY</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
+        <v>COVAC - Vaccine uptake, last month</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D12" s="4" t="str">
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
   </sheetData>
@@ -3616,30 +3639,30 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX-Number of doses given, last month</v>
+        <v>COVAC-Dropout rates</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>cOH1OjReS14</v>
+        <v>Db3MWC56CBp</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX-Dropout rates</v>
+        <v>COVAC-Number of doses given, last month</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v>cOH1OjReS14</v>
       </c>
     </row>
   </sheetData>
@@ -3647,51 +3670,6 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVAX - Summary of doses</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <v>cgMKXl648C2</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3720,37 +3698,37 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX - Occupation - HCWs</v>
+        <v>COVAC - Area of origin</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>QTONjOuZmh4</v>
+        <v>ZFd7uKfZpli</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAX - Area of origin</v>
+        <v>COVAC - Occupation - HCWs</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>ZFd7uKfZpli</v>
+        <v>QTONjOuZmh4</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3775,53 +3753,53 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Completed clients</v>
+        <v>All clients</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-01-19</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>BL5aSffv0wj</v>
+        <v>goSkjeySiRY</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Clients with an overdue vaccine dose</v>
+        <v>Clients with a scheduled visit</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>CGr9zm3rBD4</v>
+        <v>frBrgF1IKeA</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Clients with a scheduled visit</v>
+        <v>Clients with an overdue vaccine dose</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>frBrgF1IKeA</v>
+        <v>CGr9zm3rBD4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>All clients</v>
+        <v>Completed clients</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>2021-01-18</v>
+        <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>goSkjeySiRY</v>
+        <v>BL5aSffv0wj</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3846,24 +3824,84 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Overdue vaccine dose</v>
+        <v>Notification of appointment</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>dzW10q0QMvN</v>
+        <v>I8XmjYX1rBC</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-01-26</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Notification of appointment</v>
+        <v>Overdue vaccine dose</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>I8XmjYX1rBC</v>
+        <v>dzW10q0QMvN</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2021-01-26</v>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Data Analysis</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>VLIaHu6ou8E</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="str">
+        <v>COVAC - Covid-19 Immunization Data Entry</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>q3Nh5xhJEy2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>AEAQ9LktNze</v>
       </c>
     </row>
   </sheetData>
@@ -3894,7 +3932,7 @@
         <v>Person</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>gqLw62UZlrD</v>
+        <v>hKZ9AJpnVcG</v>
       </c>
     </row>
     <row r="3">
@@ -3902,7 +3940,7 @@
         <v>Person</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>hKZ9AJpnVcG</v>
+        <v>gqLw62UZlrD</v>
       </c>
     </row>
     <row r="4">
@@ -3910,7 +3948,7 @@
         <v>Person</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>loHxNJH4IvV</v>
+        <v>qb8PkSObwqh</v>
       </c>
     </row>
     <row r="5">
@@ -3918,7 +3956,7 @@
         <v>Person</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>qb8PkSObwqh</v>
+        <v>loHxNJH4IvV</v>
       </c>
     </row>
   </sheetData>
@@ -3926,99 +3964,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVID Immunization Metadata Admin</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>AEAQ9LktNze</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>AEFI access</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>J3mFUNTreYY</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>AEFI admin</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>kPBGgIFMNFv</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>COVID Immunization Data Entry</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>2021-01-28</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v>q3Nh5xhJEy2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="str">
-        <v>AEFI data capture</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <v>2021-02-05</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>RWyhKm0cuQ5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <v>COVID Immunization Data Analysis</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <v>2021-01-28</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <v>VLIaHu6ou8E</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4046,7 +3991,7 @@
         <v>who</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-07-07</v>
+        <v/>
       </c>
       <c r="C2" s="4" t="str">
         <v>vUeLeQMSwhN</v>
@@ -4063,9 +4008,9 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="108.7109375" customWidth="1"/>
+    <col min="3" max="3" width="112.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -4089,75 +4034,75 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAX Unique System Identifier (EPI)</v>
+        <v>Address (current)</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a random number (#####)</v>
+        <v xml:space="preserve">Current home address of the patient/case </v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>aJJvi3jiLZr</v>
+        <v>VCtm2pySeEV</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Family name</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v/>
+        <v>area_urban_rural</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Family name of the patient</v>
+        <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-01-22</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>aW66s2QSosT</v>
+        <v>YCqoNJZKvAG</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Mobile phone number</v>
+        <v>COVID - Occupation</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v>occupation</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v/>
+        <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-01-28</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>ciCR6BBvIT4</v>
+        <v>LY2bDXpNvS7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Sex</v>
+        <v>Date of birth (age)</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Sex of Person</v>
+        <v>Date of birth plus calculated age</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-01-22</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>CklPZdOd6H1</v>
+        <v>mAWcalQYYyk</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>National ID</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
@@ -4166,112 +4111,112 @@
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-01-28</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVID - Occupation</v>
+        <v>Family name</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>occupation</v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Client occupation from the pre-defined list</v>
+        <v>Family name of the patient</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>LY2bDXpNvS7</v>
+        <v>aW66s2QSosT</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Date of birth (age)</v>
+        <v>Given name</v>
       </c>
       <c r="B8" s="4" t="str">
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Date of birth plus calculated age</v>
+        <v>The name of the patient or initials</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>TfdH5KvFmMy</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Given name</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>The name of the patient or initials</v>
+        <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>TfdH5KvFmMy</v>
+        <v>ciCR6BBvIT4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Address (current)</v>
+        <v>National ID</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v xml:space="preserve">Current home address of the patient/case </v>
+        <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-01-31</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVAC - Sex</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>area_urban_rural</v>
+        <v>covac_patinfo_sex</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Whether client lives in an urban or rural setting</v>
+        <v>Sex of Person</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>YCqoNJZKvAG</v>
+        <v>CklPZdOd6H1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B12" s="4" t="str">
         <v/>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>KSr2yTdu1AI</v>
       </c>
     </row>
   </sheetData>
@@ -4285,7 +4230,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -4307,13 +4252,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVID-19 Vaccination Registry</v>
+        <v>COVAC - COVID-19 Vaccination Registry</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v>2021-03-02</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4332,7 +4277,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4358,7 +4303,7 @@
         <v>a1jCssI2LkW</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-02-05T12:03:16.542</v>
+        <v/>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4377,7 +4322,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4399,7 +4344,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>COVAX - Vaccine Type</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4355,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>COVAX - Dose Number</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="4">
@@ -4421,7 +4366,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>COVAX- Batch Number</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="5">
@@ -4432,7 +4377,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>COVAX - Dose Expiry Date</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="6">
@@ -4443,7 +4388,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>COVAX - Last Dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="7">
@@ -4454,7 +4399,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>COVAX Suggested date for next dose</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="8">
@@ -4465,7 +4410,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>COVAX - Pregnancy</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="9">
@@ -4476,7 +4421,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>COVAX - Pregnancy gestation</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="10">
@@ -4487,7 +4432,7 @@
         <v>Pre-immunization Questions</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>COVAX Previously infected with COVID</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="11">
@@ -4498,7 +4443,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>COVAX - Underlying condition</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="12">
@@ -4509,7 +4454,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>COVAX - Underlying condition Other</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="13">
@@ -4520,7 +4465,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAX - Immunodeficiency</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="14">
@@ -4531,7 +4476,7 @@
         <v>Pre-immunization Questions</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>COVAX Allergic reaction after first dose</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="15">
@@ -4542,7 +4487,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>COVAX - Cardiovascular Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="16">
@@ -4553,7 +4498,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>COVAX - Chronic Lung Disease</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="17">
@@ -4564,7 +4509,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>COVAX - Diabetes</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="18">
@@ -4575,7 +4520,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>COVAX - Malignancy</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="19">
@@ -4586,7 +4531,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAX - Neurological/Neuromuscular</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="20">
@@ -4597,7 +4542,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>COVAX - Manufacturer</v>
+        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
       </c>
     </row>
     <row r="21">
@@ -4608,7 +4553,7 @@
         <v>Underlying Conditions</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>COVAX - Renal Disease</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="22">
@@ -4619,7 +4564,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>COVAX - Multiple products used - Explain</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="23">
@@ -4630,7 +4575,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>COVAX - Total doses</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="24">
@@ -4641,7 +4586,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>COVAX - AEFIs present</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
   </sheetData>
@@ -4650,15 +4595,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="104.7109375" customWidth="1"/>
+    <col min="2" max="2" width="106.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="85.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
@@ -4693,25 +4638,25 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A2Vtdh2mndr</v>
+        <v>V7SgYaK5lyF</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 2) </v>
+        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 2) </v>
+        <v>Dropout_rate_30_days_D</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4719,25 +4664,25 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>a6kCEcImBlW</v>
+        <v>toRV4TP9yQK</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (60+)</v>
+        <v>COV-C Dropout: Denominator astrazeneca (10 days since enrollment)</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Received last dose (60+)</v>
+        <v>Dropout_rate_10_days_D</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>COV-c (60+)</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4745,25 +4690,25 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>aIIHyDy8AMW</v>
+        <v>ZS6qo9BSrcI</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Number of people receiving a first dose (Male 60+)</v>
+        <v>COV-C Dropout: Denominator biontechpfizer (21 days since enrollment)</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>First dose - Number of people (Male 60+)</v>
+        <v>Dropout_rate_21_days_D</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>COV-1 (Male 60+)</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4771,25 +4716,25 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>ApGCVA6qhKT</v>
+        <v>Gyj2tvi2yKK</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 1)</v>
+        <v>COV-C Dropout: Denominator gamaleya (21 days since enrollment)</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 1)</v>
+        <v>Dropout_rate_21_days_gamaleya</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Number of doses given of COVAX 1</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4797,25 +4742,25 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>AXweWKC4B3L</v>
+        <v>rqwQndYRiXO</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a first dose </v>
+        <v>COV-C Dropout: Denominator moderna (28 days since enrollment)</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>First dose - Number of people</v>
+        <v>Dropout_rate_28_days_D</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>COV-1</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4823,25 +4768,25 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>BEw3zmRnGo4</v>
+        <v>Vw3m2BgMNRD</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
+        <v>COV-C Dropout: Denominator sinopharm (28 days since enrollment)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
+        <v>Dropout_rate_28_days_sinopharm</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>ZZCOV-2 (Female)</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F7" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4849,25 +4794,25 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>BtB8fMhK2gH</v>
+        <v>cq2a28RsAFT</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (0-59)</v>
+        <v>COV-C Dropout: Numerator (30 days since enrollment, no final dose)</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Received last dose (0-59)</v>
+        <v>Dropout_rate_30_days_n</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>COV-c (0-59)</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 30 days since enrollment date this period</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4875,25 +4820,25 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>CI0pKfEiWom</v>
+        <v>dIAw5mn6Wqp</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (60+)</v>
+        <v>COV-C Dropout: Numerator astrazeneca (12 days since enrollment, no final dose)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
+        <v>Dropout_rate_12_days_n</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>COV-2 (60+)</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Crosses 10 days since enrollment date this period</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4901,25 +4846,25 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>cq2a28RsAFT</v>
+        <v>Fj0B6zTlckL</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COV-C Dropout: Numerator (30 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator biontechpfizer (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Dropout_rate_30_days_n</v>
+        <v>Dropout_rate_21_days_n</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F10" s="4" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4927,25 +4872,25 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>dIAw5mn6Wqp</v>
+        <v>QiRbyLpu9Um</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COV-C Dropout: Numerator COVAX1 (10 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator gamaleya (21 days since enrollment, no final dose)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Dropout_rate_10_days_n</v>
+        <v>Dropout_rate_21_days_n_gamaleya</v>
       </c>
       <c r="D11" s="5" t="str">
         <v/>
       </c>
       <c r="E11" s="5" t="str">
-        <v>Crosses 10 days since enrollment date this period</v>
+        <v>Crosses 21 days since enrollment date this period</v>
       </c>
       <c r="F11" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -4953,25 +4898,25 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>DNWp4zqrALv</v>
+        <v>xE7kgNbrb5v</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
+        <v>COV-C Dropout: Numerator moderna (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Received last dose</v>
+        <v>Dropout_rate_28_days_n</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>COV-c</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>EVENT</v>
+        <v>ENROLLMENT</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4979,25 +4924,25 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>Fj0B6zTlckL</v>
+        <v>dm0FUJgNzZE</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COV-C Dropout: Numerator COVAX2 (21 days since enrollment, no final dose)</v>
+        <v>COV-C Dropout: Numerator sinopharm (28 days since enrollment, no final dose)</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Dropout_rate_21_days_n</v>
+        <v>Dropout_rate_28_days_n_sinopharm</v>
       </c>
       <c r="D13" s="5" t="str">
         <v/>
       </c>
       <c r="E13" s="5" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Crosses 28 days since enrollment date this period</v>
       </c>
       <c r="F13" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5005,25 +4950,25 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>FZNIlzPRMmL</v>
+        <v>kNzRGpiCvg4</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
+        <v xml:space="preserve">Doses given </v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Received last dose (Male 0-59)</v>
+        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>COV-c (Male 0-59)</v>
+        <v>COV-n</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
       </c>
       <c r="F14" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5031,25 +4976,25 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>h9G7i6mQKef</v>
+        <v>AXweWKC4B3L</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
+        <v xml:space="preserve">Number of people receiving a first dose </v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2nd, 3rd, booster dose - (Female 60+)</v>
+        <v>First dose - Number of people</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>COV-2 (Female 60+)</v>
+        <v>COV-1</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F15" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5057,16 +5002,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>HCe7qiP0GoC</v>
+        <v>hqm8znlAzkT</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Number of people receiving a first dose (Male)</v>
+        <v>Number of people receiving a first dose  (Male 0-59)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>First dose - Number of people (Male)</v>
+        <v>First dose - Number of people (Male 0-59)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>COV-1 Male</v>
+        <v>COV-1 (Male 0-59)</v>
       </c>
       <c r="E16" s="4" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5075,7 +5020,7 @@
         <v>EVENT</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5083,16 +5028,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>hqm8znlAzkT</v>
+        <v>SqD0kovH0CS</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Number of people receiving a first dose  (Male 0-59)</v>
+        <v>Number of people receiving a first dose (0-59)</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>First dose - Number of people (Male 0-59)</v>
+        <v>First dose - Number of people (0-59)</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>COV-1 (Male 0-59)</v>
+        <v>COV-1 (0-59)</v>
       </c>
       <c r="E17" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5101,7 +5046,7 @@
         <v>EVENT</v>
       </c>
       <c r="G17" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5109,25 +5054,25 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>IXW8ahBF3Pl</v>
+        <v>MUXThnNRCk6</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+        <v>Number of people receiving a first dose (60+)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
+        <v>First dose - Number of people (60+)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>ZZZCOV-2 (Male)</v>
+        <v>COV-1 (60+)</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5135,16 +5080,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>kKr4FSA1O0Z</v>
+        <v>RJ6pdxga9Od</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Number of people receiving a first dose (Female)</v>
+        <v>Number of people receiving a first dose (Female 0-59)</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>First dose - Number of people (Female)</v>
+        <v>First dose - Number of people (Female 0-59)</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>COV-1 Female</v>
+        <v>COV-1 (Female 0-59)</v>
       </c>
       <c r="E19" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5153,7 +5098,7 @@
         <v>EVENT</v>
       </c>
       <c r="G19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5161,25 +5106,25 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>kNzRGpiCvg4</v>
+        <v>x4L0LuEBHhW</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v xml:space="preserve">Doses given - </v>
+        <v>Number of people receiving a first dose (Female 60+)</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
+        <v>First dose - Number of people (Female 60+)</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>COV-n</v>
+        <v>COV-1 (Female 60+)</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Number of doses (first, second, third, or booster dose) of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F20" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5187,25 +5132,25 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>M3jBOeFxHO0</v>
+        <v>kKr4FSA1O0Z</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 1) </v>
+        <v>Number of people receiving a first dose (Female)</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 1) </v>
+        <v>First dose - Number of people (Female)</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v/>
+        <v>COV-1 Female</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Number of doses given of COVAX 1</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F21" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5213,25 +5158,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>MGjwUUNsE60</v>
+        <v>aIIHyDy8AMW</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
+        <v>Number of people receiving a first dose (Male 60+)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
+        <v>First dose - Number of people (Male 60+)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>COV-2 (Male 0-59)</v>
+        <v>COV-1 (Male 60+)</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a first dose of a vaccine product</v>
       </c>
       <c r="F22" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5239,16 +5184,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>MUXThnNRCk6</v>
+        <v>HCe7qiP0GoC</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Number of people receiving a first dose (60+)</v>
+        <v>Number of people receiving a first dose (Male)</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>First dose - Number of people (60+)</v>
+        <v>First dose - Number of people (Male)</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>COV-1 (60+)</v>
+        <v>COV-1 Male</v>
       </c>
       <c r="E23" s="5" t="str">
         <v>Number of people who have had a first dose of a vaccine product</v>
@@ -5257,7 +5202,7 @@
         <v>EVENT</v>
       </c>
       <c r="G23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5265,25 +5210,25 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>P2OSNv6tWuj</v>
+        <v>zr25iLoCE4g</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>ZZZNumber of people receiving a first dose</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>ZZZFirst dose - Number of people</v>
+        <v>2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>ZZZCOV-1</v>
+        <v>COV-2</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5291,25 +5236,25 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>pbiKvW0Xv5Y</v>
+        <v>UzPqw49tyym</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Received last dose (Male)</v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>COV-c Male</v>
+        <v>COV-2 (Male)</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F25" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5317,16 +5262,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>qh0kIjHZbP8</v>
+        <v>zgt8n5PIAAf</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
+        <v>Number of people receiving a second, third or booster dose (0-59)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>2nd, 3rd, booster dose - (Male 60+)</v>
+        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>COV-2 (Male 60+)</v>
+        <v>COV-2 (0-59)</v>
       </c>
       <c r="E26" s="4" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
@@ -5335,7 +5280,7 @@
         <v>EVENT</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5343,25 +5288,25 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>RJ6pdxga9Od</v>
+        <v>CI0pKfEiWom</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 0-59)</v>
+        <v>Number of people receiving a second, third or booster dose (60+)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>First dose - Number of people (Female 0-59)</v>
+        <v>2nd, 3rd, booster dose - Number of people (60+)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>COV-1 (Female 0-59)</v>
+        <v>COV-2 (60+)</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F27" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5369,25 +5314,25 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>rqwQndYRiXO</v>
+        <v>xY4T9hHXNji</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>COV-C Dropout: Denominator COVAX3 (28 days since enrollment)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Dropout_rate_28_days_D</v>
+        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v/>
+        <v>COV-2 (Female 0-59)</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5395,25 +5340,25 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>rtoIINJSfAf</v>
+        <v>h9G7i6mQKef</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 2)</v>
+        <v>Number of people receiving a second, third or booster dose (Female 60+)</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>ZZZVaccine Uptake (COVAX 2)</v>
+        <v>2nd, 3rd, booster dose - (Female 60+)</v>
       </c>
       <c r="D29" s="5" t="str">
-        <v/>
+        <v>COV-2 (Female 60+)</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F29" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5421,25 +5366,25 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>SqD0kovH0CS</v>
+        <v>wkaRLVNi6Fm</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Number of people receiving a first dose (0-59)</v>
+        <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>First dose - Number of people (0-59)</v>
+        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>COV-1 (0-59)</v>
+        <v>COV-2 (Female)</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F30" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5447,25 +5392,25 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>sYIBsws6qUG</v>
+        <v>MGjwUUNsE60</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+        <v>Number of people receiving a second, third or booster dose (Male 0-59)</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+        <v>2nd, 3rd or booster dose -  (Male 0-59)</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v xml:space="preserve">zzzCOV-2 </v>
+        <v>COV-2 (Male 0-59)</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of males who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5473,25 +5418,25 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>T4Fcv5Khfe8</v>
+        <v>qh0kIjHZbP8</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>ZZZVaccine Uptake (COVAX 3)</v>
+        <v>Number of people receiving a second, third or booster dose (Male 60+)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>ZZZVaccine Uptake (COVAX 3)</v>
+        <v>2nd, 3rd, booster dose - (Male 60+)</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v/>
+        <v>COV-2 (Male 60+)</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F32" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5499,25 +5444,25 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>toRV4TP9yQK</v>
+        <v>DNWp4zqrALv</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>COV-C Dropout: Denominator COVAX1 (10 days since enrollment)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Dropout_rate_10_days_D</v>
+        <v>Received last dose</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v/>
+        <v>COV-c</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5525,16 +5470,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>UWXUTVN709H</v>
+        <v>BtB8fMhK2gH</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (0-59)</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Received last dose (Female)</v>
+        <v>Received last dose (0-59)</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>COV-c Female</v>
+        <v>COV-c (0-59)</v>
       </c>
       <c r="E34" s="4" t="str">
         <v>Number of people who have had a last recommended dose of a vaccine product</v>
@@ -5543,7 +5488,7 @@
         <v>EVENT</v>
       </c>
       <c r="G34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5551,25 +5496,25 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>UzbfnPqo0LV</v>
+        <v>a6kCEcImBlW</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>ZZZNumber of doses given</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (60+)</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
+        <v>Received last dose (60+)</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>ZZZCOV-n</v>
+        <v>COV-c (60+)</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F35" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5577,25 +5522,25 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>UzPqw49tyym</v>
+        <v>Zp39TSOR8eW</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
+        <v>Received last dose (Female 0-59)</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>COV-2 (Male)</v>
+        <v>COV-c (Female 0-59)</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F36" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5603,25 +5548,25 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>V7SgYaK5lyF</v>
+        <v>XFUvVgqPukT</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>COV-C Dropout: Denominator (30 days since enrollment)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Dropout_rate_30_days_D</v>
+        <v>Received last dose (Female 60+)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v/>
+        <v>COV-c (Female 60+)</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Crosses 30 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5629,25 +5574,25 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>wkaRLVNi6Fm</v>
+        <v>UWXUTVN709H</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female)  JM</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Female)</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of females JM</v>
+        <v>Received last dose (Female)</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>COV-2 (Female)-JM</v>
+        <v>COV-c Female</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F38" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5655,25 +5600,25 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>x4L0LuEBHhW</v>
+        <v>FZNIlzPRMmL</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Number of people receiving a first dose (Female 60+)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 0-59)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>First dose - Number of people (Female 60+)</v>
+        <v>Received last dose (Male 0-59)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>COV-1 (Female 60+)</v>
+        <v>COV-c (Male 0-59)</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Number of people who have had a first dose of a vaccine product</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F39" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5681,25 +5626,25 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>xE7kgNbrb5v</v>
+        <v>zovL7DKBRuK</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>COV-C Dropout: Numerator COVAX3 (28 days since enrollment, no final dose)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Dropout_rate_28_days_n</v>
+        <v>Received last dose (Male 60+)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v/>
+        <v>COV-c (Male 60+)</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Crosses 28 days since enrollment date this period</v>
+        <v>Number of people who have had a last recommended dose of a vaccine product</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>ENROLLMENT</v>
+        <v>EVENT</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5707,16 +5652,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>XFUvVgqPukT</v>
+        <v>pbiKvW0Xv5Y</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 60+)</v>
+        <v>Number of people who received the last recommended dose for the respective vaccine product (Male)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Received last dose (Female 60+)</v>
+        <v>Received last dose (Male)</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>COV-c (Female 60+)</v>
+        <v>COV-c Male</v>
       </c>
       <c r="E41" s="5" t="str">
         <v>Number of people who have had a last recommended dose of a vaccine product</v>
@@ -5725,7 +5670,7 @@
         <v>EVENT</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5733,25 +5678,25 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>xY4T9hHXNji</v>
+        <v>Zn0UuSRYyJw</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (Female 0-59)</v>
+        <v>Underlying conditions - People with</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>2nd, 3rd or booster dose -  (Female 0-59)</v>
+        <v>Underlying conditions - People with</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>COV-2 (Female 0-59)</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Number of females who have had a second, third, or booster dose of a vaccine product</v>
+        <v>COunt of people who have one or more underlying conditions</v>
       </c>
       <c r="F42" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5759,25 +5704,25 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>z7eWopCMD1k</v>
+        <v>M3jBOeFxHO0</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 3) </v>
+        <v>Vaccine Uptake AstraZeneca</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v xml:space="preserve">Vaccine Uptake (COVAX 3) </v>
+        <v xml:space="preserve">Vaccine Uptake (AstraZeneca) </v>
       </c>
       <c r="D43" s="5" t="str">
         <v/>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Number of people who have had any dose of a vaccine product</v>
+        <v>Number of doses given of AstraZeneca</v>
       </c>
       <c r="F43" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G43" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5785,25 +5730,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>zgt8n5PIAAf</v>
+        <v>A2Vtdh2mndr</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Number of people receiving a second, third or booster dose (0-59)</v>
+        <v>Vaccine Uptake BioNtech</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>2nd, 3rd or booster dose - Number of people (0-59)</v>
+        <v xml:space="preserve">Vaccine Uptake (BioNTech/Pfizer) </v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>COV-2 (0-59)</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="str">
-        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F44" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5811,25 +5756,25 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>Zn0UuSRYyJw</v>
+        <v>ZQUxbCYqEOn</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Underlying conditions - People with</v>
+        <v>Vaccine Uptake Gamaleya</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Underlying conditions - People with</v>
+        <v xml:space="preserve">Vaccine Uptake (Gamaleya) </v>
       </c>
       <c r="D45" s="5" t="str">
         <v/>
       </c>
       <c r="E45" s="5" t="str">
-        <v>COunt of people who have one or more underlying conditions</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F45" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5837,25 +5782,25 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>zovL7DKBRuK</v>
+        <v>z7eWopCMD1k</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Male 60+)</v>
+        <v>Vaccine Uptake Moderna</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Received last dose (Male 60+)</v>
+        <v xml:space="preserve">Vaccine Uptake (Moderna) </v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>COV-c (Male 60+)</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F46" s="4" t="str">
         <v>EVENT</v>
       </c>
       <c r="G46" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5863,25 +5808,25 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>Zp39TSOR8eW</v>
+        <v>MzXxrDWcNjW</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>Number of people who received the last recommended dose for the respective vaccine product (Female 0-59)</v>
+        <v>Vaccine Uptake Sinopharm</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Received last dose (Female 0-59)</v>
+        <v xml:space="preserve">Vaccine Uptake (Sinopharm ) </v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>COV-c (Female 0-59)</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Number of people who have had a last recommended dose of a vaccine product</v>
+        <v>Number of people who have had any dose of a vaccine product</v>
       </c>
       <c r="F47" s="5" t="str">
         <v>EVENT</v>
       </c>
       <c r="G47" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -5889,16 +5834,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>zr25iLoCE4g</v>
+        <v>UzbfnPqo0LV</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+        <v>ZZZNumber of doses given</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>2nd, 3rd, booster dose - Number of people</v>
+        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>COV-2</v>
+        <v>ZZZCOV-n</v>
       </c>
       <c r="E48" s="4" t="str">
         <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
@@ -5907,7 +5852,7 @@
         <v>EVENT</v>
       </c>
       <c r="G48" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5915,27 +5860,183 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>ZS6qo9BSrcI</v>
+        <v>BEw3zmRnGo4</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>COV-C Dropout: Denominator COVAX2 (21 days since enrollment)</v>
+        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Dropout_rate_21_days_D</v>
+        <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v/>
+        <v>ZZCOV-2 (Female)</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>Crosses 21 days since enrollment date this period</v>
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
       </c>
       <c r="F49" s="5" t="str">
         <v>ENROLLMENT</v>
       </c>
       <c r="G49" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="H49" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>IXW8ahBF3Pl</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>ZZZCOV-2 (Male)</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <v>ENROLLMENT</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H50" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>P2OSNv6tWuj</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>ZZZNumber of people receiving a first dose</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v>ZZZFirst dose - Number of people</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v>ZZZCOV-1</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>Number of people who have had a first dose of a vaccine product</v>
+      </c>
+      <c r="F51" s="5" t="str">
+        <v>ENROLLMENT</v>
+      </c>
+      <c r="G51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H51" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>sYIBsws6qUG</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v xml:space="preserve">zzzCOV-2 </v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>Number of people who have had a second, third, or booster dose of a vaccine product</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <v>ENROLLMENT</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H52" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>ApGCVA6qhKT</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v>ZZZVaccine Uptake (AstraZeneca)</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>Number of doses given of AstraZeneca</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H53" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>rtoIINJSfAf</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>ZZZVaccine Uptake (BioNTech/Pfizer)</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>Number of people who have had any dose of a vaccine product</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H54" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>T4Fcv5Khfe8</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>ZZZVaccine Uptake (Moderna)</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>ZZZVaccine Uptake (Moderna)</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>Number of people who have had any dose of a vaccine product</v>
+      </c>
+      <c r="F55" s="5" t="str">
+        <v>EVENT</v>
+      </c>
+      <c r="G55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="H55" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>
@@ -5945,14 +6046,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="107.7109375" customWidth="1"/>
-    <col min="3" max="3" width="90.7109375" customWidth="1"/>
+    <col min="2" max="2" width="99.7109375" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -5976,16 +6077,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>A6Oy09dbQwn</v>
+        <v>QWOOvnYfKbN</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>if there was an allergic reaction after the first dose, fill out an AEFI stage</v>
+        <v>Assign a suggested date for next dose astrazeneca</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -5993,16 +6094,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>AmgPexdbztQ</v>
+        <v>ZT3tLrXXadf</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>If patient has had underlying diseases, transfer that value to following stage</v>
+        <v>Assign a suggested date for next dose biontechpfizer</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E3" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6010,16 +6111,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>biYqhZM5HXe</v>
+        <v>rIOcajqykjp</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Show warning if the client is a health worker</v>
+        <v>Assign a suggested date for next dose gamaleya</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>If the client is a health worker, show a warning in the top bar</v>
+        <v>Assigns a next suggested dose date 21 days after this dose (guideline says 21-28 days)</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E4" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6027,16 +6128,16 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>ct6P0r3GQbY</v>
+        <v>Rhh99IrHe3P</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>AEFIs previously present show in indicator box</v>
+        <v>Assign a suggested date for next dose moderna</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>2021-02-01</v>
+        <v/>
       </c>
       <c r="E5" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6044,16 +6145,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>e0WJRMhSrZy</v>
+        <v>VJTg5eGf3Je</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>If Age is under 18, then warn that COVAX 1 is recommended for ages 18 and up</v>
+        <v>Assign a suggested date for next dose sinopharm</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v/>
+        <v>Assigns a next suggested dose date 21 days after this dose</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E6" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6061,16 +6162,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>fJLXDY8WJIb</v>
+        <v>X7tSyOIdusk</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Hide Manufacturers COVAX1</v>
+        <v>Assign dose number to astrazeneca</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>If COVAX1 is selected, hide manufacturers who do not produce covax1</v>
+        <v>If astrazeneca is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E7" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6078,16 +6179,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>O2NnmPrpL7s</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>Assign dose number to biontechpfizer</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v/>
+        <v>If biontechpfizer is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E8" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6095,16 +6196,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>VTIzJo0OQ7I</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>Assign dose number to gamaleya</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E9" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6112,16 +6213,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>HDGNEGd5wnd</v>
+        <v>pN5K5h6wSo4</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Show warning: If previous dose was first, then this shoul be second</v>
+        <v>Assign dose number to moderna</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v/>
+        <v>If moderna is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E10" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6129,16 +6230,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>HdOtRsvVzgY</v>
+        <v>Wcnh9W2Pfz5</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Hide Trimester if nor pregnant</v>
+        <v>Assign dose number to sinopharm</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v/>
+        <v>If sinopharm is selected, assign 2 as max doses and hide options for 3 doses</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E11" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6146,16 +6247,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>hdPflHqZKO3</v>
+        <v>oCzO3wOH9Wa</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Show warning: If previous dose was second then this should be the third dose, or a booster dose</v>
+        <v>Assign name to BiONtech/Pfizer/biontechpfizer</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v/>
+        <v>If BioNTech/Pfizer is selected, assign value Comirnaty,Tozinameran to vaccine name</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E12" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6163,16 +6264,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>I0FZ4YQgxfD</v>
+        <v>Jvy8jLRKux9</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Hide underlying conditions if none</v>
+        <v>Assign name to Gamaleya/ gamaleya</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v/>
+        <v>If Gamaleya/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6180,16 +6281,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>jJGIDJ4HYvE</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>Assign name to Moderna/ moderna</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v/>
+        <v>If moderna is selected, assign value to vaccine name "mRNA-1273"</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E14" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6197,16 +6298,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>zgex5murOHT</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>Assign name to Sinopharm/ sinopharm</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v/>
+        <v>If Sinopharm/gamaleya is selected, assign value to vaccine name "Sputnik V"</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E15" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6214,16 +6315,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>j16AULHWXur</v>
+        <v>fJLXDY8WJIb</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>Assign name/Hide options to AstraZeneca/ astrazeneca</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v/>
+        <v>If Astra Zeneca (astrazeneca) is selected, assign value AZD1222</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E16" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6231,16 +6332,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>jGPxY0apAr2</v>
+        <v>oPUB5us9T8e</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>AEFIs present show warning</v>
+        <v xml:space="preserve">Calculate age </v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
       </c>
       <c r="D17" s="5" t="str">
-        <v>2021-02-01</v>
+        <v/>
       </c>
       <c r="E17" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6248,16 +6349,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>jJGIDJ4HYvE</v>
+        <v>zLLHG561wsq</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Hide Manufacturers COVAX3</v>
+        <v>Hide anaphylaxis DE if first dose</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>If COVAX3 is selected, hide manufacturers who do not produce covax3</v>
+        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E18" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6265,16 +6366,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>jNtY9t6b120</v>
+        <v>HDGNEGd5wnd</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>Hide first dose option if previous was first dose</v>
       </c>
       <c r="C19" s="5" t="str">
         <v/>
       </c>
       <c r="D19" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E19" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6282,16 +6383,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>srC0NIzM3Ou</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>Hide pregnancy if not a woman</v>
       </c>
       <c r="C20" s="4" t="str">
         <v/>
       </c>
       <c r="D20" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E20" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6299,16 +6400,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>HdOtRsvVzgY</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>Hide Trimester if nor pregnant</v>
       </c>
       <c r="C21" s="5" t="str">
         <v/>
       </c>
       <c r="D21" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E21" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6316,16 +6417,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>l8opvp32VAd</v>
+        <v>I0FZ4YQgxfD</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>Hide underlying conditions if none</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
       </c>
       <c r="D22" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E22" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6333,16 +6434,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
       </c>
       <c r="D23" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6350,16 +6451,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>e0WJRMhSrZy</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E24" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6367,16 +6468,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>O2NnmPrpL7s</v>
+        <v>xydE4Vcj6xU</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>Assign dose number to COVAX2</v>
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>If COVAX2 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D25" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6384,16 +6485,16 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>oCzO3wOH9Wa</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Hide Manufacturers COVAX2</v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>If COVAX1 is selected, hide manufacturers who do not produce covax2</v>
+        <v/>
       </c>
       <c r="D26" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E26" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6401,16 +6502,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>xeInMQrA5Mo</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
       </c>
       <c r="D27" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E27" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6418,16 +6519,16 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>oPUB5us9T8e</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
       </c>
       <c r="D28" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E28" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6435,16 +6536,16 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>ParDbFN1amU</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
       </c>
       <c r="D29" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E29" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6452,16 +6553,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>pN5K5h6wSo4</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Assign dose number to COVAX3</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>If COVAX3 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D30" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E30" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6469,16 +6570,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>ppbeGorruVj</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>If Age is under 18, then warn that COVAX 3 is recommended for ages 18 and up</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
       </c>
       <c r="D31" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E31" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6486,16 +6587,16 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C32" s="4" t="str">
         <v/>
       </c>
       <c r="D32" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E32" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6503,16 +6604,16 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>qLCtAeQQOP3</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v xml:space="preserve">Show warning: If previous dose was second and the vaccine was COVAX 1 then there should be no more doses </v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
       </c>
       <c r="D33" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E33" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6520,16 +6621,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
       </c>
       <c r="D34" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E34" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6537,16 +6638,16 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>QWOOvnYfKbN</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 1</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
       </c>
       <c r="D35" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E35" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6554,16 +6655,16 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
       </c>
       <c r="D36" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E36" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6571,16 +6672,16 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Rhh99IrHe3P</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 3</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Assigns a next suggested dose date 28 days after this dose, based on CDC recommendations</v>
+        <v/>
       </c>
       <c r="D37" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E37" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6588,16 +6689,16 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
       </c>
       <c r="D38" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E38" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6605,16 +6706,16 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>Last dose - complete programme</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
       </c>
       <c r="D39" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E39" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6622,16 +6723,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>srC0NIzM3Ou</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Hide pregnancy if not a woman</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
       </c>
       <c r="D40" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E40" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6639,16 +6740,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>If Age is under 16, then warn that COVAX 2 is recommended for ages 16 and up</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
       </c>
       <c r="D41" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E41" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6656,16 +6757,16 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
       </c>
       <c r="D42" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E42" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6673,16 +6774,16 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
       </c>
       <c r="D43" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E43" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6690,16 +6791,16 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6707,16 +6808,16 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>AmgPexdbztQ</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>Send notification if overdue</v>
+        <v>If patient has had underlying diseases, transfer that value to following stage</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v/>
+        <v>Rule transfers date of remission and if person has previously had covid</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E45" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6724,16 +6825,16 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>X7tSyOIdusk</v>
+        <v>XTLv9YqOtNX</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Assign dose number to COVAX1</v>
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>If COVAX1 is selected, assign 2 as max doses and hide options for 3 doses</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6741,16 +6842,16 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
       </c>
       <c r="D47" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E47" s="5" t="str">
         <v>yDuAzyqYABS</v>
@@ -6758,16 +6859,16 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>zLLHG561wsq</v>
+        <v>A6Oy09dbQwn</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Hide anaphylaxis DE if first dose</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Hides a DE where one is asked about allergic reactions to previopus dose</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E48" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -6775,18 +6876,120 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>ZT3tLrXXadf</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>Assign a suggested date for next dose COVAX 2</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>2021-02-05</v>
+        <v/>
       </c>
       <c r="E49" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="str">
+        <v>SkBUqyO9zG0</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>Last dose - complete programme</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="str">
+        <v>W0YQaz1qRJb</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>Send notification if overdue</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D51" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="str">
+        <v>nU9WWRKt7PL</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>Show vaccine type from previous vaccination event</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="str">
+        <v>LO6XtDyCbya</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D53" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="str">
+        <v>biYqhZM5HXe</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>Show warning if the client is a health worker</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>If the client is a health worker, show a warning in the top bar</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="str">
+        <v>hdPflHqZKO3</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>Show warning: If first dose, then hide "last dose" DE</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -448,7 +448,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,7 +480,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.1.0</v>
+        <v>COVAC</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.35.1-bca7d7b</v>
+        <v>TRACKER</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>20210303T015519</v>
+        <v>V1.1.2</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +504,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_V1.1.0_DHIS2.35.1-bca7d7b_20210303T015519</v>
+        <v>COVAC_TRACKER_COVAC_TRACKER_V1.1.2_DHIS2.35.1-bca7d7b_20210318T015424</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +581,10 @@
         <v>s2slttllN6D</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Given name</v>
+        <v>sB1IHYu2xQT</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>TfdH5KvFmMy</v>
+        <v>sB1IHYu2xQT</v>
       </c>
       <c r="D4" s="4" t="str">
         <v/>
@@ -598,10 +598,10 @@
         <v>CbvQnJ9vOOd</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Family name</v>
+        <v>ENRjVGxVL6l</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>aW66s2QSosT</v>
+        <v>ENRjVGxVL6l</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
@@ -615,10 +615,10 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Sex</v>
+        <v>oindugucx72</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>CklPZdOd6H1</v>
+        <v>oindugucx72</v>
       </c>
       <c r="D6" s="4" t="str">
         <v/>
@@ -646,13 +646,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>zTWSj3Lg5KP</v>
+        <v>dSiYRbN6NKt</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Date of birth (age)</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
       <c r="D8" s="4" t="str">
         <v/>
@@ -669,7 +669,7 @@
         <v>Mobile phone number</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>ciCR6BBvIT4</v>
+        <v>fctSQp5nAYl</v>
       </c>
       <c r="D9" s="5" t="str">
         <v/>
@@ -683,10 +683,10 @@
         <v>fWwyEWSOqKq</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Address (current)</v>
+        <v>Xhdn49gUd52</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>Xhdn49gUd52</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -780,7 +780,7 @@
         <v>COVAC - AEFIs present</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>AEFIs_present</v>
+        <v>COVAC_AEFIs_present</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>Are there any adverse events present after receiving the immunization?</v>
@@ -1197,7 +1197,7 @@
         <v>totalDoses</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v xml:space="preserve">Total doses required for this vaccine product </v>
+        <v>Total doses required for this vaccine product</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
       <c r="C23" s="5" t="str">
         <v>COVAC_vaccine_manufacturer</v>
@@ -1337,7 +1337,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="4">
@@ -1345,7 +1345,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="5">
@@ -1353,7 +1353,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="6">
@@ -1361,7 +1361,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC- Batch Number</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="8">
@@ -1377,7 +1377,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1385,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1393,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="11">
@@ -1401,7 +1401,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="12">
@@ -1409,7 +1409,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1417,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1425,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="15">
@@ -1433,7 +1433,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="16">
@@ -1441,7 +1441,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="17">
@@ -1449,7 +1449,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="18">
@@ -1457,7 +1457,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="19">
@@ -1465,7 +1465,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="21">
@@ -1481,7 +1481,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="23">
@@ -1497,7 +1497,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="24">
@@ -1758,7 +1758,7 @@
         <v>kgDmgTYZICP</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
+        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (29-40 weeks)</v>
       </c>
     </row>
     <row r="6">
@@ -1805,13 +1805,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Sex</v>
+        <v>Sex</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>Female; Male</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Yes/No/Unknown</v>
+        <v>Yes/No/Unknown</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>Yes; No; Unknown</v>
@@ -1956,7 +1956,7 @@
         <v>Q3obJT1MXov</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>3rd Trimester (29-40 weeks)</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>3trimester</v>
@@ -2089,19 +2089,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>FKKrOBBFgs1</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Female</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>FEMALE</v>
+        <v>Female</v>
       </c>
       <c r="D15" s="5" t="str">
         <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="16">
@@ -2191,19 +2191,19 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>Ii4IxCLWEFn</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Male</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>MALE</v>
+        <v>Male</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="22">
@@ -2242,19 +2242,19 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>PLlPgcfbL1D</v>
+        <v>R98tI2c6rF5</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>No</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>NO</v>
+        <v>No</v>
       </c>
       <c r="D24" s="4" t="str">
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
     <row r="25">
@@ -2514,19 +2514,19 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>pqxvAQU1z9W</v>
       </c>
       <c r="B40" s="4" t="str">
         <v>Unknown</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>UNKNOWN</v>
+        <v>Unknown</v>
       </c>
       <c r="D40" s="4" t="str">
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
     <row r="41">
@@ -2548,19 +2548,19 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>x9yVKkv9koc</v>
       </c>
       <c r="B42" s="4" t="str">
         <v>Yes</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>YES</v>
+        <v>Yes</v>
       </c>
       <c r="D42" s="4" t="str">
         <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
   </sheetData>
@@ -3454,21 +3454,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC - At least one underlying condition</v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>TWG0cq8P539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC - Complete vaccination uptake</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
@@ -3477,26 +3477,26 @@
         <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>wHd33PaphEC</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>TEST TEST</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
@@ -3505,7 +3505,7 @@
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>vFkbMQiABfj</v>
       </c>
     </row>
     <row r="6">
@@ -3524,7 +3524,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
@@ -3533,26 +3533,26 @@
         <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>wHd33PaphEC</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v/>
       </c>
       <c r="C8" s="4" t="str">
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>TWG0cq8P539</v>
+        <v>KV7fffdXnlY</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Underlying conditions</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
@@ -3561,12 +3561,12 @@
         <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
@@ -3575,12 +3575,12 @@
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAC - Vaccine uptake by sex</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B11" s="5" t="str">
         <v/>
@@ -3589,21 +3589,21 @@
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAC - Vaccine uptake, last month</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v/>
+        <v>TEST TEST</v>
       </c>
       <c r="C12" s="4" t="str">
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>vmNUVdhuxN7</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +3910,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3949,14 +3949,6 @@
       </c>
       <c r="B4" s="4" t="str">
         <v>qb8PkSObwqh</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>Person</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>loHxNJH4IvV</v>
       </c>
     </row>
   </sheetData>
@@ -4003,14 +3995,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="112.7109375" customWidth="1"/>
+    <col min="3" max="3" width="174.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -4034,75 +4026,75 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Address (current)</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v/>
+        <v>area_urban_rural</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">Current home address of the patient/case </v>
+        <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>YCqoNJZKvAG</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVID - Occupation</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>area_urban_rural</v>
+        <v>occupation</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Whether client lives in an urban or rural setting</v>
+        <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D3" s="5" t="str">
         <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>YCqoNJZKvAG</v>
+        <v>LY2bDXpNvS7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVID - Occupation</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>occupation</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Client occupation from the pre-defined list</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>LY2bDXpNvS7</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Date of birth (age)</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Date of birth plus calculated age</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>fctSQp5nAYl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>National ID</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
@@ -4114,108 +4106,23 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Family name</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Family name of the patient</v>
+        <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>aW66s2QSosT</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="str">
-        <v>Given name</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>The name of the patient or initials</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E8" s="4" t="str">
-        <v>TfdH5KvFmMy</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <v>Mobile phone number</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E9" s="5" t="str">
-        <v>ciCR6BBvIT4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="str">
-        <v>National ID</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E10" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="str">
-        <v>COVAC - Sex</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <v>covac_patinfo_sex</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <v>Sex of Person</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E11" s="5" t="str">
-        <v>CklPZdOd6H1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="str">
-        <v>Unique System Identifier (EPI)</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E12" s="4" t="str">
         <v>KSr2yTdu1AI</v>
       </c>
     </row>
@@ -4258,7 +4165,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-02</v>
+        <v>2021-03-16</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4297,7 +4204,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>a1jCssI2LkW</v>
@@ -4338,7 +4245,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Vaccination information</v>
@@ -4349,7 +4256,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>Vaccination information</v>
@@ -4360,7 +4267,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>Vaccination information</v>
@@ -4371,7 +4278,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B5" s="5" t="str">
         <v>Vaccination information</v>
@@ -4382,7 +4289,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B6" s="4" t="str">
         <v>Vaccination information</v>
@@ -4393,7 +4300,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B7" s="5" t="str">
         <v>Vaccination information</v>
@@ -4404,7 +4311,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4415,7 +4322,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B9" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4426,7 +4333,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>Pre-immunization Questions</v>
@@ -4437,7 +4344,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B11" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4448,7 +4355,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B12" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4459,7 +4366,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B13" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4470,7 +4377,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>Pre-immunization Questions</v>
@@ -4481,7 +4388,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4492,7 +4399,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B16" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4503,7 +4410,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B17" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4514,7 +4421,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B18" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4525,7 +4432,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4536,18 +4443,18 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>Vaccination information</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4558,7 +4465,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B22" s="4" t="str">
         <v>Vaccination information</v>
@@ -4569,7 +4476,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B23" s="5" t="str">
         <v>Vaccination information</v>
@@ -4580,7 +4487,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>Vaccination information</v>
@@ -4953,7 +4860,7 @@
         <v>kNzRGpiCvg4</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v xml:space="preserve">Doses given </v>
+        <v>Doses given</v>
       </c>
       <c r="C14" s="4" t="str">
         <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
@@ -4979,7 +4886,7 @@
         <v>AXweWKC4B3L</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v xml:space="preserve">Number of people receiving a first dose </v>
+        <v>Number of people receiving a first dose</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>First dose - Number of people</v>
@@ -5213,7 +5120,7 @@
         <v>zr25iLoCE4g</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+        <v>Number of people receiving a second, third or booster dose</v>
       </c>
       <c r="C24" s="4" t="str">
         <v>2nd, 3rd, booster dose - Number of people</v>
@@ -5242,7 +5149,7 @@
         <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
       </c>
       <c r="C25" s="5" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
+        <v>2nd, 3rd, booster dose - Number of males</v>
       </c>
       <c r="D25" s="5" t="str">
         <v>COV-2 (Male)</v>
@@ -5372,7 +5279,7 @@
         <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
       </c>
       <c r="C30" s="4" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
+        <v>2nd, 3rd, booster dose - Number of females</v>
       </c>
       <c r="D30" s="4" t="str">
         <v>COV-2 (Female)</v>
@@ -5840,7 +5747,7 @@
         <v>ZZZNumber of doses given</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
+        <v>ZZZ1st, 2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D48" s="4" t="str">
         <v>ZZZCOV-n</v>
@@ -5863,7 +5770,7 @@
         <v>BEw3zmRnGo4</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
+        <v>ZZZNumber of people (Female) receiving a second, third or booster dose</v>
       </c>
       <c r="C49" s="5" t="str">
         <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
@@ -5889,7 +5796,7 @@
         <v>IXW8ahBF3Pl</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+        <v>ZZZNumber of people (Male) receiving a second, third or booster dose</v>
       </c>
       <c r="C50" s="4" t="str">
         <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
@@ -5941,10 +5848,10 @@
         <v>sYIBsws6qUG</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+        <v>zzzNumber of people receiving a second, third or booster dose</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+        <v>zzz2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D52" s="4" t="str">
         <v xml:space="preserve">zzzCOV-2 </v>
@@ -6046,7 +5953,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -6335,7 +6242,7 @@
         <v>oPUB5us9T8e</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>Calculate age</v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
@@ -6400,13 +6307,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>HdOtRsvVzgY</v>
+        <v>R1bzqObecyQ</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Hide Trimester if nor pregnant</v>
+        <v>Hide Suggested date for next dose if vaccine product has no more doses</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v/>
+        <v>All vaccine types with two doses, after they receive one does, the "next dose date" will be hidden.</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
@@ -6417,10 +6324,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>I0FZ4YQgxfD</v>
+        <v>HdOtRsvVzgY</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Hide underlying conditions if none</v>
+        <v>Hide Trimester if nor pregnant</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
@@ -6434,10 +6341,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>I0FZ4YQgxfD</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
+        <v>Hide underlying conditions if none</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
@@ -6451,10 +6358,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>e0WJRMhSrZy</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
@@ -6468,10 +6375,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>xydE4Vcj6xU</v>
+        <v>e0WJRMhSrZy</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C25" s="5" t="str">
         <v/>
@@ -6485,10 +6392,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>ppbeGorruVj</v>
+        <v>xydE4Vcj6xU</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
       </c>
       <c r="C26" s="4" t="str">
         <v/>
@@ -6502,10 +6409,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>xeInMQrA5Mo</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
@@ -6519,10 +6426,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>jNtY9t6b120</v>
+        <v>xeInMQrA5Mo</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
@@ -6536,10 +6443,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>j16AULHWXur</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
@@ -6553,10 +6460,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C30" s="4" t="str">
         <v/>
@@ -6570,10 +6477,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
@@ -6587,10 +6494,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C32" s="4" t="str">
         <v/>
@@ -6604,10 +6511,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
@@ -6621,10 +6528,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
@@ -6638,10 +6545,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
@@ -6655,10 +6562,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
@@ -6672,10 +6579,10 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C37" s="5" t="str">
         <v/>
@@ -6689,10 +6596,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
@@ -6706,10 +6613,10 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
@@ -6723,10 +6630,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
@@ -6740,10 +6647,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>ParDbFN1amU</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
@@ -6757,10 +6664,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>l8opvp32VAd</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
@@ -6774,10 +6681,10 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
@@ -6791,13 +6698,13 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D44" s="4" t="str">
         <v/>
@@ -6808,10 +6715,10 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>AmgPexdbztQ</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>If patient has had underlying diseases, transfer that value to following stage</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C45" s="5" t="str">
         <v>Rule transfers date of remission and if person has previously had covid</v>
@@ -6825,10 +6732,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>AmgPexdbztQ</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If patient has had underlying diseases, transfer that value to following stage</v>
       </c>
       <c r="C46" s="4" t="str">
         <v/>
@@ -6842,10 +6749,10 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>XTLv9YqOtNX</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
@@ -6859,10 +6766,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>A6Oy09dbQwn</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C48" s="4" t="str">
         <v/>
@@ -6876,13 +6783,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>PJjKiFrvfuN</v>
+        <v>A6Oy09dbQwn</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
+        <v/>
       </c>
       <c r="D49" s="5" t="str">
         <v/>
@@ -6893,13 +6800,13 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Last dose - complete programme</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D50" s="4" t="str">
         <v/>
@@ -6910,10 +6817,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>SkBUqyO9zG0</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Send notification if overdue</v>
+        <v>Last dose - complete programme</v>
       </c>
       <c r="C51" s="5" t="str">
         <v/>
@@ -6927,10 +6834,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>W0YQaz1qRJb</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>Send notification if overdue</v>
       </c>
       <c r="C52" s="4" t="str">
         <v/>
@@ -6944,10 +6851,10 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>nU9WWRKt7PL</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>Show vaccine type from previous vaccination event</v>
       </c>
       <c r="C53" s="5" t="str">
         <v/>
@@ -6961,13 +6868,13 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>biYqhZM5HXe</v>
+        <v>LO6XtDyCbya</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Show warning if the client is a health worker</v>
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>If the client is a health worker, show a warning in the top bar</v>
+        <v/>
       </c>
       <c r="D54" s="4" t="str">
         <v/>
@@ -6978,18 +6885,35 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
+        <v>biYqhZM5HXe</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>Show warning if the client is a health worker</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>If the client is a health worker, show a warning in the top bar</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
         <v>hdPflHqZKO3</v>
       </c>
-      <c r="B55" s="5" t="str">
+      <c r="B56" s="4" t="str">
         <v>Show warning: If first dose, then hide "last dose" DE</v>
       </c>
-      <c r="C55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E55" s="5" t="str">
+      <c r="C56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -448,7 +448,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,7 +480,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.1.0</v>
+        <v>COVAC</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.34.3-80c86cc</v>
+        <v>TRACKER</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>20210303T014351</v>
+        <v>V1.1.2</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +504,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_V1.1.0_DHIS2.34.3-80c86cc_20210303T014351</v>
+        <v>COVAC_TRACKER_COVAC_TRACKER_V1.1.2_DHIS2.34.3-80c86cc_20210318T014413</v>
       </c>
     </row>
   </sheetData>
@@ -581,10 +581,10 @@
         <v>s2slttllN6D</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Given name</v>
+        <v>sB1IHYu2xQT</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>TfdH5KvFmMy</v>
+        <v>sB1IHYu2xQT</v>
       </c>
       <c r="D4" s="4" t="str">
         <v/>
@@ -598,10 +598,10 @@
         <v>CbvQnJ9vOOd</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Family name</v>
+        <v>ENRjVGxVL6l</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>aW66s2QSosT</v>
+        <v>ENRjVGxVL6l</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
@@ -615,10 +615,10 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Sex</v>
+        <v>oindugucx72</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>CklPZdOd6H1</v>
+        <v>oindugucx72</v>
       </c>
       <c r="D6" s="4" t="str">
         <v/>
@@ -646,13 +646,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>zTWSj3Lg5KP</v>
+        <v>dSiYRbN6NKt</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Date of birth (age)</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
       <c r="D8" s="4" t="str">
         <v/>
@@ -669,7 +669,7 @@
         <v>Mobile phone number</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>ciCR6BBvIT4</v>
+        <v>fctSQp5nAYl</v>
       </c>
       <c r="D9" s="5" t="str">
         <v/>
@@ -683,10 +683,10 @@
         <v>fWwyEWSOqKq</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Address (current)</v>
+        <v>Xhdn49gUd52</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>Xhdn49gUd52</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -780,7 +780,7 @@
         <v>COVAC - AEFIs present</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>AEFIs_present</v>
+        <v>COVAC_AEFIs_present</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>Are there any adverse events present after receiving the immunization?</v>
@@ -1197,7 +1197,7 @@
         <v>totalDoses</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v xml:space="preserve">Total doses required for this vaccine product </v>
+        <v>Total doses required for this vaccine product</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
       <c r="C23" s="5" t="str">
         <v>COVAC_vaccine_manufacturer</v>
@@ -1329,7 +1329,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="3">
@@ -1337,7 +1337,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="4">
@@ -1345,7 +1345,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="5">
@@ -1353,7 +1353,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="6">
@@ -1361,7 +1361,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="8">
@@ -1377,7 +1377,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1385,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC- Batch Number</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1393,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="11">
@@ -1401,7 +1401,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="12">
@@ -1409,7 +1409,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1417,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC - Dose Expiry Date</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1425,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="15">
@@ -1433,7 +1433,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="16">
@@ -1441,7 +1441,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="17">
@@ -1449,7 +1449,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="18">
@@ -1457,7 +1457,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="19">
@@ -1465,7 +1465,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="21">
@@ -1481,7 +1481,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="23">
@@ -1497,7 +1497,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="24">
@@ -1505,7 +1505,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1758,7 @@
         <v>kgDmgTYZICP</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
+        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (29-40 weeks)</v>
       </c>
     </row>
     <row r="6">
@@ -1805,13 +1805,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Sex</v>
+        <v>Sex</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>Female; Male</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Yes/No/Unknown</v>
+        <v>Yes/No/Unknown</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>Yes; No; Unknown</v>
@@ -1956,7 +1956,7 @@
         <v>Q3obJT1MXov</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>3rd Trimester (29-40 weeks)</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>3trimester</v>
@@ -2089,19 +2089,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>FKKrOBBFgs1</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Female</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>FEMALE</v>
+        <v>Female</v>
       </c>
       <c r="D15" s="5" t="str">
         <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="16">
@@ -2191,19 +2191,19 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>Ii4IxCLWEFn</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Male</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>MALE</v>
+        <v>Male</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="22">
@@ -2242,19 +2242,19 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>PLlPgcfbL1D</v>
+        <v>R98tI2c6rF5</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>No</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>NO</v>
+        <v>No</v>
       </c>
       <c r="D24" s="4" t="str">
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
     <row r="25">
@@ -2514,19 +2514,19 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>pqxvAQU1z9W</v>
       </c>
       <c r="B40" s="4" t="str">
         <v>Unknown</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>UNKNOWN</v>
+        <v>Unknown</v>
       </c>
       <c r="D40" s="4" t="str">
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
     <row r="41">
@@ -2548,19 +2548,19 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>x9yVKkv9koc</v>
       </c>
       <c r="B42" s="4" t="str">
         <v>Yes</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>YES</v>
+        <v>Yes</v>
       </c>
       <c r="D42" s="4" t="str">
         <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
   </sheetData>
@@ -3454,21 +3454,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC - At least one underlying condition</v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v/>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>TWG0cq8P539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC - Complete vaccination uptake</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
@@ -3477,26 +3477,26 @@
         <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>wHd33PaphEC</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>TEST TEST</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
@@ -3505,7 +3505,7 @@
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>vFkbMQiABfj</v>
       </c>
     </row>
     <row r="6">
@@ -3524,7 +3524,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
@@ -3533,26 +3533,26 @@
         <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>wHd33PaphEC</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v/>
       </c>
       <c r="C8" s="4" t="str">
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>TWG0cq8P539</v>
+        <v>KV7fffdXnlY</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Underlying conditions</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
@@ -3561,12 +3561,12 @@
         <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
@@ -3575,12 +3575,12 @@
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAC - Vaccine uptake by sex</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B11" s="5" t="str">
         <v/>
@@ -3589,21 +3589,21 @@
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>COVAC - Vaccine uptake, last month</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v/>
+        <v>TEST TEST</v>
       </c>
       <c r="C12" s="4" t="str">
         <v/>
       </c>
       <c r="D12" s="4" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>vmNUVdhuxN7</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +3910,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3949,14 +3949,6 @@
       </c>
       <c r="B4" s="4" t="str">
         <v>qb8PkSObwqh</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>Person</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>loHxNJH4IvV</v>
       </c>
     </row>
   </sheetData>
@@ -4003,14 +3995,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="112.7109375" customWidth="1"/>
+    <col min="3" max="3" width="174.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -4034,75 +4026,75 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Address (current)</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v/>
+        <v>area_urban_rural</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">Current home address of the patient/case </v>
+        <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>YCqoNJZKvAG</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVID - Occupation</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>area_urban_rural</v>
+        <v>occupation</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Whether client lives in an urban or rural setting</v>
+        <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D3" s="5" t="str">
         <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>YCqoNJZKvAG</v>
+        <v>LY2bDXpNvS7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVID - Occupation</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>occupation</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Client occupation from the pre-defined list</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>LY2bDXpNvS7</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Date of birth (age)</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Date of birth plus calculated age</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>fctSQp5nAYl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>National ID</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
@@ -4114,108 +4106,23 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Family name</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Family name of the patient</v>
+        <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>aW66s2QSosT</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="str">
-        <v>Given name</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>The name of the patient or initials</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E8" s="4" t="str">
-        <v>TfdH5KvFmMy</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <v>Mobile phone number</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E9" s="5" t="str">
-        <v>ciCR6BBvIT4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="str">
-        <v>National ID</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E10" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="str">
-        <v>COVAC - Sex</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <v>covac_patinfo_sex</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <v>Sex of Person</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E11" s="5" t="str">
-        <v>CklPZdOd6H1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="str">
-        <v>Unique System Identifier (EPI)</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E12" s="4" t="str">
         <v>KSr2yTdu1AI</v>
       </c>
     </row>
@@ -4258,7 +4165,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-02</v>
+        <v>2021-03-16</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4297,7 +4204,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>a1jCssI2LkW</v>
@@ -4338,7 +4245,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Vaccination information</v>
@@ -4349,7 +4256,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>Vaccination information</v>
@@ -4360,7 +4267,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>Vaccination information</v>
@@ -4371,7 +4278,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B5" s="5" t="str">
         <v>Vaccination information</v>
@@ -4382,7 +4289,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B6" s="4" t="str">
         <v>Vaccination information</v>
@@ -4393,7 +4300,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B7" s="5" t="str">
         <v>Vaccination information</v>
@@ -4404,7 +4311,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4415,7 +4322,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B9" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4426,7 +4333,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>Pre-immunization Questions</v>
@@ -4437,7 +4344,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B11" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4448,7 +4355,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B12" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4459,7 +4366,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B13" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4470,7 +4377,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>Pre-immunization Questions</v>
@@ -4481,7 +4388,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4492,7 +4399,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B16" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4503,7 +4410,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B17" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4514,7 +4421,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B18" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4525,7 +4432,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4536,18 +4443,18 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>Vaccination information</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4558,7 +4465,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B22" s="4" t="str">
         <v>Vaccination information</v>
@@ -4569,7 +4476,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B23" s="5" t="str">
         <v>Vaccination information</v>
@@ -4580,7 +4487,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>Vaccination information</v>
@@ -4953,7 +4860,7 @@
         <v>kNzRGpiCvg4</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v xml:space="preserve">Doses given </v>
+        <v>Doses given</v>
       </c>
       <c r="C14" s="4" t="str">
         <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
@@ -4979,7 +4886,7 @@
         <v>AXweWKC4B3L</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v xml:space="preserve">Number of people receiving a first dose </v>
+        <v>Number of people receiving a first dose</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>First dose - Number of people</v>
@@ -5213,7 +5120,7 @@
         <v>zr25iLoCE4g</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+        <v>Number of people receiving a second, third or booster dose</v>
       </c>
       <c r="C24" s="4" t="str">
         <v>2nd, 3rd, booster dose - Number of people</v>
@@ -5242,7 +5149,7 @@
         <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
       </c>
       <c r="C25" s="5" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
+        <v>2nd, 3rd, booster dose - Number of males</v>
       </c>
       <c r="D25" s="5" t="str">
         <v>COV-2 (Male)</v>
@@ -5372,7 +5279,7 @@
         <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
       </c>
       <c r="C30" s="4" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
+        <v>2nd, 3rd, booster dose - Number of females</v>
       </c>
       <c r="D30" s="4" t="str">
         <v>COV-2 (Female)</v>
@@ -5840,7 +5747,7 @@
         <v>ZZZNumber of doses given</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
+        <v>ZZZ1st, 2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D48" s="4" t="str">
         <v>ZZZCOV-n</v>
@@ -5863,7 +5770,7 @@
         <v>BEw3zmRnGo4</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
+        <v>ZZZNumber of people (Female) receiving a second, third or booster dose</v>
       </c>
       <c r="C49" s="5" t="str">
         <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
@@ -5889,7 +5796,7 @@
         <v>IXW8ahBF3Pl</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+        <v>ZZZNumber of people (Male) receiving a second, third or booster dose</v>
       </c>
       <c r="C50" s="4" t="str">
         <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
@@ -5941,10 +5848,10 @@
         <v>sYIBsws6qUG</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+        <v>zzzNumber of people receiving a second, third or booster dose</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+        <v>zzz2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D52" s="4" t="str">
         <v xml:space="preserve">zzzCOV-2 </v>
@@ -6046,7 +5953,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -6335,7 +6242,7 @@
         <v>oPUB5us9T8e</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>Calculate age</v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
@@ -6400,13 +6307,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>HdOtRsvVzgY</v>
+        <v>R1bzqObecyQ</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Hide Trimester if nor pregnant</v>
+        <v>Hide Suggested date for next dose if vaccine product has no more doses</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v/>
+        <v>All vaccine types with two doses, after they receive one does, the "next dose date" will be hidden.</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
@@ -6417,10 +6324,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>I0FZ4YQgxfD</v>
+        <v>HdOtRsvVzgY</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Hide underlying conditions if none</v>
+        <v>Hide Trimester if nor pregnant</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
@@ -6434,10 +6341,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>I0FZ4YQgxfD</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
+        <v>Hide underlying conditions if none</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
@@ -6451,10 +6358,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>e0WJRMhSrZy</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
@@ -6468,10 +6375,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>xydE4Vcj6xU</v>
+        <v>e0WJRMhSrZy</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C25" s="5" t="str">
         <v/>
@@ -6485,10 +6392,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>ppbeGorruVj</v>
+        <v>xydE4Vcj6xU</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
       </c>
       <c r="C26" s="4" t="str">
         <v/>
@@ -6502,10 +6409,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>xeInMQrA5Mo</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
@@ -6519,10 +6426,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>jNtY9t6b120</v>
+        <v>xeInMQrA5Mo</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
@@ -6536,10 +6443,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>j16AULHWXur</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
@@ -6553,10 +6460,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C30" s="4" t="str">
         <v/>
@@ -6570,10 +6477,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
@@ -6587,10 +6494,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C32" s="4" t="str">
         <v/>
@@ -6604,10 +6511,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
@@ -6621,10 +6528,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
@@ -6638,10 +6545,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
@@ -6655,10 +6562,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
@@ -6672,10 +6579,10 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C37" s="5" t="str">
         <v/>
@@ -6689,10 +6596,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
@@ -6706,10 +6613,10 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
@@ -6723,10 +6630,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
@@ -6740,10 +6647,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>ParDbFN1amU</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
@@ -6757,10 +6664,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>l8opvp32VAd</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
@@ -6774,10 +6681,10 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
@@ -6791,13 +6698,13 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D44" s="4" t="str">
         <v/>
@@ -6808,10 +6715,10 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>AmgPexdbztQ</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>If patient has had underlying diseases, transfer that value to following stage</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C45" s="5" t="str">
         <v>Rule transfers date of remission and if person has previously had covid</v>
@@ -6825,10 +6732,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>AmgPexdbztQ</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If patient has had underlying diseases, transfer that value to following stage</v>
       </c>
       <c r="C46" s="4" t="str">
         <v/>
@@ -6842,10 +6749,10 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>XTLv9YqOtNX</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
@@ -6859,10 +6766,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>A6Oy09dbQwn</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C48" s="4" t="str">
         <v/>
@@ -6876,13 +6783,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>PJjKiFrvfuN</v>
+        <v>A6Oy09dbQwn</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
+        <v/>
       </c>
       <c r="D49" s="5" t="str">
         <v/>
@@ -6893,13 +6800,13 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Last dose - complete programme</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D50" s="4" t="str">
         <v/>
@@ -6910,10 +6817,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>SkBUqyO9zG0</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Send notification if overdue</v>
+        <v>Last dose - complete programme</v>
       </c>
       <c r="C51" s="5" t="str">
         <v/>
@@ -6927,10 +6834,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>W0YQaz1qRJb</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>Send notification if overdue</v>
       </c>
       <c r="C52" s="4" t="str">
         <v/>
@@ -6944,10 +6851,10 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>nU9WWRKt7PL</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>Show vaccine type from previous vaccination event</v>
       </c>
       <c r="C53" s="5" t="str">
         <v/>
@@ -6961,13 +6868,13 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>biYqhZM5HXe</v>
+        <v>LO6XtDyCbya</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Show warning if the client is a health worker</v>
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>If the client is a health worker, show a warning in the top bar</v>
+        <v/>
       </c>
       <c r="D54" s="4" t="str">
         <v/>
@@ -6978,18 +6885,35 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
+        <v>biYqhZM5HXe</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>Show warning if the client is a health worker</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>If the client is a health worker, show a warning in the top bar</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
         <v>hdPflHqZKO3</v>
       </c>
-      <c r="B55" s="5" t="str">
+      <c r="B56" s="4" t="str">
         <v>Show warning: If first dose, then hide "last dose" DE</v>
       </c>
-      <c r="C55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E55" s="5" t="str">
+      <c r="C56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -449,7 +449,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -481,7 +481,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.1.0</v>
+        <v>COVAC</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.33.8-3c90b70</v>
+        <v>TRACKER</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>20210302T170052</v>
+        <v>V1.1.2</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_V1.1.0_DHIS2.33.8-3c90b70_20210302T170052</v>
+        <v>COVAC_TRACKER_COVAC_TRACKER_V1.1.2_DHIS2.33.8-3c90b70_20210318T130229</v>
       </c>
     </row>
   </sheetData>
@@ -582,10 +582,10 @@
         <v>s2slttllN6D</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Given name</v>
+        <v>sB1IHYu2xQT</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>TfdH5KvFmMy</v>
+        <v>sB1IHYu2xQT</v>
       </c>
       <c r="D4" s="4" t="str">
         <v/>
@@ -599,10 +599,10 @@
         <v>CbvQnJ9vOOd</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Family name</v>
+        <v>ENRjVGxVL6l</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>aW66s2QSosT</v>
+        <v>ENRjVGxVL6l</v>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
@@ -616,10 +616,10 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Sex</v>
+        <v>oindugucx72</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>CklPZdOd6H1</v>
+        <v>oindugucx72</v>
       </c>
       <c r="D6" s="4" t="str">
         <v/>
@@ -647,13 +647,13 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>zTWSj3Lg5KP</v>
+        <v>dSiYRbN6NKt</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Date of birth (age)</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
       <c r="D8" s="4" t="str">
         <v/>
@@ -670,7 +670,7 @@
         <v>Mobile phone number</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>ciCR6BBvIT4</v>
+        <v>fctSQp5nAYl</v>
       </c>
       <c r="D9" s="5" t="str">
         <v/>
@@ -684,10 +684,10 @@
         <v>fWwyEWSOqKq</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Address (current)</v>
+        <v>Xhdn49gUd52</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>Xhdn49gUd52</v>
       </c>
       <c r="D10" s="4" t="str">
         <v/>
@@ -781,7 +781,7 @@
         <v>COVAC - AEFIs present</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>AEFIs_present</v>
+        <v>COVAC_AEFIs_present</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>Are there any adverse events present after receiving the immunization?</v>
@@ -1198,7 +1198,7 @@
         <v>totalDoses</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v xml:space="preserve">Total doses required for this vaccine product </v>
+        <v>Total doses required for this vaccine product</v>
       </c>
       <c r="E20" s="4" t="str">
         <v>default</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
       <c r="C23" s="5" t="str">
         <v>COVAC_vaccine_manufacturer</v>
@@ -1402,7 +1402,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="12">
@@ -1410,7 +1410,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="13">
@@ -1418,7 +1418,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1426,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="16">
@@ -1442,7 +1442,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1450,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="18">
@@ -1458,7 +1458,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="19">
@@ -1466,7 +1466,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="20">
@@ -1474,7 +1474,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="21">
@@ -1482,7 +1482,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="22">
@@ -1490,7 +1490,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="23">
@@ -1506,7 +1506,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1759,7 @@
         <v>kgDmgTYZICP</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (20-40 weeks)</v>
+        <v>1st Trimester (1-12 weeks); 2nd Trimester (13-28 weeks); 3rd Trimester (29-40 weeks)</v>
       </c>
     </row>
     <row r="6">
@@ -1806,13 +1806,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Sex</v>
+        <v>Sex</v>
       </c>
       <c r="B9" s="5" t="str">
         <v/>
       </c>
       <c r="C9" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>Female; Male</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Yes/No/Unknown</v>
+        <v>Yes/No/Unknown</v>
       </c>
       <c r="B10" s="4" t="str">
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>Yes; No; Unknown</v>
@@ -1957,7 +1957,7 @@
         <v>Q3obJT1MXov</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>3rd Trimester (20-40 weeks)</v>
+        <v>3rd Trimester (29-40 weeks)</v>
       </c>
       <c r="C7" s="5" t="str">
         <v>3trimester</v>
@@ -2090,19 +2090,19 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>AZK4rjJCss5</v>
+        <v>FKKrOBBFgs1</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Female</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>FEMALE</v>
+        <v>Female</v>
       </c>
       <c r="D15" s="5" t="str">
         <v/>
       </c>
       <c r="E15" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="16">
@@ -2192,19 +2192,19 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>UrUdMteQzlT</v>
+        <v>Ii4IxCLWEFn</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Male</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>MALE</v>
+        <v>Male</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <v>hiQ3QFheQ3O</v>
+        <v>WDUwjiW2rGH</v>
       </c>
     </row>
     <row r="22">
@@ -2243,19 +2243,19 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>PLlPgcfbL1D</v>
+        <v>R98tI2c6rF5</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>No</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>NO</v>
+        <v>No</v>
       </c>
       <c r="D24" s="4" t="str">
         <v/>
       </c>
       <c r="E24" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
     <row r="25">
@@ -2515,19 +2515,19 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>TKD1XJ4ZhMO</v>
+        <v>pqxvAQU1z9W</v>
       </c>
       <c r="B40" s="4" t="str">
         <v>Unknown</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>UNKNOWN</v>
+        <v>Unknown</v>
       </c>
       <c r="D40" s="4" t="str">
         <v/>
       </c>
       <c r="E40" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
     <row r="41">
@@ -2549,19 +2549,19 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>CvivP1rh4ii</v>
+        <v>x9yVKkv9koc</v>
       </c>
       <c r="B42" s="4" t="str">
         <v>Yes</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>YES</v>
+        <v>Yes</v>
       </c>
       <c r="D42" s="4" t="str">
         <v/>
       </c>
       <c r="E42" s="4" t="str">
-        <v>bLA3AqDKdwx</v>
+        <v>L6eMZDJkCwX</v>
       </c>
     </row>
   </sheetData>
@@ -3455,21 +3455,21 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC - At least one underlying condition</v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v xml:space="preserve"> </v>
+        <v>COVAC - People with completed vaccination schedule</v>
       </c>
       <c r="C2" s="4" t="str">
         <v/>
       </c>
       <c r="D2" s="4" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>TWG0cq8P539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC - Complete vaccination uptake</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
@@ -3478,26 +3478,26 @@
         <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>TEST TEST</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>vmNUVdhuxN7</v>
+        <v>vFkbMQiABfj</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="B5" s="5" t="str">
         <v xml:space="preserve"> </v>
@@ -3506,12 +3506,12 @@
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>GJPPSQuVt4N</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAC - Number of doses administered</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B6" s="4" t="str">
         <v xml:space="preserve"> </v>
@@ -3520,26 +3520,26 @@
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - People with completed vaccination schedule</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
         <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>TWG0cq8P539</v>
+        <v>KV7fffdXnlY</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAC - Underlying conditions</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B8" s="4" t="str">
         <v xml:space="preserve"> </v>
@@ -3548,12 +3548,12 @@
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="B9" s="5" t="str">
         <v xml:space="preserve"> </v>
@@ -3562,12 +3562,12 @@
         <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Vaccine uptake by sex</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B10" s="4" t="str">
         <v xml:space="preserve"> </v>
@@ -3576,21 +3576,21 @@
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAC - Vaccine uptake, last month</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>TEST TEST</v>
       </c>
       <c r="C11" s="5" t="str">
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>vmNUVdhuxN7</v>
       </c>
     </row>
   </sheetData>
@@ -3882,7 +3882,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3921,14 +3921,6 @@
       </c>
       <c r="B4" s="4" t="str">
         <v>qb8PkSObwqh</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="str">
-        <v>Person</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <v>loHxNJH4IvV</v>
       </c>
     </row>
   </sheetData>
@@ -4035,14 +4027,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="112.7109375" customWidth="1"/>
+    <col min="3" max="3" width="174.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
@@ -4066,75 +4058,75 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Address (current)</v>
+        <v>Area Urban Rural</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v/>
+        <v>area_urban_rural</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">Current home address of the patient/case </v>
+        <v>Whether client lives in an urban or rural setting</v>
       </c>
       <c r="D2" s="4" t="str">
         <v/>
       </c>
       <c r="E2" s="4" t="str">
-        <v>VCtm2pySeEV</v>
+        <v>YCqoNJZKvAG</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Area Urban Rural</v>
+        <v>COVID - Occupation</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>area_urban_rural</v>
+        <v>occupation</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>Whether client lives in an urban or rural setting</v>
+        <v>Client occupation from the pre-defined list</v>
       </c>
       <c r="D3" s="5" t="str">
         <v/>
       </c>
       <c r="E3" s="5" t="str">
-        <v>YCqoNJZKvAG</v>
+        <v>LY2bDXpNvS7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVID - Occupation</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>occupation</v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Client occupation from the pre-defined list</v>
+        <v/>
       </c>
       <c r="D4" s="4" t="str">
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>LY2bDXpNvS7</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Date of birth (age)</v>
+        <v>Mobile phone number</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>Date of birth plus calculated age</v>
+        <v/>
       </c>
       <c r="D5" s="5" t="str">
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>mAWcalQYYyk</v>
+        <v>fctSQp5nAYl</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>National ID</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
@@ -4146,108 +4138,23 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>Ewi7FUfcHAD</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Family name</v>
+        <v>Unique System Identifier (EPI)</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>Family name of the patient</v>
+        <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
       </c>
       <c r="D7" s="5" t="str">
         <v/>
       </c>
       <c r="E7" s="5" t="str">
-        <v>aW66s2QSosT</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="str">
-        <v>Given name</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>The name of the patient or initials</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E8" s="4" t="str">
-        <v>TfdH5KvFmMy</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <v>Mobile phone number</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D9" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E9" s="5" t="str">
-        <v>ciCR6BBvIT4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="str">
-        <v>National ID</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D10" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E10" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="str">
-        <v>COVAC - Sex</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <v>covac_patinfo_sex</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <v>Sex of Person</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E11" s="5" t="str">
-        <v>CklPZdOd6H1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="str">
-        <v>Unique System Identifier (EPI)</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v>System-generated unique ID following pattern: CURRENT_DATE(yyyy-MM-dd) followed by a sequential number (#####)</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <v/>
-      </c>
-      <c r="E12" s="4" t="str">
         <v>KSr2yTdu1AI</v>
       </c>
     </row>
@@ -4290,7 +4197,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-02</v>
+        <v>2021-03-16</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4329,7 +4236,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>a1jCssI2LkW</v>
@@ -4370,7 +4277,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B2" s="4" t="str">
         <v>Vaccination information</v>
@@ -4381,7 +4288,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B3" s="5" t="str">
         <v>Vaccination information</v>
@@ -4392,7 +4299,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B4" s="4" t="str">
         <v>Vaccination information</v>
@@ -4403,7 +4310,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B5" s="5" t="str">
         <v>Vaccination information</v>
@@ -4414,7 +4321,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B6" s="4" t="str">
         <v>Vaccination information</v>
@@ -4425,7 +4332,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B7" s="5" t="str">
         <v>Vaccination information</v>
@@ -4436,7 +4343,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B8" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4447,7 +4354,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B9" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4458,7 +4365,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>Pre-immunization Questions</v>
@@ -4469,7 +4376,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B11" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4480,7 +4387,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B12" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4491,7 +4398,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B13" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4502,7 +4409,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>Pre-immunization Questions</v>
@@ -4513,7 +4420,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B15" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4524,7 +4431,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B16" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4535,7 +4442,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B17" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4546,7 +4453,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B18" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4557,7 +4464,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B19" s="5" t="str">
         <v>Underlying Conditions</v>
@@ -4568,7 +4475,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>Underlying Conditions</v>
@@ -4579,18 +4486,18 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
         <v>Vaccination information</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v xml:space="preserve">COVAC - Vaccine Manufacturer </v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B22" s="4" t="str">
         <v>Vaccination information</v>
@@ -4601,7 +4508,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B23" s="5" t="str">
         <v>Vaccination information</v>
@@ -4612,7 +4519,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v xml:space="preserve">Vaccination </v>
+        <v>Vaccination</v>
       </c>
       <c r="B24" s="4" t="str">
         <v>Vaccination information</v>
@@ -4985,7 +4892,7 @@
         <v>kNzRGpiCvg4</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v xml:space="preserve">Doses given </v>
+        <v>Doses given</v>
       </c>
       <c r="C14" s="4" t="str">
         <v xml:space="preserve">1st, 2nd, 3rd, booster dose - Number of doses - </v>
@@ -5011,7 +4918,7 @@
         <v>AXweWKC4B3L</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v xml:space="preserve">Number of people receiving a first dose </v>
+        <v>Number of people receiving a first dose</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>First dose - Number of people</v>
@@ -5245,7 +5152,7 @@
         <v>zr25iLoCE4g</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v xml:space="preserve">Number of people receiving a second, third or booster dose </v>
+        <v>Number of people receiving a second, third or booster dose</v>
       </c>
       <c r="C24" s="4" t="str">
         <v>2nd, 3rd, booster dose - Number of people</v>
@@ -5274,7 +5181,7 @@
         <v xml:space="preserve">Number of people receiving a second, third or booster dose  (Male) </v>
       </c>
       <c r="C25" s="5" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of males </v>
+        <v>2nd, 3rd, booster dose - Number of males</v>
       </c>
       <c r="D25" s="5" t="str">
         <v>COV-2 (Male)</v>
@@ -5404,7 +5311,7 @@
         <v xml:space="preserve">Number of people receiving a second, third or booster dose (Female) </v>
       </c>
       <c r="C30" s="4" t="str">
-        <v xml:space="preserve">2nd, 3rd, booster dose - Number of females </v>
+        <v>2nd, 3rd, booster dose - Number of females</v>
       </c>
       <c r="D30" s="4" t="str">
         <v>COV-2 (Female)</v>
@@ -5872,7 +5779,7 @@
         <v>ZZZNumber of doses given</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v xml:space="preserve">ZZZ1st, 2nd, 3rd, booster dose - Number of people </v>
+        <v>ZZZ1st, 2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D48" s="4" t="str">
         <v>ZZZCOV-n</v>
@@ -5895,7 +5802,7 @@
         <v>BEw3zmRnGo4</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Female) receiving a second, third or booster dose </v>
+        <v>ZZZNumber of people (Female) receiving a second, third or booster dose</v>
       </c>
       <c r="C49" s="5" t="str">
         <v>ZZZ2nd, 3rd, booster dose - Number of females</v>
@@ -5921,7 +5828,7 @@
         <v>IXW8ahBF3Pl</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v xml:space="preserve">ZZZNumber of people (Male) receiving a second, third or booster dose </v>
+        <v>ZZZNumber of people (Male) receiving a second, third or booster dose</v>
       </c>
       <c r="C50" s="4" t="str">
         <v>ZZZ2nd, 3rd, booster dose - Number of males</v>
@@ -5973,10 +5880,10 @@
         <v>sYIBsws6qUG</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v xml:space="preserve">zzzNumber of people receiving a second, third or booster dose </v>
+        <v>zzzNumber of people receiving a second, third or booster dose</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v xml:space="preserve">zzz2nd, 3rd, booster dose - Number of people </v>
+        <v>zzz2nd, 3rd, booster dose - Number of people</v>
       </c>
       <c r="D52" s="4" t="str">
         <v xml:space="preserve">zzzCOV-2 </v>
@@ -6078,7 +5985,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -6367,7 +6274,7 @@
         <v>oPUB5us9T8e</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v xml:space="preserve">Calculate age </v>
+        <v>Calculate age</v>
       </c>
       <c r="C17" s="5" t="str">
         <v/>
@@ -6432,13 +6339,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>HdOtRsvVzgY</v>
+        <v>R1bzqObecyQ</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Hide Trimester if nor pregnant</v>
+        <v>Hide Suggested date for next dose if vaccine product has no more doses</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v/>
+        <v>All vaccine types with two doses, after they receive one does, the "next dose date" will be hidden.</v>
       </c>
       <c r="D21" s="5" t="str">
         <v/>
@@ -6449,10 +6356,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>I0FZ4YQgxfD</v>
+        <v>HdOtRsvVzgY</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Hide underlying conditions if none</v>
+        <v>Hide Trimester if nor pregnant</v>
       </c>
       <c r="C22" s="4" t="str">
         <v/>
@@ -6466,10 +6373,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>TRR2ODBsnkN</v>
+        <v>I0FZ4YQgxfD</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
+        <v>Hide underlying conditions if none</v>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
@@ -6483,10 +6390,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>e0WJRMhSrZy</v>
+        <v>TRR2ODBsnkN</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
+        <v>If Age is under 16, then warn that BioNTech/Pfizer is recommended for ages 16 and up</v>
       </c>
       <c r="C24" s="4" t="str">
         <v/>
@@ -6500,10 +6407,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>xydE4Vcj6xU</v>
+        <v>e0WJRMhSrZy</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that AstraZeneca is recommended for ages 18 and up</v>
       </c>
       <c r="C25" s="5" t="str">
         <v/>
@@ -6517,10 +6424,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>ppbeGorruVj</v>
+        <v>xydE4Vcj6xU</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that Gamaleya is recommended for ages 18 and up</v>
       </c>
       <c r="C26" s="4" t="str">
         <v/>
@@ -6534,10 +6441,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>xeInMQrA5Mo</v>
+        <v>ppbeGorruVj</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
+        <v>If Age is under 18, then warn that Moderna is recommended for ages 18 and up</v>
       </c>
       <c r="C27" s="5" t="str">
         <v/>
@@ -6551,10 +6458,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>jNtY9t6b120</v>
+        <v>xeInMQrA5Mo</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>if client has a history of cardiovascular disease assign value to current event</v>
+        <v>If Age is under 18, then warn that Sinopharm is recommended for ages 18 and up</v>
       </c>
       <c r="C28" s="4" t="str">
         <v/>
@@ -6568,10 +6475,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>j16AULHWXur</v>
+        <v>jNtY9t6b120</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
+        <v>if client has a history of cardiovascular disease assign value to current event</v>
       </c>
       <c r="C29" s="5" t="str">
         <v/>
@@ -6585,10 +6492,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>gmBh14b7tYb</v>
+        <v>j16AULHWXur</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
+        <v>If client has a history of Cardiovascular disease show it on indicator panel</v>
       </c>
       <c r="C30" s="4" t="str">
         <v/>
@@ -6602,10 +6509,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>i0YmXeSnrqn</v>
+        <v>gmBh14b7tYb</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>if client has a history of Chronic lung disease, add value to current event</v>
+        <v>If client has a history of Chronic lung disease show it on indicator panel</v>
       </c>
       <c r="C31" s="5" t="str">
         <v/>
@@ -6619,10 +6526,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>KGBdMuY2ASs</v>
+        <v>i0YmXeSnrqn</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>if client has a history of Diabetes assign value to current event</v>
+        <v>if client has a history of Chronic lung disease, add value to current event</v>
       </c>
       <c r="C32" s="4" t="str">
         <v/>
@@ -6636,10 +6543,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>r9NQ2R4eFIO</v>
+        <v>KGBdMuY2ASs</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>If client has a history of Diabetes show it on indicator panel</v>
+        <v>if client has a history of Diabetes assign value to current event</v>
       </c>
       <c r="C33" s="5" t="str">
         <v/>
@@ -6653,10 +6560,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>i5tOyWRc3S1</v>
+        <v>r9NQ2R4eFIO</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>if client has a history of immunodeficiency assign value to current event</v>
+        <v>If client has a history of Diabetes show it on indicator panel</v>
       </c>
       <c r="C34" s="4" t="str">
         <v/>
@@ -6670,10 +6577,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>ucrvgwsRCim</v>
+        <v>i5tOyWRc3S1</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>If client has a history of immunodeficiency show it on indicator panel</v>
+        <v>if client has a history of immunodeficiency assign value to current event</v>
       </c>
       <c r="C35" s="5" t="str">
         <v/>
@@ -6687,10 +6594,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>K9Vjkz1xOw1</v>
+        <v>ucrvgwsRCim</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>if client has a history of malignancy assign value to current event</v>
+        <v>If client has a history of immunodeficiency show it on indicator panel</v>
       </c>
       <c r="C36" s="4" t="str">
         <v/>
@@ -6704,10 +6611,10 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>SDfSLD0WFOL</v>
+        <v>K9Vjkz1xOw1</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>if client has a history of malignancy show it on indicator panel</v>
+        <v>if client has a history of malignancy assign value to current event</v>
       </c>
       <c r="C37" s="5" t="str">
         <v/>
@@ -6721,10 +6628,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>OdSVYvgu6G2</v>
+        <v>SDfSLD0WFOL</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>if client has a history of neurological deficiency assign value to current event</v>
+        <v>if client has a history of malignancy show it on indicator panel</v>
       </c>
       <c r="C38" s="4" t="str">
         <v/>
@@ -6738,10 +6645,10 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>vqQMyfw3i3u</v>
+        <v>OdSVYvgu6G2</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>If client has a history of Neurological disease show it on indicator panel</v>
+        <v>if client has a history of neurological deficiency assign value to current event</v>
       </c>
       <c r="C39" s="5" t="str">
         <v/>
@@ -6755,10 +6662,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>QEq5oRr4UEw</v>
+        <v>vqQMyfw3i3u</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>if client has a history of Other assign value to current event</v>
+        <v>If client has a history of Neurological disease show it on indicator panel</v>
       </c>
       <c r="C40" s="4" t="str">
         <v/>
@@ -6772,10 +6679,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>ParDbFN1amU</v>
+        <v>QEq5oRr4UEw</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>If client has a history of OTHER disease show it on indicator panel</v>
+        <v>if client has a history of Other assign value to current event</v>
       </c>
       <c r="C41" s="5" t="str">
         <v/>
@@ -6789,10 +6696,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>l8opvp32VAd</v>
+        <v>ParDbFN1amU</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>if client has a history of Renal disease assign value to current event</v>
+        <v>If client has a history of OTHER disease show it on indicator panel</v>
       </c>
       <c r="C42" s="4" t="str">
         <v/>
@@ -6806,10 +6713,10 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>qrIXRSq77JN</v>
+        <v>l8opvp32VAd</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>If client has a history of Renal Disease show it on indicator panel</v>
+        <v>if client has a history of Renal disease assign value to current event</v>
       </c>
       <c r="C43" s="5" t="str">
         <v/>
@@ -6823,13 +6730,13 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>GtxjhHBQdLQ</v>
+        <v>qrIXRSq77JN</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>If patient has had covid, assign value to data element of current event</v>
+        <v>If client has a history of Renal Disease show it on indicator panel</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Rule transfers date of remission and if person has previously had covid</v>
+        <v/>
       </c>
       <c r="D44" s="4" t="str">
         <v/>
@@ -6840,10 +6747,10 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>AmgPexdbztQ</v>
+        <v>GtxjhHBQdLQ</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>If patient has had underlying diseases, transfer that value to following stage</v>
+        <v>If patient has had covid, assign value to data element of current event</v>
       </c>
       <c r="C45" s="5" t="str">
         <v>Rule transfers date of remission and if person has previously had covid</v>
@@ -6857,10 +6764,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>XTLv9YqOtNX</v>
+        <v>AmgPexdbztQ</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>If previous vaccine is differente than current vaccine, show warning.</v>
+        <v>If patient has had underlying diseases, transfer that value to following stage</v>
       </c>
       <c r="C46" s="4" t="str">
         <v/>
@@ -6874,10 +6781,10 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>vd1vZsjDft4</v>
+        <v>XTLv9YqOtNX</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
+        <v>If previous vaccine is differente than current vaccine, show warning.</v>
       </c>
       <c r="C47" s="5" t="str">
         <v/>
@@ -6891,10 +6798,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>A6Oy09dbQwn</v>
+        <v>vd1vZsjDft4</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
+        <v>If previous vaccine is same as current vaccine, hide explanation field</v>
       </c>
       <c r="C48" s="4" t="str">
         <v/>
@@ -6908,13 +6815,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>PJjKiFrvfuN</v>
+        <v>A6Oy09dbQwn</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
+        <v>if there was an allergic reaction after the first dose, show warning "conduct AEFI Investigation"</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
+        <v/>
       </c>
       <c r="D49" s="5" t="str">
         <v/>
@@ -6925,13 +6832,13 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>SkBUqyO9zG0</v>
+        <v>PJjKiFrvfuN</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Last dose - complete programme</v>
+        <v>If this is the second dose, mark it as "last dose" for all vaccine products</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v/>
+        <v>It selects the "last dose" option, it assumes that all products have two doses as the complete schedule.</v>
       </c>
       <c r="D50" s="4" t="str">
         <v/>
@@ -6942,10 +6849,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>W0YQaz1qRJb</v>
+        <v>SkBUqyO9zG0</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>Send notification if overdue</v>
+        <v>Last dose - complete programme</v>
       </c>
       <c r="C51" s="5" t="str">
         <v/>
@@ -6959,10 +6866,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>nU9WWRKt7PL</v>
+        <v>W0YQaz1qRJb</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Show vaccine type from previous vaccination event</v>
+        <v>Send notification if overdue</v>
       </c>
       <c r="C52" s="4" t="str">
         <v/>
@@ -6976,10 +6883,10 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>LO6XtDyCbya</v>
+        <v>nU9WWRKt7PL</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>Show warning if person has had covid within 90 days of vaccination date</v>
+        <v>Show vaccine type from previous vaccination event</v>
       </c>
       <c r="C53" s="5" t="str">
         <v/>
@@ -6993,13 +6900,13 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>biYqhZM5HXe</v>
+        <v>LO6XtDyCbya</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Show warning if the client is a health worker</v>
+        <v>Show warning if person has had covid within 90 days of vaccination date</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>If the client is a health worker, show a warning in the top bar</v>
+        <v/>
       </c>
       <c r="D54" s="4" t="str">
         <v/>
@@ -7010,18 +6917,35 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
+        <v>biYqhZM5HXe</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <v>Show warning if the client is a health worker</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <v>If the client is a health worker, show a warning in the top bar</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="5" t="str">
+        <v>yDuAzyqYABS</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="str">
         <v>hdPflHqZKO3</v>
       </c>
-      <c r="B55" s="5" t="str">
+      <c r="B56" s="4" t="str">
         <v>Show warning: If first dose, then hide "last dose" DE</v>
       </c>
-      <c r="C55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E55" s="5" t="str">
+      <c r="C56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
         <v>yDuAzyqYABS</v>
       </c>
     </row>

--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -449,7 +449,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -481,7 +481,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC</v>
+        <v>V1.1.2</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>TRACKER</v>
+        <v>DHIS2.33.8-3c90b70</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>V1.1.2</v>
+        <v>20210406T115721</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_COVAC_TRACKER_V1.1.2_DHIS2.33.8-3c90b70_20210318T130229</v>
+        <v>COVAC_TRACKER_V1.1.2_DHIS2.33.8-3c90b70_20210406T115721</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +582,7 @@
         <v>s2slttllN6D</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>sB1IHYu2xQT</v>
+        <v>First Name</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>sB1IHYu2xQT</v>
@@ -599,7 +599,7 @@
         <v>CbvQnJ9vOOd</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>ENRjVGxVL6l</v>
+        <v>Surname</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>ENRjVGxVL6l</v>
@@ -616,7 +616,7 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>oindugucx72</v>
+        <v>Sex</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>oindugucx72</v>
@@ -650,7 +650,7 @@
         <v>dSiYRbN6NKt</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>NI0QRzJvQ0k</v>
+        <v>Date of birth</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>NI0QRzJvQ0k</v>
@@ -684,7 +684,7 @@
         <v>fWwyEWSOqKq</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Xhdn49gUd52</v>
+        <v>Home Address</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>Xhdn49gUd52</v>
@@ -1330,7 +1330,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="3">
@@ -1338,7 +1338,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="4">
@@ -1346,7 +1346,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC- Batch Number</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="5">
@@ -1354,7 +1354,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="6">
@@ -1362,7 +1362,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Dose Expiry Date</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="7">
@@ -1370,7 +1370,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="8">
@@ -1378,7 +1378,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="9">
@@ -1386,7 +1386,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="10">
@@ -1394,7 +1394,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="11">
@@ -1402,7 +1402,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="12">
@@ -1410,7 +1410,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="13">
@@ -1418,7 +1418,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1426,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="16">
@@ -1442,7 +1442,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1450,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="18">
@@ -1458,7 +1458,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="19">
@@ -1466,7 +1466,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="20">
@@ -1474,7 +1474,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="21">
@@ -1482,7 +1482,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="22">
@@ -1490,7 +1490,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="23">
@@ -1498,7 +1498,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="24">
@@ -1506,7 +1506,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAC - Vaccine Manufacturer</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
   </sheetData>
@@ -4027,13 +4027,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="174.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>Date of birth</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v>patinfo_ageonsetunit</v>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
@@ -4104,12 +4104,12 @@
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Mobile phone number</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
@@ -4121,15 +4121,15 @@
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>fctSQp5nAYl</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>National ID</v>
+        <v>First Name</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v/>
+        <v>first_name</v>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
@@ -4138,23 +4138,108 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>sB1IHYu2xQT</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
+        <v>Home Address</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>patinfo_resadmin0</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="5" t="str">
+        <v>Xhdn49gUd52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Mobile phone number</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v>fctSQp5nAYl</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="str">
+        <v>National ID</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="5" t="str">
+        <v>Ewi7FUfcHAD</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
+        <v>Sex</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v>patinfo_sex</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E10" s="4" t="str">
+        <v>oindugucx72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="str">
+        <v>Surname</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <v>surname</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <v>The patient's surname (family name)</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="5" t="str">
+        <v>ENRjVGxVL6l</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
         <v>Unique System Identifier (EPI)</v>
       </c>
-      <c r="B7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C7" s="5" t="str">
+      <c r="B12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
         <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
       </c>
-      <c r="D7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E7" s="5" t="str">
+      <c r="D12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="4" t="str">
         <v>KSr2yTdu1AI</v>
       </c>
     </row>
@@ -4197,7 +4282,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-16</v>
+        <v>2021-03-19</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
@@ -4478,10 +4563,10 @@
         <v>Vaccination</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Underlying Conditions</v>
+        <v>Vaccination information</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="21">
@@ -4489,10 +4574,10 @@
         <v>Vaccination</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Vaccination information</v>
+        <v>Underlying Conditions</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>COVAC - Vaccine Manufacturer</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="22">
@@ -4503,7 +4588,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="23">
@@ -4514,7 +4599,7 @@
         <v>Vaccination information</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="24">

--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -26,13 +26,14 @@
     <sheet name="indicatorTypes" sheetId="21" r:id="rId21"/>
     <sheet name="dashboards" sheetId="22" r:id="rId22"/>
     <sheet name="dashboardItems" sheetId="23" r:id="rId23"/>
-    <sheet name="visualizations" sheetId="24" r:id="rId24"/>
-    <sheet name="maps" sheetId="25" r:id="rId25"/>
-    <sheet name="eventCharts" sheetId="26" r:id="rId26"/>
-    <sheet name="trackedEntityInstanceFilters" sheetId="27" r:id="rId27"/>
-    <sheet name="programNotificationTemplates" sheetId="28" r:id="rId28"/>
-    <sheet name="userGroups" sheetId="29" r:id="rId29"/>
-    <sheet name="users" sheetId="30" r:id="rId30"/>
+    <sheet name="charts" sheetId="24" r:id="rId24"/>
+    <sheet name="reportTables" sheetId="25" r:id="rId25"/>
+    <sheet name="maps" sheetId="26" r:id="rId26"/>
+    <sheet name="eventCharts" sheetId="27" r:id="rId27"/>
+    <sheet name="trackedEntityInstanceFilters" sheetId="28" r:id="rId28"/>
+    <sheet name="programNotificationTemplates" sheetId="29" r:id="rId29"/>
+    <sheet name="userGroups" sheetId="30" r:id="rId30"/>
+    <sheet name="users" sheetId="31" r:id="rId31"/>
   </sheets>
 </workbook>
 </file>
@@ -448,7 +449,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,7 +481,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC</v>
+        <v>V1.1.2</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +489,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>TRACKER</v>
+        <v>DHIS2.33.8-3c90b70</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +497,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>V1.1.2</v>
+        <v>20210406T115721</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +505,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_COVAC_TRACKER_V1.1.2_DHIS2.34.3-80c86cc_20210318T014413</v>
+        <v>COVAC_TRACKER_V1.1.2_DHIS2.33.8-3c90b70_20210406T115721</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +582,7 @@
         <v>s2slttllN6D</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>sB1IHYu2xQT</v>
+        <v>First Name</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>sB1IHYu2xQT</v>
@@ -598,7 +599,7 @@
         <v>CbvQnJ9vOOd</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>ENRjVGxVL6l</v>
+        <v>Surname</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>ENRjVGxVL6l</v>
@@ -615,7 +616,7 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>oindugucx72</v>
+        <v>Sex</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>oindugucx72</v>
@@ -649,7 +650,7 @@
         <v>dSiYRbN6NKt</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>NI0QRzJvQ0k</v>
+        <v>Date of birth</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>NI0QRzJvQ0k</v>
@@ -683,7 +684,7 @@
         <v>fWwyEWSOqKq</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Xhdn49gUd52</v>
+        <v>Home Address</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>Xhdn49gUd52</v>
@@ -1329,7 +1330,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="3">
@@ -1337,7 +1338,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="4">
@@ -1345,7 +1346,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC- Batch Number</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="5">
@@ -1353,7 +1354,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="6">
@@ -1361,7 +1362,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Dose Expiry Date</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1370,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="8">
@@ -1377,7 +1378,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1386,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1394,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="11">
@@ -1401,7 +1402,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="12">
@@ -1409,7 +1410,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1418,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1426,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="15">
@@ -1433,7 +1434,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Dose Expiry Date</v>
       </c>
     </row>
     <row r="16">
@@ -1441,7 +1442,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="17">
@@ -1449,7 +1450,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="18">
@@ -1457,7 +1458,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="19">
@@ -1465,7 +1466,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1474,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="21">
@@ -1481,7 +1482,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1490,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="23">
@@ -1497,7 +1498,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="24">
@@ -1505,7 +1506,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAC - Vaccine Manufacturer</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
   </sheetData>
@@ -3086,7 +3087,7 @@
         <v>TWG0cq8P539</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>SINGLE_VALUE</v>
+        <v>Chart</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>COVAC - People with completed vaccination schedule</v>
@@ -3186,7 +3187,7 @@
         <v>wHd33PaphEC</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>PIVOT_TABLE</v>
+        <v>Pivot table</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
@@ -3206,7 +3207,7 @@
         <v>gNsB9zivLTy</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COLUMN</v>
+        <v>Chart</v>
       </c>
       <c r="C11" s="5" t="str">
         <v>COVAC - At least one underlying condition</v>
@@ -3226,7 +3227,7 @@
         <v>vFkbMQiABfj</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>PIE</v>
+        <v>Chart</v>
       </c>
       <c r="C12" s="4" t="str">
         <v>COVAC - Underlying conditions</v>
@@ -3243,13 +3244,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v/>
+        <v>Db3MWC56CBp</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>MAP</v>
+        <v>Map</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v/>
+        <v>COVAC-Dropout rates</v>
       </c>
       <c r="D13" s="5" t="str">
         <v>XaeVdRGnR7J</v>
@@ -3266,7 +3267,7 @@
         <v>GJPPSQuVt4N</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>SINGLE_VALUE</v>
+        <v>Chart</v>
       </c>
       <c r="C14" s="4" t="str">
         <v>COVAC - Number of doses administered</v>
@@ -3286,7 +3287,7 @@
         <v>aUjo2Myd25f</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COLUMN</v>
+        <v>Chart</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>COVAC - Complete vaccination uptake</v>
@@ -3306,7 +3307,7 @@
         <v>KV7fffdXnlY</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>PIE</v>
+        <v>Chart</v>
       </c>
       <c r="C16" s="4" t="str">
         <v>COVAC - Vaccine uptake by sex</v>
@@ -3326,7 +3327,7 @@
         <v>BWlYGFBDbO2</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>PIE</v>
+        <v>Chart</v>
       </c>
       <c r="C17" s="5" t="str">
         <v>COVAC - Vaccine uptake by age group</v>
@@ -3346,7 +3347,7 @@
         <v>MzSAvoJ0vLr</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>PIE</v>
+        <v>Chart</v>
       </c>
       <c r="C18" s="4" t="str">
         <v>COVAC - Vaccine uptake, last month</v>
@@ -3363,13 +3364,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v/>
+        <v>cOH1OjReS14</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>MAP</v>
+        <v>Map</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v/>
+        <v>COVAC-Number of doses given, last month</v>
       </c>
       <c r="D19" s="5" t="str">
         <v>BKU0qpNqRJt</v>
@@ -3386,7 +3387,7 @@
         <v>Hbs3xGj7XoN</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>LINE</v>
+        <v>Chart</v>
       </c>
       <c r="C20" s="4" t="str">
         <v>COVAC - Drop-out from COV-1 to COV-c</v>
@@ -3406,7 +3407,7 @@
         <v>vmNUVdhuxN7</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>STACKED_COLUMN</v>
+        <v>Chart</v>
       </c>
       <c r="C21" s="5" t="str">
         <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
@@ -3427,12 +3428,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="86.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -3468,141 +3469,127 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
         <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>wHd33PaphEC</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAC - At least one underlying condition</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>vFkbMQiABfj</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAC - Underlying conditions</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>GJPPSQuVt4N</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAC - Number of doses administered</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC - Complete vaccination uptake</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
         <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>KV7fffdXnlY</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAC - Vaccine uptake by sex</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
         <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Vaccine uptake, last month</v>
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>Hbs3xGj7XoN</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v/>
+        <v>TEST TEST</v>
       </c>
       <c r="C11" s="5" t="str">
         <v/>
       </c>
       <c r="D11" s="5" t="str">
-        <v>Hbs3xGj7XoN</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="str">
-        <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <v>TEST TEST</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D12" s="4" t="str">
         <v>vmNUVdhuxN7</v>
       </c>
     </row>
@@ -3611,6 +3598,51 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="86.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Description</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D2" s="4" t="str">
+        <v>wHd33PaphEC</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3669,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3728,7 +3760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3799,7 +3831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3842,66 +3874,6 @@
       </c>
       <c r="C3" s="5" t="str">
         <v/>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVAC - Covid-19 Immunization Data Analysis</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>VLIaHu6ou8E</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>COVAC - Covid-19 Immunization Data Entry</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>q3Nh5xhJEy2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>AEAQ9LktNze</v>
       </c>
     </row>
   </sheetData>
@@ -3957,6 +3929,66 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Data Analysis</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>VLIaHu6ou8E</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="str">
+        <v>COVAC - Covid-19 Immunization Data Entry</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>q3Nh5xhJEy2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>AEAQ9LktNze</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
@@ -3995,13 +4027,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="174.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -4060,10 +4092,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>Date of birth</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v>patinfo_ageonsetunit</v>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
@@ -4072,12 +4104,12 @@
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Mobile phone number</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
@@ -4089,15 +4121,15 @@
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>fctSQp5nAYl</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>National ID</v>
+        <v>First Name</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v/>
+        <v>first_name</v>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
@@ -4106,23 +4138,108 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>sB1IHYu2xQT</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
+        <v>Home Address</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>patinfo_resadmin0</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="5" t="str">
+        <v>Xhdn49gUd52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Mobile phone number</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v>fctSQp5nAYl</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="str">
+        <v>National ID</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="5" t="str">
+        <v>Ewi7FUfcHAD</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
+        <v>Sex</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v>patinfo_sex</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E10" s="4" t="str">
+        <v>oindugucx72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="str">
+        <v>Surname</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <v>surname</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <v>The patient's surname (family name)</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="5" t="str">
+        <v>ENRjVGxVL6l</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
         <v>Unique System Identifier (EPI)</v>
       </c>
-      <c r="B7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C7" s="5" t="str">
+      <c r="B12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
         <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
       </c>
-      <c r="D7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E7" s="5" t="str">
+      <c r="D12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="4" t="str">
         <v>KSr2yTdu1AI</v>
       </c>
     </row>
@@ -4165,7 +4282,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-16</v>
+        <v>2021-03-19</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>

--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -448,7 +448,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,7 +480,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC</v>
+        <v>V1.1.2</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>TRACKER</v>
+        <v>DHIS2.35.3-3492688</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>V1.1.2</v>
+        <v>20210408T081801</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +504,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_COVAC_TRACKER_V1.1.2_DHIS2.35.1-bca7d7b_20210318T015424</v>
+        <v>COVAC_TRACKER_V1.1.2_DHIS2.35.3-3492688_20210408T081801</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +581,7 @@
         <v>s2slttllN6D</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>sB1IHYu2xQT</v>
+        <v>First Name</v>
       </c>
       <c r="C4" s="4" t="str">
         <v>sB1IHYu2xQT</v>
@@ -598,7 +598,7 @@
         <v>CbvQnJ9vOOd</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>ENRjVGxVL6l</v>
+        <v>Surname</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>ENRjVGxVL6l</v>
@@ -615,7 +615,7 @@
         <v>kbwzu78u3JT</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>oindugucx72</v>
+        <v>Sex</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>oindugucx72</v>
@@ -649,7 +649,7 @@
         <v>dSiYRbN6NKt</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>NI0QRzJvQ0k</v>
+        <v>Date of birth</v>
       </c>
       <c r="C8" s="4" t="str">
         <v>NI0QRzJvQ0k</v>
@@ -683,7 +683,7 @@
         <v>fWwyEWSOqKq</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Xhdn49gUd52</v>
+        <v>Home Address</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>Xhdn49gUd52</v>
@@ -1337,7 +1337,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COVAC - Dose Number</v>
+        <v>COVAC - Underlying condition Other</v>
       </c>
     </row>
     <row r="4">
@@ -1345,7 +1345,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>COVAC - Renal Disease</v>
+        <v>COVAC - Dose Number</v>
       </c>
     </row>
     <row r="5">
@@ -1353,7 +1353,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>COVAC - Vaccine Name</v>
+        <v>COVAC- Batch Number</v>
       </c>
     </row>
     <row r="6">
@@ -1361,7 +1361,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>COVAC - Pregnancy</v>
+        <v>COVAC - Renal Disease</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC - Immunodeficiency</v>
+        <v>COVAC - Malignancy</v>
       </c>
     </row>
     <row r="8">
@@ -1377,7 +1377,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>COVAC - Multiple products used - Explain</v>
+        <v>COVAC - Vaccine Name</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1385,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>COVAC - AEFIs present</v>
+        <v>COVAC - Pregnancy</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1393,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>COVAC - Pregnancy gestation</v>
+        <v>COVAC - Immunodeficiency</v>
       </c>
     </row>
     <row r="11">
@@ -1401,7 +1401,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>COVAC - Allergic reaction after first dose</v>
+        <v>COVAC Previously infected with COVID</v>
       </c>
     </row>
     <row r="12">
@@ -1409,7 +1409,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>COVAC - Neurological/Neuromuscular</v>
+        <v>COVAC Suggested date for next dose</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1417,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>COVAC - Underlying condition Other</v>
+        <v>COVAC - Multiple products used - Explain</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1425,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>COVAC - Vaccine Manufacturer</v>
+        <v>COVAC - AEFIs present</v>
       </c>
     </row>
     <row r="15">
@@ -1433,7 +1433,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>COVAC- Batch Number</v>
+        <v>COVAC - Cardiovascular Disease</v>
       </c>
     </row>
     <row r="16">
@@ -1441,7 +1441,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>COVAC - Malignancy</v>
+        <v>COVAC - Vaccine Manufacturer</v>
       </c>
     </row>
     <row r="17">
@@ -1449,7 +1449,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>COVAC - Total doses</v>
+        <v>COVAC - Last Dose</v>
       </c>
     </row>
     <row r="18">
@@ -1457,7 +1457,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>COVAC Previously infected with COVID</v>
+        <v>COVAC - Pregnancy gestation</v>
       </c>
     </row>
     <row r="19">
@@ -1465,7 +1465,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>COVAC Suggested date for next dose</v>
+        <v>COVAC - Allergic reaction after first dose</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>COVAC - Cardiovascular Disease</v>
+        <v>COVAC - Chronic Lung Disease</v>
       </c>
     </row>
     <row r="21">
@@ -1481,7 +1481,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>COVAC - Last Dose</v>
+        <v>COVAC - Diabetes</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>COVAC - Chronic Lung Disease</v>
+        <v>COVAC - Neurological/Neuromuscular</v>
       </c>
     </row>
     <row r="23">
@@ -1497,7 +1497,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>COVAC - Diabetes</v>
+        <v>COVAC - Underlying condition</v>
       </c>
     </row>
     <row r="24">
@@ -1505,7 +1505,7 @@
         <v>COVAC - Covid-19 vaccination registry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>COVAC - Underlying condition</v>
+        <v>COVAC - Total doses</v>
       </c>
     </row>
   </sheetData>
@@ -3995,13 +3995,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="174.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Date of birth is estimated</v>
+        <v>Date of birth</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v/>
+        <v>patinfo_ageonsetunit</v>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
@@ -4072,12 +4072,12 @@
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Z1rLc1rVHK8</v>
+        <v>NI0QRzJvQ0k</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Mobile phone number</v>
+        <v>Date of birth is estimated</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
@@ -4089,15 +4089,15 @@
         <v/>
       </c>
       <c r="E5" s="5" t="str">
-        <v>fctSQp5nAYl</v>
+        <v>Z1rLc1rVHK8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>National ID</v>
+        <v>First Name</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v/>
+        <v>first_name</v>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
@@ -4106,23 +4106,108 @@
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Ewi7FUfcHAD</v>
+        <v>sB1IHYu2xQT</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
+        <v>Home Address</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>patinfo_resadmin0</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D7" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E7" s="5" t="str">
+        <v>Xhdn49gUd52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Mobile phone number</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v>fctSQp5nAYl</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="str">
+        <v>National ID</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D9" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="5" t="str">
+        <v>Ewi7FUfcHAD</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="str">
+        <v>Sex</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v>patinfo_sex</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E10" s="4" t="str">
+        <v>oindugucx72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="str">
+        <v>Surname</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <v>surname</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <v>The patient's surname (family name)</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="5" t="str">
+        <v>ENRjVGxVL6l</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
         <v>Unique System Identifier (EPI)</v>
       </c>
-      <c r="B7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C7" s="5" t="str">
+      <c r="B12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C12" s="4" t="str">
         <v>System-generated unique ID following pattern: EPI prefix + value randomly generated (#####) - Customize the length depending on the target population of your implementation</v>
       </c>
-      <c r="D7" s="5" t="str">
-        <v/>
-      </c>
-      <c r="E7" s="5" t="str">
+      <c r="D12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="4" t="str">
         <v>KSr2yTdu1AI</v>
       </c>
     </row>
@@ -4165,7 +4250,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-16</v>
+        <v>2021-03-19</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>

--- a/complete/reference.xlsx
+++ b/complete/reference.xlsx
@@ -26,14 +26,13 @@
     <sheet name="indicatorTypes" sheetId="21" r:id="rId21"/>
     <sheet name="dashboards" sheetId="22" r:id="rId22"/>
     <sheet name="dashboardItems" sheetId="23" r:id="rId23"/>
-    <sheet name="charts" sheetId="24" r:id="rId24"/>
-    <sheet name="reportTables" sheetId="25" r:id="rId25"/>
-    <sheet name="maps" sheetId="26" r:id="rId26"/>
-    <sheet name="eventCharts" sheetId="27" r:id="rId27"/>
-    <sheet name="trackedEntityInstanceFilters" sheetId="28" r:id="rId28"/>
-    <sheet name="programNotificationTemplates" sheetId="29" r:id="rId29"/>
-    <sheet name="userGroups" sheetId="30" r:id="rId30"/>
-    <sheet name="users" sheetId="31" r:id="rId31"/>
+    <sheet name="visualizations" sheetId="24" r:id="rId24"/>
+    <sheet name="maps" sheetId="25" r:id="rId25"/>
+    <sheet name="eventCharts" sheetId="26" r:id="rId26"/>
+    <sheet name="trackedEntityInstanceFilters" sheetId="27" r:id="rId27"/>
+    <sheet name="programNotificationTemplates" sheetId="28" r:id="rId28"/>
+    <sheet name="userGroups" sheetId="29" r:id="rId29"/>
+    <sheet name="users" sheetId="30" r:id="rId30"/>
   </sheets>
 </workbook>
 </file>
@@ -489,7 +488,7 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.33.8-3c90b70</v>
+        <v>DHIS2.34.4-aff07fb</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +496,7 @@
         <v>Created</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>20210406T115721</v>
+        <v>20210406T141800</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +504,7 @@
         <v>Identifier</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVAC_TRACKER_V1.1.2_DHIS2.33.8-3c90b70_20210406T115721</v>
+        <v>COVAC_TRACKER_V1.1.2_DHIS2.34.4-aff07fb_20210406T141800</v>
       </c>
     </row>
   </sheetData>
@@ -3087,7 +3086,7 @@
         <v>TWG0cq8P539</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>Chart</v>
+        <v>SINGLE_VALUE</v>
       </c>
       <c r="C5" s="5" t="str">
         <v>COVAC - People with completed vaccination schedule</v>
@@ -3187,7 +3186,7 @@
         <v>wHd33PaphEC</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Pivot table</v>
+        <v>PIVOT_TABLE</v>
       </c>
       <c r="C10" s="4" t="str">
         <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
@@ -3207,7 +3206,7 @@
         <v>gNsB9zivLTy</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>Chart</v>
+        <v>COLUMN</v>
       </c>
       <c r="C11" s="5" t="str">
         <v>COVAC - At least one underlying condition</v>
@@ -3227,7 +3226,7 @@
         <v>vFkbMQiABfj</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Chart</v>
+        <v>PIE</v>
       </c>
       <c r="C12" s="4" t="str">
         <v>COVAC - Underlying conditions</v>
@@ -3244,13 +3243,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>Db3MWC56CBp</v>
+        <v/>
       </c>
       <c r="B13" s="5" t="str">
-        <v>Map</v>
+        <v>MAP</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>COVAC-Dropout rates</v>
+        <v/>
       </c>
       <c r="D13" s="5" t="str">
         <v>XaeVdRGnR7J</v>
@@ -3267,7 +3266,7 @@
         <v>GJPPSQuVt4N</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Chart</v>
+        <v>SINGLE_VALUE</v>
       </c>
       <c r="C14" s="4" t="str">
         <v>COVAC - Number of doses administered</v>
@@ -3287,7 +3286,7 @@
         <v>aUjo2Myd25f</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>Chart</v>
+        <v>COLUMN</v>
       </c>
       <c r="C15" s="5" t="str">
         <v>COVAC - Complete vaccination uptake</v>
@@ -3307,7 +3306,7 @@
         <v>KV7fffdXnlY</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Chart</v>
+        <v>PIE</v>
       </c>
       <c r="C16" s="4" t="str">
         <v>COVAC - Vaccine uptake by sex</v>
@@ -3327,7 +3326,7 @@
         <v>BWlYGFBDbO2</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>Chart</v>
+        <v>PIE</v>
       </c>
       <c r="C17" s="5" t="str">
         <v>COVAC - Vaccine uptake by age group</v>
@@ -3347,7 +3346,7 @@
         <v>MzSAvoJ0vLr</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Chart</v>
+        <v>PIE</v>
       </c>
       <c r="C18" s="4" t="str">
         <v>COVAC - Vaccine uptake, last month</v>
@@ -3364,13 +3363,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>cOH1OjReS14</v>
+        <v/>
       </c>
       <c r="B19" s="5" t="str">
-        <v>Map</v>
+        <v>MAP</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>COVAC-Number of doses given, last month</v>
+        <v/>
       </c>
       <c r="D19" s="5" t="str">
         <v>BKU0qpNqRJt</v>
@@ -3387,7 +3386,7 @@
         <v>Hbs3xGj7XoN</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Chart</v>
+        <v>LINE</v>
       </c>
       <c r="C20" s="4" t="str">
         <v>COVAC - Drop-out from COV-1 to COV-c</v>
@@ -3407,7 +3406,7 @@
         <v>vmNUVdhuxN7</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>Chart</v>
+        <v>STACKED_COLUMN</v>
       </c>
       <c r="C21" s="5" t="str">
         <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
@@ -3428,12 +3427,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="86.7109375" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -3469,127 +3468,141 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>COVAC - At least one underlying condition</v>
+        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="C3" s="5" t="str">
         <v/>
       </c>
       <c r="D3" s="5" t="str">
-        <v>gNsB9zivLTy</v>
+        <v>wHd33PaphEC</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>COVAC - Underlying conditions</v>
+        <v>COVAC - At least one underlying condition</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="C4" s="4" t="str">
         <v/>
       </c>
       <c r="D4" s="4" t="str">
-        <v>vFkbMQiABfj</v>
+        <v>gNsB9zivLTy</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>COVAC - Number of doses administered</v>
+        <v>COVAC - Underlying conditions</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="C5" s="5" t="str">
         <v/>
       </c>
       <c r="D5" s="5" t="str">
-        <v>GJPPSQuVt4N</v>
+        <v>vFkbMQiABfj</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>COVAC - Complete vaccination uptake</v>
+        <v>COVAC - Number of doses administered</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="C6" s="4" t="str">
         <v/>
       </c>
       <c r="D6" s="4" t="str">
-        <v>aUjo2Myd25f</v>
+        <v>GJPPSQuVt4N</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>COVAC - Vaccine uptake by sex</v>
+        <v>COVAC - Complete vaccination uptake</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="C7" s="5" t="str">
         <v/>
       </c>
       <c r="D7" s="5" t="str">
-        <v>KV7fffdXnlY</v>
+        <v>aUjo2Myd25f</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>COVAC - Vaccine uptake by age group</v>
+        <v>COVAC - Vaccine uptake by sex</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="C8" s="4" t="str">
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <v>BWlYGFBDbO2</v>
+        <v>KV7fffdXnlY</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>COVAC - Vaccine uptake, last month</v>
+        <v>COVAC - Vaccine uptake by age group</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="C9" s="5" t="str">
         <v/>
       </c>
       <c r="D9" s="5" t="str">
-        <v>MzSAvoJ0vLr</v>
+        <v>BWlYGFBDbO2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+        <v>COVAC - Vaccine uptake, last month</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="C10" s="4" t="str">
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <v>Hbs3xGj7XoN</v>
+        <v>MzSAvoJ0vLr</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
+        <v>COVAC - Drop-out from COV-1 to COV-c</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D11" s="5" t="str">
+        <v>Hbs3xGj7XoN</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="str">
         <v>COVAC - Cumulative number of given doses, Last 4 weeks</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B12" s="4" t="str">
         <v>TEST TEST</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D11" s="5" t="str">
+      <c r="C12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="D12" s="4" t="str">
         <v>vmNUVdhuxN7</v>
       </c>
     </row>
@@ -3598,51 +3611,6 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="86.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Description</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVAC - People receiving COV-2 vs People completing the vaccination schedule (Cov-C)</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D2" s="4" t="str">
-        <v>wHd33PaphEC</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3701,7 +3669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3760,7 +3728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3831,7 +3799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3874,6 +3842,66 @@
       </c>
       <c r="C3" s="5" t="str">
         <v/>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Last updated</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>UID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Data Analysis</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C2" s="4" t="str">
+        <v>VLIaHu6ou8E</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="str">
+        <v>COVAC - Covid-19 Immunization Data Entry</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>q3Nh5xhJEy2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
+        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>AEAQ9LktNze</v>
       </c>
     </row>
   </sheetData>
@@ -3928,66 +3956,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Last updated</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>UID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="str">
-        <v>COVAC - Covid-19 Immunization Data Analysis</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>VLIaHu6ou8E</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="str">
-        <v>COVAC - Covid-19 Immunization Data Entry</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C3" s="5" t="str">
-        <v>q3Nh5xhJEy2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="str">
-        <v>COVAC - Covid-19 Immunization Metadata Admin</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>AEAQ9LktNze</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4282,7 +4250,7 @@
         <v>Person</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2021-03-19</v>
+        <v>2021-04-06</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>yDuAzyqYABS</v>
